--- a/VA_result_ELE.xlsx
+++ b/VA_result_ELE.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA7C6AC5-32C6-40AA-83BF-63AAD9A8B5BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C191DE-0D47-4E2A-8E91-FCA86C83BB18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{52377EC3-383E-45DD-9096-8AF93DC14327}"/>
   </bookViews>
   <sheets>
     <sheet name="VATRIM" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil3" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
@@ -61,9 +61,9 @@
     <definedName name="__123Graph_CTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_CXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="__123Graph_D" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="__123Graph_D" hidden="1">[2]E!#REF!</definedName>
     <definedName name="__123Graph_DCURRENT" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_E" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="__123Graph_E" hidden="1">[2]E!#REF!</definedName>
     <definedName name="__123Graph_ECURRENT" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_X" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XCAFCAC" hidden="1">[1]export!#REF!</definedName>
@@ -71,38 +71,38 @@
     <definedName name="__123Graph_XTOTX" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XTOTXVOL" hidden="1">[1]export!#REF!</definedName>
     <definedName name="__123Graph_XXM" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="_123graph_b" hidden="1">[4]A!#REF!</definedName>
+    <definedName name="_123graph_b" hidden="1">[3]A!#REF!</definedName>
     <definedName name="_12no" hidden="1">#REF!</definedName>
     <definedName name="_Fill" hidden="1">#REF!</definedName>
     <definedName name="_Fill1" hidden="1">#REF!</definedName>
-    <definedName name="_xlnm._FilterDatabase" hidden="1">[5]C!$P$428:$T$428</definedName>
+    <definedName name="_xlnm._FilterDatabase" hidden="1">[4]C!$P$428:$T$428</definedName>
     <definedName name="_Key1" hidden="1">#REF!</definedName>
     <definedName name="_new1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="_Order1" hidden="1">255</definedName>
     <definedName name="_Parse_In" hidden="1">#REF!</definedName>
     <definedName name="_Parse_Out" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Int" hidden="1">1</definedName>
-    <definedName name="_Regression_Out" hidden="1">[5]C!$AK$18:$AK$18</definedName>
-    <definedName name="_Regression_X" hidden="1">[5]C!$AK$11:$AU$11</definedName>
-    <definedName name="_Regression_Y" hidden="1">[5]C!$AK$10:$AU$10</definedName>
+    <definedName name="_Regression_Out" hidden="1">[4]C!$AK$18:$AK$18</definedName>
+    <definedName name="_Regression_X" hidden="1">[4]C!$AK$11:$AU$11</definedName>
+    <definedName name="_Regression_Y" hidden="1">[4]C!$AK$10:$AU$10</definedName>
     <definedName name="_Sort" hidden="1">#REF!</definedName>
-    <definedName name="ACwvu.Print." hidden="1">[6]Med!#REF!</definedName>
+    <definedName name="ACwvu.Print." hidden="1">[5]Med!#REF!</definedName>
     <definedName name="awea" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="cashplan" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="CRES" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="CRISa" hidden="1">[7]A!#REF!</definedName>
+    <definedName name="CRISa" hidden="1">[6]A!#REF!</definedName>
     <definedName name="e" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferes1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferger1" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="ergferges" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="graphe" hidden="1">[3]E!#REF!</definedName>
+    <definedName name="graphe" hidden="1">[2]E!#REF!</definedName>
     <definedName name="kol" hidden="1">#REF!</definedName>
     <definedName name="KONAN" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="kossi" hidden="1">#REF!</definedName>
     <definedName name="new" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="nnnnnnnnnnn" hidden="1">[1]export!#REF!</definedName>
-    <definedName name="pol" hidden="1">[4]A!#REF!</definedName>
+    <definedName name="pol" hidden="1">[3]A!#REF!</definedName>
     <definedName name="popl" hidden="1">#REF!</definedName>
     <definedName name="PROJA" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="q" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -110,7 +110,7 @@
     <definedName name="rtre" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
     <definedName name="Rwvu.Print." hidden="1">#N/A</definedName>
     <definedName name="s" hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
-    <definedName name="Swvu.Print." hidden="1">[6]Med!#REF!</definedName>
+    <definedName name="Swvu.Print." hidden="1">[5]Med!#REF!</definedName>
     <definedName name="tenou" hidden="1">#REF!</definedName>
     <definedName name="tyi" hidden="1">#REF!</definedName>
     <definedName name="wrn.Main._.Economic._.Indicators." hidden="1">{"Main Economic Indicators",#N/A,FALSE,"C"}</definedName>
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="118">
   <si>
     <t>2021-07-01</t>
   </si>
@@ -451,25 +451,94 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>2025-10-01</t>
+  </si>
+  <si>
+    <t>2025-07-01</t>
+  </si>
+  <si>
+    <t>2025-04-01</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
+  </si>
+  <si>
+    <t>2024-10-01</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
+  </si>
+  <si>
+    <t>2024-04-01</t>
+  </si>
+  <si>
+    <t>2024-01-01</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>2023-07-01</t>
+  </si>
+  <si>
+    <t>2023-04-01</t>
+  </si>
+  <si>
+    <t>2023-01-01</t>
+  </si>
+  <si>
+    <t>2022-10-01</t>
+  </si>
+  <si>
+    <t>2022-07-01</t>
+  </si>
+  <si>
+    <t>2022-04-01</t>
+  </si>
+  <si>
+    <t>2022-01-01</t>
+  </si>
+  <si>
+    <t>2021-10-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -481,15 +550,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A7BCC3CB-6590-4946-924B-F36A3604CE32}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,268 +636,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="pro"/>
-      <sheetName val="ind"/>
-      <sheetName val="VA"/>
-      <sheetName val="conso"/>
-      <sheetName val="Tables du Contenu"/>
-      <sheetName val="Indications"/>
-      <sheetName val="MAP"/>
-      <sheetName val="Data_Eviews"/>
-      <sheetName val="Ind_rel_Prod_CST (2)"/>
-      <sheetName val="Resultats _Reg_Coef"/>
-      <sheetName val="Resultats _Reg_Filted"/>
-      <sheetName val="Resultats _Reg_Resid"/>
-      <sheetName val="Resultats_Ind_Forecast"/>
-      <sheetName val="Data Indicateurs_Trim"/>
-      <sheetName val="AGV_CNA"/>
-      <sheetName val="Feuil1"/>
-      <sheetName val="Feuil2"/>
-      <sheetName val="AGV_IND"/>
-      <sheetName val="AGV_ETALONNAGE"/>
-      <sheetName val="AGV_RESIDUS"/>
-      <sheetName val="AGV_CALAGE"/>
-      <sheetName val="AVG_PREVISION"/>
-      <sheetName val="AEX_CNA"/>
-      <sheetName val="AEX_IND"/>
-      <sheetName val="AEX_ETALONNAGE"/>
-      <sheetName val="AEX_RESIDUS"/>
-      <sheetName val="AEX_CALAGE"/>
-      <sheetName val="AEX_PREVISION"/>
-      <sheetName val="ELE_CNA"/>
-      <sheetName val="ELE_CALAGE"/>
-      <sheetName val="ELE_PREVISION"/>
-      <sheetName val="SYL_CNA"/>
-      <sheetName val="SYL_CALAGE"/>
-      <sheetName val="SYL_PREVISION"/>
-      <sheetName val="EXT_CNA"/>
-      <sheetName val="EXT_IND"/>
-      <sheetName val="EXT_ETALONNAGE"/>
-      <sheetName val="EXT_RESIDUS"/>
-      <sheetName val="EXT_CALAGE"/>
-      <sheetName val="EXT_PREVISION"/>
-      <sheetName val="AUI_CNA"/>
-      <sheetName val="AUI_IND"/>
-      <sheetName val="AUI_ETALONNAGE"/>
-      <sheetName val="AUI_RESIDUS"/>
-      <sheetName val="AUI_CALAGE"/>
-      <sheetName val="AUI_PREVISION"/>
-      <sheetName val="RAF_CNA"/>
-      <sheetName val="RAF_IND"/>
-      <sheetName val="RAF_ETALONNAGE"/>
-      <sheetName val="RAF_RESIDUS"/>
-      <sheetName val="RAF_CALAGE"/>
-      <sheetName val="RAF_PREVISION"/>
-      <sheetName val="ENE_CNA"/>
-      <sheetName val="ENE_IND"/>
-      <sheetName val="ENE_ETALONNAGE"/>
-      <sheetName val="ENE_RESIDUS"/>
-      <sheetName val="ENE_CALAGE"/>
-      <sheetName val="ENE_PREVISION"/>
-      <sheetName val="IAA_CNA"/>
-      <sheetName val="IAA_IND"/>
-      <sheetName val="IAA_ETALONNAGE"/>
-      <sheetName val="IAA_RESIDUS"/>
-      <sheetName val="IAA_CALAGE"/>
-      <sheetName val="IAA_PREVISION"/>
-      <sheetName val="BFA_CNA"/>
-      <sheetName val="BFA_IND"/>
-      <sheetName val="BFA_ETALONNAGE"/>
-      <sheetName val="BFA_RESIDUS"/>
-      <sheetName val="BFA_CALAGE"/>
-      <sheetName val="BFA_PREVISION"/>
-      <sheetName val="BTP_CNA"/>
-      <sheetName val="BTP_IND"/>
-      <sheetName val="BTP_ETALONNAGE"/>
-      <sheetName val="BTP_RESIDUS"/>
-      <sheetName val="BTP_CALAGE"/>
-      <sheetName val="BTP_PREVISION"/>
-      <sheetName val="COM_CNA"/>
-      <sheetName val="COM_IND"/>
-      <sheetName val="COM_ETALONNAGE"/>
-      <sheetName val="COM_RESIDUS"/>
-      <sheetName val="COM_CALAGE"/>
-      <sheetName val="COM_PREVISION"/>
-      <sheetName val="HOT_CNA"/>
-      <sheetName val="HOT_IND"/>
-      <sheetName val="HOT_ETALONNAGE"/>
-      <sheetName val="HOT_RESIDUS"/>
-      <sheetName val="HOT_CALAGE"/>
-      <sheetName val="HOT_PREVISION"/>
-      <sheetName val="TEL_CNA"/>
-      <sheetName val="TEL_IND"/>
-      <sheetName val="TEL_ETALONNAGE"/>
-      <sheetName val="TEL_RESIDUS"/>
-      <sheetName val="TEL_CALAGE"/>
-      <sheetName val="TEL_PREVISION"/>
-      <sheetName val="TRA_CNA"/>
-      <sheetName val="TRA_IND"/>
-      <sheetName val="TRA_ETALONNAGE"/>
-      <sheetName val="TRA_RESIDUS"/>
-      <sheetName val="TRA_CALAGE"/>
-      <sheetName val="TRA_PREVISION"/>
-      <sheetName val="AUS_CNA"/>
-      <sheetName val="AUS_IND"/>
-      <sheetName val="AUS_ETALONNAGE"/>
-      <sheetName val="AUS_RESIDUS"/>
-      <sheetName val="AUS_CALAGE"/>
-      <sheetName val="AUS_PREVISION"/>
-      <sheetName val="APU_CNA"/>
-      <sheetName val="APU_IND"/>
-      <sheetName val="APU_ETALONNAGE"/>
-      <sheetName val="APU_RESIDUS"/>
-      <sheetName val="APU_CALAGE"/>
-      <sheetName val="APU_PREVISION"/>
-      <sheetName val="DTX_CNA"/>
-      <sheetName val="DTX_IND"/>
-      <sheetName val="DTX_ETALONNAGE"/>
-      <sheetName val="DTX_RESIDUS"/>
-      <sheetName val="DTX_CALAGE"/>
-      <sheetName val="DTX_PREVISION"/>
-      <sheetName val="FRANCS CST_2015_op1"/>
-      <sheetName val="FRANCS CST_2015_op2"/>
-      <sheetName val="Option"/>
-      <sheetName val="FRANCS CST_2015"/>
-      <sheetName val="FRANCS CST_2015_Croissance"/>
-      <sheetName val="FRANCS CST_2015_Contributions"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
-      <sheetData sheetId="31"/>
-      <sheetData sheetId="32"/>
-      <sheetData sheetId="33"/>
-      <sheetData sheetId="34"/>
-      <sheetData sheetId="35"/>
-      <sheetData sheetId="36"/>
-      <sheetData sheetId="37"/>
-      <sheetData sheetId="38"/>
-      <sheetData sheetId="39"/>
-      <sheetData sheetId="40"/>
-      <sheetData sheetId="41"/>
-      <sheetData sheetId="42"/>
-      <sheetData sheetId="43"/>
-      <sheetData sheetId="44"/>
-      <sheetData sheetId="45"/>
-      <sheetData sheetId="46"/>
-      <sheetData sheetId="47"/>
-      <sheetData sheetId="48"/>
-      <sheetData sheetId="49"/>
-      <sheetData sheetId="50"/>
-      <sheetData sheetId="51"/>
-      <sheetData sheetId="52"/>
-      <sheetData sheetId="53"/>
-      <sheetData sheetId="54"/>
-      <sheetData sheetId="55"/>
-      <sheetData sheetId="56"/>
-      <sheetData sheetId="57"/>
-      <sheetData sheetId="58"/>
-      <sheetData sheetId="59"/>
-      <sheetData sheetId="60"/>
-      <sheetData sheetId="61"/>
-      <sheetData sheetId="62"/>
-      <sheetData sheetId="63"/>
-      <sheetData sheetId="64"/>
-      <sheetData sheetId="65"/>
-      <sheetData sheetId="66"/>
-      <sheetData sheetId="67"/>
-      <sheetData sheetId="68"/>
-      <sheetData sheetId="69"/>
-      <sheetData sheetId="70"/>
-      <sheetData sheetId="71"/>
-      <sheetData sheetId="72"/>
-      <sheetData sheetId="73"/>
-      <sheetData sheetId="74"/>
-      <sheetData sheetId="75"/>
-      <sheetData sheetId="76"/>
-      <sheetData sheetId="77"/>
-      <sheetData sheetId="78"/>
-      <sheetData sheetId="79"/>
-      <sheetData sheetId="80"/>
-      <sheetData sheetId="81"/>
-      <sheetData sheetId="82"/>
-      <sheetData sheetId="83"/>
-      <sheetData sheetId="84"/>
-      <sheetData sheetId="85"/>
-      <sheetData sheetId="86"/>
-      <sheetData sheetId="87"/>
-      <sheetData sheetId="88"/>
-      <sheetData sheetId="89"/>
-      <sheetData sheetId="90"/>
-      <sheetData sheetId="91"/>
-      <sheetData sheetId="92"/>
-      <sheetData sheetId="93"/>
-      <sheetData sheetId="94"/>
-      <sheetData sheetId="95"/>
-      <sheetData sheetId="96"/>
-      <sheetData sheetId="97"/>
-      <sheetData sheetId="98"/>
-      <sheetData sheetId="99"/>
-      <sheetData sheetId="100"/>
-      <sheetData sheetId="101"/>
-      <sheetData sheetId="102"/>
-      <sheetData sheetId="103"/>
-      <sheetData sheetId="104"/>
-      <sheetData sheetId="105"/>
-      <sheetData sheetId="106"/>
-      <sheetData sheetId="107"/>
-      <sheetData sheetId="108"/>
-      <sheetData sheetId="109"/>
-      <sheetData sheetId="110"/>
-      <sheetData sheetId="111"/>
-      <sheetData sheetId="112"/>
-      <sheetData sheetId="113"/>
-      <sheetData sheetId="114"/>
-      <sheetData sheetId="115"/>
-      <sheetData sheetId="116"/>
-      <sheetData sheetId="117"/>
-      <sheetData sheetId="118"/>
-      <sheetData sheetId="119"/>
-      <sheetData sheetId="120"/>
-      <sheetData sheetId="121"/>
-      <sheetData sheetId="122"/>
-      <sheetData sheetId="123"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1038,7 +848,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1159,7 +969,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1459,7 +1269,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1522,7 +1332,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1972,944 +1782,1549 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B95D69CC-8500-49B9-9930-FC06C53908A5}">
   <dimension ref="A1:B117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A117"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B2">
         <v>98305.901770632947</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B3">
         <v>98496.637126241214</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B4">
         <v>98878.107837457792</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B5">
         <v>99450.313904282681</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B6">
         <v>100792.10828312159</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B7">
         <v>102428.49946802085</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B8">
         <v>104933.93350437918</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B9">
         <v>108308.41039219662</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B10">
         <v>112190.72573257494</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B11">
         <v>115256.85500077301</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B12">
         <v>117159.21220492345</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B13">
         <v>117897.79734502631</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B14">
         <v>117133.36832948626</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B15">
         <v>117232.63637417273</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B16">
         <v>117855.13151572621</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B17">
         <v>119000.85375414681</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B18">
         <v>119386.44513865307</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B19">
         <v>121997.4174614427</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B20">
         <v>125568.16252638749</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B21">
         <v>130098.68033348751</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B22">
         <v>134443.9903818949</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B23">
         <v>135821.0908206146</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B24">
         <v>133131.36388451367</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B25">
         <v>126374.80957359209</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B26">
         <v>114837.55425653531</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B27">
         <v>106853.81360196626</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B28">
         <v>101642.84741596415</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="29" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B29">
         <v>99204.655698528935</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B30">
         <v>99941.738746766845</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B31">
         <v>99953.538014703401</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B32">
         <v>99641.200869094522</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B33">
         <v>99004.727309940266</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B34">
         <v>97599.610964874097</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B35">
         <v>97097.349474830567</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B36">
         <v>97049.081313194052</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B37">
         <v>97454.806479964565</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B38">
         <v>98009.476299859729</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B39">
         <v>98202.553300698448</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B40">
         <v>97731.656327466961</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B41">
         <v>96596.785380165267</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B42">
         <v>94768.79144581678</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B43">
         <v>93259.3931933438</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
         <v>92038.888490643905</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B45">
         <v>91107.277337717082</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+    <row r="46" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B46">
         <v>90116.587583835746</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+    <row r="47" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B47">
         <v>89745.251023482168</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="48" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B48">
         <v>89642.823291093053</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B49">
         <v>89809.304386668417</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B50">
         <v>89767.752481459072</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B51">
         <v>90151.876167534254</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B52">
         <v>90487.034645229505</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B53">
         <v>90773.227914544856</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B54">
         <v>90479.077736228923</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B55">
         <v>90112.584420743049</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="56" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B56">
         <v>89143.754820559334</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="57" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B57">
         <v>87572.588935677792</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="58" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B58">
         <v>84747.48108763418</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="59" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B59">
         <v>83307.99822178937</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B60">
         <v>82585.950567161461</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B61">
         <v>82581.338123750465</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B62">
         <v>84575.694983590583</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B63">
         <v>85011.680966871354</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B64">
         <v>85159.862930123971</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+    <row r="65" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B65">
         <v>85020.240873348463</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+    <row r="66" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B66">
         <v>85882.984143188951</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
+    <row r="67" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B67">
         <v>86761.314185638112</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="68" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B68">
         <v>88951.919246416495</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B69">
         <v>92454.799325524131</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B70">
         <v>96980.534088625776</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+    <row r="71" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B71">
         <v>97345.581637127281</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+    <row r="72" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B72">
         <v>93274.848813121571</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+    <row r="73" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B73">
         <v>84768.33561660866</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+    <row r="74" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B74">
         <v>77341.361956337234</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+    <row r="75" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B75">
         <v>68649.178806149648</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="76" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B76">
         <v>65200.90842490588</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="77" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B77">
         <v>66996.550812605972</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="78" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B78">
         <v>68413.767423470665</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+    <row r="79" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B79">
         <v>72382.347595066502</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+    <row r="80" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B80">
         <v>73814.540085797649</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+    <row r="81" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B81">
         <v>72710.344895664079</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+    <row r="82" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B82">
         <v>86589.948056442678</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+    <row r="83" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B83">
         <v>83126.479058820129</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B84">
         <v>80763.591560554269</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+    <row r="85" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B85">
         <v>79501.285561645112</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B86">
         <v>74806.981779457055</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+    <row r="87" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B87">
         <v>75227.46158705675</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+    <row r="88" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B88">
         <v>76220.906564279328</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+    <row r="89" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B89">
         <v>77787.316711124789</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+    <row r="90" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B90">
         <v>79926.69202759309</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+    <row r="91" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B91">
         <v>81394.857602754273</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+    <row r="92" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B92">
         <v>82191.813436608325</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+    <row r="93" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B93">
         <v>82317.559529155216</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+    <row r="94" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B94">
         <v>81772.095880395049</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="95" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B95">
         <v>81362.998143824851</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="96" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B96">
         <v>81090.266319444738</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="97" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B97">
         <v>80953.900407254667</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="98" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B98">
         <v>85514.299423443954</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+    <row r="99" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B99">
         <v>84682.278443426811</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+    <row r="100" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B100">
         <v>83723.052936613443</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <v>44470</v>
+    <row r="101" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="B101">
         <v>82640.696406470233</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <v>44562</v>
+    <row r="102" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="B102">
         <v>89427.76049886785</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <v>44652</v>
+    <row r="103" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="B103">
         <v>88136.9719155848</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <v>44743</v>
+    <row r="104" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B104">
         <v>86441.319176505742</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <v>44835</v>
+    <row r="105" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B105">
         <v>84362.639331635699</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <v>44927</v>
+    <row r="106" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>112</v>
       </c>
       <c r="B106">
         <v>93520.316505690542</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <v>45017</v>
+    <row r="107" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="B107">
         <v>91732.602868476082</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <v>45108</v>
+    <row r="108" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="B108">
         <v>89247.840336539724</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <v>45200</v>
+    <row r="109" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B109">
         <v>86120.461521696794</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <v>45292</v>
+    <row r="110" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="B110">
         <v>97800.163512260362</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <v>45383</v>
+    <row r="111" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="B111">
         <v>95474.920979643823</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>45474</v>
+    <row r="112" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="B112">
         <v>92145.481820705216</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>45566</v>
+    <row r="113" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="B113">
         <v>87914.910574980182</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>45658</v>
+    <row r="114" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="B114">
         <v>102275.8726703289</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <v>45748</v>
+    <row r="115" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B115">
         <v>99369.910490153125</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <v>45839</v>
+    <row r="116" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="B116">
         <v>95137.202065086021</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <v>45931</v>
+    <row r="117" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="B117">
         <v>89746.749667145545</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAEDC54-78FC-4B18-9583-121FF4E8DD0C}">
+  <dimension ref="A1:A117"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A117"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="10.90625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/VA_result_ELE.xlsx
+++ b/VA_result_ELE.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t xml:space="preserve">ANNEE</t>
   </si>
@@ -98,6 +98,12 @@
     <t xml:space="preserve">2020-01-01</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">DATE</t>
   </si>
   <si>
@@ -326,9 +332,6 @@
     <t xml:space="preserve">2020-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-01-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">2021-04-01</t>
   </si>
   <si>
@@ -338,9 +341,6 @@
     <t xml:space="preserve">2021-10-01</t>
   </si>
   <si>
-    <t xml:space="preserve">2022-01-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-04-01</t>
   </si>
   <si>
@@ -509,6 +509,12 @@
     <t xml:space="preserve">2020</t>
   </si>
   <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">time</t>
   </si>
   <si>
@@ -533,31 +539,31 @@
     <t xml:space="preserve">var_controle</t>
   </si>
   <si>
+    <t xml:space="preserve">2.8421709430404e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.6843418860808e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.8421709430404e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.6843418860808e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.5265128291212e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-4.2632564145606e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.4210854715202e-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
-    <t xml:space="preserve">5.82076609134674e-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.3283064365387e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.74622982740402e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.16415321826935e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.91038304567337e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.49245965480804e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.65661287307739e-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.07453626394272e-10</t>
+    <t xml:space="preserve">4.2632564145606e-14</t>
   </si>
 </sst>
 </file>
@@ -1031,6 +1037,16 @@
         <v>25</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1047,7 +1063,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2">
@@ -1057,17 +1073,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
@@ -1077,17 +1093,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -1097,17 +1113,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -1117,17 +1133,17 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18">
@@ -1137,17 +1153,17 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22">
@@ -1157,17 +1173,17 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -1177,17 +1193,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30">
@@ -1197,17 +1213,17 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34">
@@ -1217,17 +1233,17 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38">
@@ -1237,17 +1253,17 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42">
@@ -1257,17 +1273,17 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46">
@@ -1277,17 +1293,17 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50">
@@ -1297,17 +1313,17 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54">
@@ -1317,17 +1333,17 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58">
@@ -1337,17 +1353,17 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62">
@@ -1357,17 +1373,17 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
@@ -1377,17 +1393,17 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70">
@@ -1397,17 +1413,17 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74">
@@ -1417,17 +1433,17 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="78">
@@ -1437,17 +1453,17 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="82">
@@ -1457,17 +1473,17 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="86">
@@ -1477,17 +1493,17 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90">
@@ -1497,17 +1513,17 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="94">
@@ -1517,17 +1533,17 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="98">
@@ -1537,42 +1553,42 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
@@ -1874,6 +1890,16 @@
         <v>162</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1890,7 +1916,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
@@ -1900,17 +1926,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6">
@@ -1920,17 +1946,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -1940,17 +1966,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -1960,17 +1986,17 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18">
@@ -1980,17 +2006,17 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -2000,17 +2026,17 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -2020,17 +2046,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -2040,17 +2066,17 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
@@ -2060,17 +2086,17 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38">
@@ -2080,17 +2106,17 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42">
@@ -2100,17 +2126,17 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46">
@@ -2120,17 +2146,17 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50">
@@ -2140,17 +2166,17 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54">
@@ -2160,17 +2186,17 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58">
@@ -2180,17 +2206,17 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62">
@@ -2200,17 +2226,17 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66">
@@ -2220,17 +2246,17 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70">
@@ -2240,17 +2266,17 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74">
@@ -2260,17 +2286,17 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="78">
@@ -2280,17 +2306,17 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82">
@@ -2300,17 +2326,17 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="86">
@@ -2320,17 +2346,17 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="90">
@@ -2340,17 +2366,17 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
@@ -2360,17 +2386,57 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2389,28 +2455,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
@@ -2418,103 +2484,103 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>395130.960638615</v>
+        <v>121.90483853761</v>
       </c>
       <c r="C2" t="n">
-        <v>395130.960638615</v>
+        <v>121.90483853761</v>
       </c>
       <c r="D2" t="n">
-        <v>98145.6928822036</v>
+        <v>29.9446137412916</v>
       </c>
       <c r="E2" t="n">
-        <v>98145.6928822036</v>
+        <v>29.9446137412916</v>
       </c>
       <c r="F2" t="n">
-        <v>395130.960638615</v>
+        <v>121.90483853761</v>
       </c>
       <c r="G2" t="n">
-        <v>98145.6928822036</v>
+        <v>29.9446137412916</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>395130.960638615</v>
+        <v>121.90483853761</v>
       </c>
       <c r="C3" t="n">
-        <v>395130.960638615</v>
+        <v>121.90483853761</v>
       </c>
       <c r="D3" t="n">
-        <v>98400.5117931836</v>
+        <v>30.1572520985359</v>
       </c>
       <c r="E3" t="n">
-        <v>98400.5117931836</v>
+        <v>30.1572520985359</v>
       </c>
       <c r="F3" t="n">
-        <v>395130.960638615</v>
+        <v>121.90483853761</v>
       </c>
       <c r="G3" t="n">
-        <v>98400.5117931836</v>
+        <v>30.1572520985359</v>
       </c>
       <c r="H3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>395130.960638615</v>
+        <v>121.90483853761</v>
       </c>
       <c r="C4" t="n">
-        <v>395130.960638615</v>
+        <v>121.90483853761</v>
       </c>
       <c r="D4" t="n">
-        <v>98910.1496151438</v>
+        <v>30.5825288130246</v>
       </c>
       <c r="E4" t="n">
-        <v>98910.1496151438</v>
+        <v>30.5825288130246</v>
       </c>
       <c r="F4" t="n">
-        <v>395130.960638615</v>
+        <v>121.90483853761</v>
       </c>
       <c r="G4" t="n">
-        <v>98910.1496151438</v>
+        <v>30.5825288130246</v>
       </c>
       <c r="H4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>395130.960638615</v>
+        <v>121.90483853761</v>
       </c>
       <c r="C5" t="n">
-        <v>395130.960638615</v>
+        <v>121.90483853761</v>
       </c>
       <c r="D5" t="n">
-        <v>99674.606348084</v>
+        <v>31.2204438847575</v>
       </c>
       <c r="E5" t="n">
-        <v>99674.606348084</v>
+        <v>31.2204438847575</v>
       </c>
       <c r="F5" t="n">
-        <v>395130.960638615</v>
+        <v>121.90483853761</v>
       </c>
       <c r="G5" t="n">
-        <v>99674.606348084</v>
+        <v>31.2204438847575</v>
       </c>
       <c r="H5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6">
@@ -2522,103 +2588,103 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>416462.951647719</v>
+        <v>131.185036610415</v>
       </c>
       <c r="C6" t="n">
-        <v>416462.951647719</v>
+        <v>131.185036610415</v>
       </c>
       <c r="D6" t="n">
-        <v>100693.881992004</v>
+        <v>32.0709973137349</v>
       </c>
       <c r="E6" t="n">
-        <v>100693.881992004</v>
+        <v>32.0709973137349</v>
       </c>
       <c r="F6" t="n">
-        <v>416462.951647719</v>
+        <v>131.185036610415</v>
       </c>
       <c r="G6" t="n">
-        <v>100693.881992004</v>
+        <v>32.0709973137349</v>
       </c>
       <c r="H6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>416462.951647719</v>
+        <v>131.185036610415</v>
       </c>
       <c r="C7" t="n">
-        <v>416462.951647719</v>
+        <v>131.185036610415</v>
       </c>
       <c r="D7" t="n">
-        <v>102470.334617543</v>
+        <v>32.7013234208734</v>
       </c>
       <c r="E7" t="n">
-        <v>102470.334617543</v>
+        <v>32.7013234208734</v>
       </c>
       <c r="F7" t="n">
-        <v>416462.951647719</v>
+        <v>131.185036610415</v>
       </c>
       <c r="G7" t="n">
-        <v>102470.334617543</v>
+        <v>32.7013234208734</v>
       </c>
       <c r="H7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>416462.951647719</v>
+        <v>131.185036610415</v>
       </c>
       <c r="C8" t="n">
-        <v>416462.951647719</v>
+        <v>131.185036610415</v>
       </c>
       <c r="D8" t="n">
-        <v>105003.964224699</v>
+        <v>33.111422206173</v>
       </c>
       <c r="E8" t="n">
-        <v>105003.964224699</v>
+        <v>33.111422206173</v>
       </c>
       <c r="F8" t="n">
-        <v>416462.951647719</v>
+        <v>131.185036610415</v>
       </c>
       <c r="G8" t="n">
-        <v>105003.964224699</v>
+        <v>33.111422206173</v>
       </c>
       <c r="H8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>416462.951647719</v>
+        <v>131.185036610415</v>
       </c>
       <c r="C9" t="n">
-        <v>416462.951647719</v>
+        <v>131.185036610415</v>
       </c>
       <c r="D9" t="n">
-        <v>108294.770813473</v>
+        <v>33.3012936696338</v>
       </c>
       <c r="E9" t="n">
-        <v>108294.770813473</v>
+        <v>33.3012936696338</v>
       </c>
       <c r="F9" t="n">
-        <v>416462.951647719</v>
+        <v>131.185036610415</v>
       </c>
       <c r="G9" t="n">
-        <v>108294.770813473</v>
+        <v>33.3012936696338</v>
       </c>
       <c r="H9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10">
@@ -2626,48 +2692,48 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>462504.590283298</v>
+        <v>133.465452660105</v>
       </c>
       <c r="C10" t="n">
-        <v>462504.590283298</v>
+        <v>133.465452660105</v>
       </c>
       <c r="D10" t="n">
-        <v>112342.754383865</v>
+        <v>33.2709378112557</v>
       </c>
       <c r="E10" t="n">
-        <v>112342.754383865</v>
+        <v>33.2709378112557</v>
       </c>
       <c r="F10" t="n">
-        <v>462504.590283298</v>
+        <v>133.465452660105</v>
       </c>
       <c r="G10" t="n">
-        <v>112342.754383865</v>
+        <v>33.2709378112557</v>
       </c>
       <c r="H10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>462504.590283298</v>
+        <v>133.465452660105</v>
       </c>
       <c r="C11" t="n">
-        <v>462504.590283298</v>
+        <v>133.465452660105</v>
       </c>
       <c r="D11" t="n">
-        <v>115275.305086806</v>
+        <v>33.2969656094127</v>
       </c>
       <c r="E11" t="n">
-        <v>115275.305086806</v>
+        <v>33.2969656094127</v>
       </c>
       <c r="F11" t="n">
-        <v>462504.590283298</v>
+        <v>133.465452660105</v>
       </c>
       <c r="G11" t="n">
-        <v>115275.305086806</v>
+        <v>33.2969656094127</v>
       </c>
       <c r="H11" t="s">
         <v>176</v>
@@ -2675,51 +2741,51 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>462504.590283298</v>
+        <v>133.465452660105</v>
       </c>
       <c r="C12" t="n">
-        <v>462504.590283298</v>
+        <v>133.465452660105</v>
       </c>
       <c r="D12" t="n">
-        <v>117092.422922295</v>
+        <v>33.3793770641047</v>
       </c>
       <c r="E12" t="n">
-        <v>117092.422922295</v>
+        <v>33.3793770641047</v>
       </c>
       <c r="F12" t="n">
-        <v>462504.590283298</v>
+        <v>133.465452660105</v>
       </c>
       <c r="G12" t="n">
-        <v>117092.422922295</v>
+        <v>33.3793770641047</v>
       </c>
       <c r="H12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>462504.590283298</v>
+        <v>133.465452660105</v>
       </c>
       <c r="C13" t="n">
-        <v>462504.590283298</v>
+        <v>133.465452660105</v>
       </c>
       <c r="D13" t="n">
-        <v>117794.107890333</v>
+        <v>33.5181721753318</v>
       </c>
       <c r="E13" t="n">
-        <v>117794.107890333</v>
+        <v>33.5181721753318</v>
       </c>
       <c r="F13" t="n">
-        <v>462504.590283298</v>
+        <v>133.465452660105</v>
       </c>
       <c r="G13" t="n">
-        <v>117794.107890333</v>
+        <v>33.5181721753318</v>
       </c>
       <c r="H13" t="s">
         <v>178</v>
@@ -2730,48 +2796,48 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>471221.989973532</v>
+        <v>131.491393527118</v>
       </c>
       <c r="C14" t="n">
-        <v>471221.989973532</v>
+        <v>131.491393527118</v>
       </c>
       <c r="D14" t="n">
-        <v>117380.359990919</v>
+        <v>33.713350943094</v>
       </c>
       <c r="E14" t="n">
-        <v>117380.359990919</v>
+        <v>33.713350943094</v>
       </c>
       <c r="F14" t="n">
-        <v>471221.989973533</v>
+        <v>131.491393527118</v>
       </c>
       <c r="G14" t="n">
-        <v>117380.359990919</v>
+        <v>33.713350943094</v>
       </c>
       <c r="H14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>471221.989973532</v>
+        <v>131.491393527118</v>
       </c>
       <c r="C15" t="n">
-        <v>471221.989973532</v>
+        <v>131.491393527118</v>
       </c>
       <c r="D15" t="n">
-        <v>117384.915832139</v>
+        <v>33.4552214256731</v>
       </c>
       <c r="E15" t="n">
-        <v>117384.915832139</v>
+        <v>33.4552214256731</v>
       </c>
       <c r="F15" t="n">
-        <v>471221.989973533</v>
+        <v>131.491393527118</v>
       </c>
       <c r="G15" t="n">
-        <v>117384.915832139</v>
+        <v>33.4552214256731</v>
       </c>
       <c r="H15" t="s">
         <v>178</v>
@@ -2779,51 +2845,51 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>471221.989973532</v>
+        <v>131.491393527118</v>
       </c>
       <c r="C16" t="n">
-        <v>471221.989973532</v>
+        <v>131.491393527118</v>
       </c>
       <c r="D16" t="n">
-        <v>117807.775413993</v>
+        <v>32.7437836230691</v>
       </c>
       <c r="E16" t="n">
-        <v>117807.775413993</v>
+        <v>32.7437836230691</v>
       </c>
       <c r="F16" t="n">
-        <v>471221.989973533</v>
+        <v>131.491393527118</v>
       </c>
       <c r="G16" t="n">
-        <v>117807.775413993</v>
+        <v>32.7437836230691</v>
       </c>
       <c r="H16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>471221.989973532</v>
+        <v>131.491393527118</v>
       </c>
       <c r="C17" t="n">
-        <v>471221.989973532</v>
+        <v>131.491393527118</v>
       </c>
       <c r="D17" t="n">
-        <v>118648.938736482</v>
+        <v>31.5790375352821</v>
       </c>
       <c r="E17" t="n">
-        <v>118648.938736482</v>
+        <v>31.5790375352821</v>
       </c>
       <c r="F17" t="n">
-        <v>471221.989973533</v>
+        <v>131.491393527118</v>
       </c>
       <c r="G17" t="n">
-        <v>118648.938736482</v>
+        <v>31.5790375352821</v>
       </c>
       <c r="H17" t="s">
         <v>179</v>
@@ -2834,103 +2900,103 @@
         <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>497050.705459971</v>
+        <v>124.195384177328</v>
       </c>
       <c r="C18" t="n">
-        <v>497050.705459971</v>
+        <v>124.195384177328</v>
       </c>
       <c r="D18" t="n">
-        <v>119908.405799604</v>
+        <v>29.960983162312</v>
       </c>
       <c r="E18" t="n">
-        <v>119908.405799604</v>
+        <v>29.960983162312</v>
       </c>
       <c r="F18" t="n">
-        <v>497050.705459971</v>
+        <v>124.195384177328</v>
       </c>
       <c r="G18" t="n">
-        <v>119908.405799604</v>
+        <v>29.960983162312</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>497050.705459971</v>
+        <v>124.195384177328</v>
       </c>
       <c r="C19" t="n">
-        <v>497050.705459971</v>
+        <v>124.195384177328</v>
       </c>
       <c r="D19" t="n">
-        <v>122153.900851008</v>
+        <v>29.748906565932</v>
       </c>
       <c r="E19" t="n">
-        <v>122153.900851008</v>
+        <v>29.748906565932</v>
       </c>
       <c r="F19" t="n">
-        <v>497050.705459971</v>
+        <v>124.195384177328</v>
       </c>
       <c r="G19" t="n">
-        <v>122153.900851008</v>
+        <v>29.748906565932</v>
       </c>
       <c r="H19" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>497050.705459971</v>
+        <v>124.195384177328</v>
       </c>
       <c r="C20" t="n">
-        <v>497050.705459971</v>
+        <v>124.195384177328</v>
       </c>
       <c r="D20" t="n">
-        <v>125385.423890695</v>
+        <v>30.9428077461419</v>
       </c>
       <c r="E20" t="n">
-        <v>125385.423890695</v>
+        <v>30.9428077461419</v>
       </c>
       <c r="F20" t="n">
-        <v>497050.705459971</v>
+        <v>124.195384177328</v>
       </c>
       <c r="G20" t="n">
-        <v>125385.423890695</v>
+        <v>30.9428077461419</v>
       </c>
       <c r="H20" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>497050.705459971</v>
+        <v>124.195384177328</v>
       </c>
       <c r="C21" t="n">
-        <v>497050.705459971</v>
+        <v>124.195384177328</v>
       </c>
       <c r="D21" t="n">
-        <v>129602.974918664</v>
+        <v>33.5426867029419</v>
       </c>
       <c r="E21" t="n">
-        <v>129602.974918664</v>
+        <v>33.5426867029419</v>
       </c>
       <c r="F21" t="n">
-        <v>497050.705459971</v>
+        <v>124.195384177328</v>
       </c>
       <c r="G21" t="n">
-        <v>129602.974918664</v>
+        <v>33.5426867029419</v>
       </c>
       <c r="H21" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
@@ -2938,103 +3004,103 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>529771.254660615</v>
+        <v>157.541548715119</v>
       </c>
       <c r="C22" t="n">
-        <v>529771.254660615</v>
+        <v>157.541548715119</v>
       </c>
       <c r="D22" t="n">
-        <v>134806.553934915</v>
+        <v>37.548543436332</v>
       </c>
       <c r="E22" t="n">
-        <v>134806.553934915</v>
+        <v>37.548543436332</v>
       </c>
       <c r="F22" t="n">
-        <v>529771.254660616</v>
+        <v>157.541548715119</v>
       </c>
       <c r="G22" t="n">
-        <v>134806.553934915</v>
+        <v>37.548543436332</v>
       </c>
       <c r="H22" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>529771.254660615</v>
+        <v>157.541548715119</v>
       </c>
       <c r="C23" t="n">
-        <v>529771.254660615</v>
+        <v>157.541548715119</v>
       </c>
       <c r="D23" t="n">
-        <v>135942.489433511</v>
+        <v>39.8856236266671</v>
       </c>
       <c r="E23" t="n">
-        <v>135942.489433511</v>
+        <v>39.8856236266671</v>
       </c>
       <c r="F23" t="n">
-        <v>529771.254660616</v>
+        <v>157.541548715119</v>
       </c>
       <c r="G23" t="n">
-        <v>135942.489433511</v>
+        <v>39.8856236266671</v>
       </c>
       <c r="H23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>529771.254660615</v>
+        <v>157.541548715119</v>
       </c>
       <c r="C24" t="n">
-        <v>529771.254660615</v>
+        <v>157.541548715119</v>
       </c>
       <c r="D24" t="n">
-        <v>133010.781414452</v>
+        <v>40.5539272739474</v>
       </c>
       <c r="E24" t="n">
-        <v>133010.781414452</v>
+        <v>40.5539272739474</v>
       </c>
       <c r="F24" t="n">
-        <v>529771.254660616</v>
+        <v>157.541548715119</v>
       </c>
       <c r="G24" t="n">
-        <v>133010.781414452</v>
+        <v>40.5539272739474</v>
       </c>
       <c r="H24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>529771.254660615</v>
+        <v>157.541548715119</v>
       </c>
       <c r="C25" t="n">
-        <v>529771.254660615</v>
+        <v>157.541548715119</v>
       </c>
       <c r="D25" t="n">
-        <v>126011.429877738</v>
+        <v>39.5534543781728</v>
       </c>
       <c r="E25" t="n">
-        <v>126011.429877738</v>
+        <v>39.5534543781728</v>
       </c>
       <c r="F25" t="n">
-        <v>529771.254660616</v>
+        <v>157.541548715119</v>
       </c>
       <c r="G25" t="n">
-        <v>126011.429877738</v>
+        <v>39.5534543781728</v>
       </c>
       <c r="H25" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
@@ -3042,74 +3108,74 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>422538.870972995</v>
+        <v>140.513185613935</v>
       </c>
       <c r="C26" t="n">
-        <v>422538.870972995</v>
+        <v>140.513185613935</v>
       </c>
       <c r="D26" t="n">
-        <v>114944.43482337</v>
+        <v>36.8842049393432</v>
       </c>
       <c r="E26" t="n">
-        <v>114944.43482337</v>
+        <v>36.8842049393432</v>
       </c>
       <c r="F26" t="n">
-        <v>422538.870972995</v>
+        <v>140.513185613935</v>
       </c>
       <c r="G26" t="n">
-        <v>114944.43482337</v>
+        <v>36.8842049393432</v>
       </c>
       <c r="H26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>422538.870972995</v>
+        <v>140.513185613935</v>
       </c>
       <c r="C27" t="n">
-        <v>422538.870972995</v>
+        <v>140.513185613935</v>
       </c>
       <c r="D27" t="n">
-        <v>106793.749969574</v>
+        <v>35.1141417494676</v>
       </c>
       <c r="E27" t="n">
-        <v>106793.749969574</v>
+        <v>35.1141417494676</v>
       </c>
       <c r="F27" t="n">
-        <v>422538.870972995</v>
+        <v>140.513185613935</v>
       </c>
       <c r="G27" t="n">
-        <v>106793.749969574</v>
+        <v>35.1141417494676</v>
       </c>
       <c r="H27" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>422538.870972995</v>
+        <v>140.513185613935</v>
       </c>
       <c r="C28" t="n">
-        <v>422538.870972995</v>
+        <v>140.513185613935</v>
       </c>
       <c r="D28" t="n">
-        <v>101559.375316351</v>
+        <v>34.243264808546</v>
       </c>
       <c r="E28" t="n">
-        <v>101559.375316351</v>
+        <v>34.243264808546</v>
       </c>
       <c r="F28" t="n">
-        <v>422538.870972995</v>
+        <v>140.513185613935</v>
       </c>
       <c r="G28" t="n">
-        <v>101559.375316351</v>
+        <v>34.243264808546</v>
       </c>
       <c r="H28" t="s">
         <v>173</v>
@@ -3117,28 +3183,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>422538.870972995</v>
+        <v>140.513185613935</v>
       </c>
       <c r="C29" t="n">
-        <v>422538.870972995</v>
+        <v>140.513185613935</v>
       </c>
       <c r="D29" t="n">
-        <v>99241.3108636997</v>
+        <v>34.2715741165782</v>
       </c>
       <c r="E29" t="n">
-        <v>99241.3108636997</v>
+        <v>34.2715741165782</v>
       </c>
       <c r="F29" t="n">
-        <v>422538.870972995</v>
+        <v>140.513185613935</v>
       </c>
       <c r="G29" t="n">
-        <v>99241.3108636997</v>
+        <v>34.2715741165782</v>
       </c>
       <c r="H29" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="30">
@@ -3146,74 +3212,74 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>398541.204940505</v>
+        <v>143.405320538505</v>
       </c>
       <c r="C30" t="n">
-        <v>398541.204940505</v>
+        <v>143.405320538505</v>
       </c>
       <c r="D30" t="n">
-        <v>99839.556611621</v>
+        <v>35.1990696735643</v>
       </c>
       <c r="E30" t="n">
-        <v>99839.556611621</v>
+        <v>35.1990696735643</v>
       </c>
       <c r="F30" t="n">
-        <v>398541.204940505</v>
+        <v>143.405320538505</v>
       </c>
       <c r="G30" t="n">
-        <v>99839.556611621</v>
+        <v>35.1990696735643</v>
       </c>
       <c r="H30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>398541.204940505</v>
+        <v>143.405320538505</v>
       </c>
       <c r="C31" t="n">
-        <v>398541.204940505</v>
+        <v>143.405320538505</v>
       </c>
       <c r="D31" t="n">
-        <v>99997.1527601916</v>
+        <v>35.8309720807835</v>
       </c>
       <c r="E31" t="n">
-        <v>99997.1527601916</v>
+        <v>35.8309720807835</v>
       </c>
       <c r="F31" t="n">
-        <v>398541.204940505</v>
+        <v>143.405320538505</v>
       </c>
       <c r="G31" t="n">
-        <v>99997.1527601916</v>
+        <v>35.8309720807835</v>
       </c>
       <c r="H31" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>398541.204940505</v>
+        <v>143.405320538505</v>
       </c>
       <c r="C32" t="n">
-        <v>398541.204940505</v>
+        <v>143.405320538505</v>
       </c>
       <c r="D32" t="n">
-        <v>99714.0993094116</v>
+        <v>36.1672813382358</v>
       </c>
       <c r="E32" t="n">
-        <v>99714.0993094116</v>
+        <v>36.1672813382358</v>
       </c>
       <c r="F32" t="n">
-        <v>398541.204940505</v>
+        <v>143.405320538505</v>
       </c>
       <c r="G32" t="n">
-        <v>99714.0993094116</v>
+        <v>36.1672813382358</v>
       </c>
       <c r="H32" t="s">
         <v>174</v>
@@ -3221,28 +3287,28 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>398541.204940505</v>
+        <v>143.405320538505</v>
       </c>
       <c r="C33" t="n">
-        <v>398541.204940505</v>
+        <v>143.405320538505</v>
       </c>
       <c r="D33" t="n">
-        <v>98990.396259281</v>
+        <v>36.2079974459212</v>
       </c>
       <c r="E33" t="n">
-        <v>98990.396259281</v>
+        <v>36.2079974459212</v>
       </c>
       <c r="F33" t="n">
-        <v>398541.204940505</v>
+        <v>143.405320538505</v>
       </c>
       <c r="G33" t="n">
-        <v>98990.396259281</v>
+        <v>36.2079974459212</v>
       </c>
       <c r="H33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34">
@@ -3250,48 +3316,48 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>389200.848232863</v>
+        <v>143.655096387686</v>
       </c>
       <c r="C34" t="n">
-        <v>389200.848232863</v>
+        <v>143.655096387686</v>
       </c>
       <c r="D34" t="n">
-        <v>97826.0436097996</v>
+        <v>35.9531204038396</v>
       </c>
       <c r="E34" t="n">
-        <v>97826.0436097996</v>
+        <v>35.9531204038396</v>
       </c>
       <c r="F34" t="n">
-        <v>389200.848232864</v>
+        <v>143.655096387686</v>
       </c>
       <c r="G34" t="n">
-        <v>97826.0436097996</v>
+        <v>35.9531204038396</v>
       </c>
       <c r="H34" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>389200.848232863</v>
+        <v>143.655096387686</v>
       </c>
       <c r="C35" t="n">
-        <v>389200.848232863</v>
+        <v>143.655096387686</v>
       </c>
       <c r="D35" t="n">
-        <v>97149.9699293736</v>
+        <v>35.8354310642397</v>
       </c>
       <c r="E35" t="n">
-        <v>97149.9699293736</v>
+        <v>35.8354310642397</v>
       </c>
       <c r="F35" t="n">
-        <v>389200.848232864</v>
+        <v>143.655096387686</v>
       </c>
       <c r="G35" t="n">
-        <v>97149.9699293736</v>
+        <v>35.8354310642397</v>
       </c>
       <c r="H35" t="s">
         <v>176</v>
@@ -3299,25 +3365,25 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>389200.848232863</v>
+        <v>143.655096387686</v>
       </c>
       <c r="C36" t="n">
-        <v>389200.848232863</v>
+        <v>143.655096387686</v>
       </c>
       <c r="D36" t="n">
-        <v>96962.1752180029</v>
+        <v>35.8549294271214</v>
       </c>
       <c r="E36" t="n">
-        <v>96962.1752180029</v>
+        <v>35.8549294271214</v>
       </c>
       <c r="F36" t="n">
-        <v>389200.848232864</v>
+        <v>143.655096387686</v>
       </c>
       <c r="G36" t="n">
-        <v>96962.1752180029</v>
+        <v>35.8549294271214</v>
       </c>
       <c r="H36" t="s">
         <v>177</v>
@@ -3325,28 +3391,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>389200.848232863</v>
+        <v>143.655096387686</v>
       </c>
       <c r="C37" t="n">
-        <v>389200.848232863</v>
+        <v>143.655096387686</v>
       </c>
       <c r="D37" t="n">
-        <v>97262.6594756875</v>
+        <v>36.0116154924848</v>
       </c>
       <c r="E37" t="n">
-        <v>97262.6594756875</v>
+        <v>36.0116154924848</v>
       </c>
       <c r="F37" t="n">
-        <v>389200.848232864</v>
+        <v>143.655096387686</v>
       </c>
       <c r="G37" t="n">
-        <v>97262.6594756875</v>
+        <v>36.0116154924848</v>
       </c>
       <c r="H37" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38">
@@ -3354,48 +3420,48 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>390540.471308191</v>
+        <v>146.029352194592</v>
       </c>
       <c r="C38" t="n">
-        <v>390540.471308191</v>
+        <v>146.029352194592</v>
       </c>
       <c r="D38" t="n">
-        <v>98051.4227024274</v>
+        <v>36.3054892603298</v>
       </c>
       <c r="E38" t="n">
-        <v>98051.4227024274</v>
+        <v>36.3054892603298</v>
       </c>
       <c r="F38" t="n">
-        <v>390540.471308191</v>
+        <v>146.029352194592</v>
       </c>
       <c r="G38" t="n">
-        <v>98051.4227024274</v>
+        <v>36.3054892603298</v>
       </c>
       <c r="H38" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>390540.471308191</v>
+        <v>146.029352194592</v>
       </c>
       <c r="C39" t="n">
-        <v>390540.471308191</v>
+        <v>146.029352194592</v>
       </c>
       <c r="D39" t="n">
-        <v>98200.4060429715</v>
+        <v>36.5037782827951</v>
       </c>
       <c r="E39" t="n">
-        <v>98200.4060429715</v>
+        <v>36.5037782827951</v>
       </c>
       <c r="F39" t="n">
-        <v>390540.471308191</v>
+        <v>146.029352194592</v>
       </c>
       <c r="G39" t="n">
-        <v>98200.4060429715</v>
+        <v>36.5037782827951</v>
       </c>
       <c r="H39" t="s">
         <v>178</v>
@@ -3403,54 +3469,54 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>390540.471308191</v>
+        <v>146.029352194592</v>
       </c>
       <c r="C40" t="n">
-        <v>390540.471308191</v>
+        <v>146.029352194592</v>
       </c>
       <c r="D40" t="n">
-        <v>97709.6094973197</v>
+        <v>36.6064825598807</v>
       </c>
       <c r="E40" t="n">
-        <v>97709.6094973197</v>
+        <v>36.6064825598807</v>
       </c>
       <c r="F40" t="n">
-        <v>390540.471308191</v>
+        <v>146.029352194592</v>
       </c>
       <c r="G40" t="n">
-        <v>97709.6094973197</v>
+        <v>36.6064825598807</v>
       </c>
       <c r="H40" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>390540.471308191</v>
+        <v>146.029352194592</v>
       </c>
       <c r="C41" t="n">
-        <v>390540.471308191</v>
+        <v>146.029352194592</v>
       </c>
       <c r="D41" t="n">
-        <v>96579.0330654722</v>
+        <v>36.6136020915865</v>
       </c>
       <c r="E41" t="n">
-        <v>96579.0330654722</v>
+        <v>36.6136020915865</v>
       </c>
       <c r="F41" t="n">
-        <v>390540.471308191</v>
+        <v>146.029352194592</v>
       </c>
       <c r="G41" t="n">
-        <v>96579.0330654722</v>
+        <v>36.6136020915865</v>
       </c>
       <c r="H41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42">
@@ -3458,103 +3524,103 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>371174.350467522</v>
+        <v>142.070650129278</v>
       </c>
       <c r="C42" t="n">
-        <v>371174.350467522</v>
+        <v>142.070650129278</v>
       </c>
       <c r="D42" t="n">
-        <v>94808.6767474289</v>
+        <v>36.5251368779126</v>
       </c>
       <c r="E42" t="n">
-        <v>94808.6767474289</v>
+        <v>36.5251368779126</v>
       </c>
       <c r="F42" t="n">
-        <v>371174.350467522</v>
+        <v>142.070650129278</v>
       </c>
       <c r="G42" t="n">
-        <v>94808.6767474289</v>
+        <v>36.5251368779126</v>
       </c>
       <c r="H42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>371174.350467522</v>
+        <v>142.070650129278</v>
       </c>
       <c r="C43" t="n">
-        <v>371174.350467522</v>
+        <v>142.070650129278</v>
       </c>
       <c r="D43" t="n">
-        <v>93294.4985679922</v>
+        <v>36.0867610542058</v>
       </c>
       <c r="E43" t="n">
-        <v>93294.4985679922</v>
+        <v>36.0867610542058</v>
       </c>
       <c r="F43" t="n">
-        <v>371174.350467522</v>
+        <v>142.070650129278</v>
       </c>
       <c r="G43" t="n">
-        <v>93294.4985679922</v>
+        <v>36.0867610542058</v>
       </c>
       <c r="H43" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>371174.350467522</v>
+        <v>142.070650129278</v>
       </c>
       <c r="C44" t="n">
-        <v>371174.350467522</v>
+        <v>142.070650129278</v>
       </c>
       <c r="D44" t="n">
-        <v>92036.4985271622</v>
+        <v>35.298474620466</v>
       </c>
       <c r="E44" t="n">
-        <v>92036.4985271622</v>
+        <v>35.298474620466</v>
       </c>
       <c r="F44" t="n">
-        <v>371174.350467522</v>
+        <v>142.070650129278</v>
       </c>
       <c r="G44" t="n">
-        <v>92036.4985271622</v>
+        <v>35.298474620466</v>
       </c>
       <c r="H44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>371174.350467522</v>
+        <v>142.070650129278</v>
       </c>
       <c r="C45" t="n">
-        <v>371174.350467522</v>
+        <v>142.070650129278</v>
       </c>
       <c r="D45" t="n">
-        <v>91034.6766249387</v>
+        <v>34.1602775766933</v>
       </c>
       <c r="E45" t="n">
-        <v>91034.6766249387</v>
+        <v>34.1602775766933</v>
       </c>
       <c r="F45" t="n">
-        <v>371174.350467522</v>
+        <v>142.070650129278</v>
       </c>
       <c r="G45" t="n">
-        <v>91034.6766249387</v>
+        <v>34.1602775766933</v>
       </c>
       <c r="H45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46">
@@ -3562,103 +3628,103 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>359313.96628508</v>
+        <v>123.964786503649</v>
       </c>
       <c r="C46" t="n">
-        <v>359313.96628508</v>
+        <v>123.964786503649</v>
       </c>
       <c r="D46" t="n">
-        <v>90289.0328613219</v>
+        <v>32.6721699228876</v>
       </c>
       <c r="E46" t="n">
-        <v>90289.0328613219</v>
+        <v>32.6721699228876</v>
       </c>
       <c r="F46" t="n">
-        <v>359313.96628508</v>
+        <v>123.964786503649</v>
       </c>
       <c r="G46" t="n">
-        <v>90289.0328613219</v>
+        <v>32.6721699228876</v>
       </c>
       <c r="H46" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>359313.96628508</v>
+        <v>123.964786503649</v>
       </c>
       <c r="C47" t="n">
-        <v>359313.96628508</v>
+        <v>123.964786503649</v>
       </c>
       <c r="D47" t="n">
-        <v>89806.5588398544</v>
+        <v>31.4045375425752</v>
       </c>
       <c r="E47" t="n">
-        <v>89806.5588398544</v>
+        <v>31.4045375425752</v>
       </c>
       <c r="F47" t="n">
-        <v>359313.96628508</v>
+        <v>123.964786503649</v>
       </c>
       <c r="G47" t="n">
-        <v>89806.5588398544</v>
+        <v>31.4045375425752</v>
       </c>
       <c r="H47" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>359313.96628508</v>
+        <v>123.964786503649</v>
       </c>
       <c r="C48" t="n">
-        <v>359313.96628508</v>
+        <v>123.964786503649</v>
       </c>
       <c r="D48" t="n">
-        <v>89587.2545605363</v>
+        <v>30.357380435756</v>
       </c>
       <c r="E48" t="n">
-        <v>89587.2545605363</v>
+        <v>30.357380435756</v>
       </c>
       <c r="F48" t="n">
-        <v>359313.96628508</v>
+        <v>123.964786503649</v>
       </c>
       <c r="G48" t="n">
-        <v>89587.2545605363</v>
+        <v>30.357380435756</v>
       </c>
       <c r="H48" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>359313.96628508</v>
+        <v>123.964786503649</v>
       </c>
       <c r="C49" t="n">
-        <v>359313.96628508</v>
+        <v>123.964786503649</v>
       </c>
       <c r="D49" t="n">
-        <v>89631.1200233675</v>
+        <v>29.5306986024301</v>
       </c>
       <c r="E49" t="n">
-        <v>89631.1200233675</v>
+        <v>29.5306986024301</v>
       </c>
       <c r="F49" t="n">
-        <v>359313.96628508</v>
+        <v>123.964786503649</v>
       </c>
       <c r="G49" t="n">
-        <v>89631.1200233675</v>
+        <v>29.5306986024301</v>
       </c>
       <c r="H49" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="50">
@@ -3666,74 +3732,74 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>361179.891208768</v>
+        <v>110.215561524711</v>
       </c>
       <c r="C50" t="n">
-        <v>361179.891208768</v>
+        <v>110.215561524711</v>
       </c>
       <c r="D50" t="n">
-        <v>89938.1552283481</v>
+        <v>28.9244920425974</v>
       </c>
       <c r="E50" t="n">
-        <v>89938.1552283481</v>
+        <v>28.9244920425974</v>
       </c>
       <c r="F50" t="n">
-        <v>361179.891208769</v>
+        <v>110.215561524711</v>
       </c>
       <c r="G50" t="n">
-        <v>89938.1552283481</v>
+        <v>28.9244920425974</v>
       </c>
       <c r="H50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>361179.891208768</v>
+        <v>110.215561524711</v>
       </c>
       <c r="C51" t="n">
-        <v>361179.891208768</v>
+        <v>110.215561524711</v>
       </c>
       <c r="D51" t="n">
-        <v>90203.696339878</v>
+        <v>28.1337687540965</v>
       </c>
       <c r="E51" t="n">
-        <v>90203.696339878</v>
+        <v>28.1337687540965</v>
       </c>
       <c r="F51" t="n">
-        <v>361179.891208769</v>
+        <v>110.215561524711</v>
       </c>
       <c r="G51" t="n">
-        <v>90203.696339878</v>
+        <v>28.1337687540965</v>
       </c>
       <c r="H51" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>361179.891208768</v>
+        <v>110.215561524711</v>
       </c>
       <c r="C52" t="n">
-        <v>361179.891208768</v>
+        <v>110.215561524711</v>
       </c>
       <c r="D52" t="n">
-        <v>90427.7433579571</v>
+        <v>27.1585287369273</v>
       </c>
       <c r="E52" t="n">
-        <v>90427.7433579571</v>
+        <v>27.1585287369273</v>
       </c>
       <c r="F52" t="n">
-        <v>361179.891208769</v>
+        <v>110.215561524711</v>
       </c>
       <c r="G52" t="n">
-        <v>90427.7433579571</v>
+        <v>27.1585287369273</v>
       </c>
       <c r="H52" t="s">
         <v>173</v>
@@ -3741,25 +3807,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>361179.891208768</v>
+        <v>110.215561524711</v>
       </c>
       <c r="C53" t="n">
-        <v>361179.891208768</v>
+        <v>110.215561524711</v>
       </c>
       <c r="D53" t="n">
-        <v>90610.2962825856</v>
+        <v>25.9987719910898</v>
       </c>
       <c r="E53" t="n">
-        <v>90610.2962825856</v>
+        <v>25.9987719910898</v>
       </c>
       <c r="F53" t="n">
-        <v>361179.891208769</v>
+        <v>110.215561524711</v>
       </c>
       <c r="G53" t="n">
-        <v>90610.2962825856</v>
+        <v>25.9987719910898</v>
       </c>
       <c r="H53" t="s">
         <v>173</v>
@@ -3770,22 +3836,22 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>357308.00591321</v>
+        <v>96.7684735146559</v>
       </c>
       <c r="C54" t="n">
-        <v>357308.00591321</v>
+        <v>96.7684735146559</v>
       </c>
       <c r="D54" t="n">
-        <v>90751.3551137633</v>
+        <v>24.6544985165841</v>
       </c>
       <c r="E54" t="n">
-        <v>90751.3551137633</v>
+        <v>24.6544985165841</v>
       </c>
       <c r="F54" t="n">
-        <v>357308.00591321</v>
+        <v>96.7684735146558</v>
       </c>
       <c r="G54" t="n">
-        <v>90751.3551137633</v>
+        <v>24.6544985165841</v>
       </c>
       <c r="H54" t="s">
         <v>173</v>
@@ -3793,51 +3859,51 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>357308.00591321</v>
+        <v>96.7684735146559</v>
       </c>
       <c r="C55" t="n">
-        <v>357308.00591321</v>
+        <v>96.7684735146559</v>
       </c>
       <c r="D55" t="n">
-        <v>90238.0371920501</v>
+        <v>23.9318370716137</v>
       </c>
       <c r="E55" t="n">
-        <v>90238.0371920501</v>
+        <v>23.9318370716137</v>
       </c>
       <c r="F55" t="n">
-        <v>357308.00591321</v>
+        <v>96.7684735146558</v>
       </c>
       <c r="G55" t="n">
-        <v>90238.0371920501</v>
+        <v>23.9318370716137</v>
       </c>
       <c r="H55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>357308.00591321</v>
+        <v>96.7684735146559</v>
       </c>
       <c r="C56" t="n">
-        <v>357308.00591321</v>
+        <v>96.7684735146559</v>
       </c>
       <c r="D56" t="n">
-        <v>89070.342517446</v>
+        <v>23.8307876561788</v>
       </c>
       <c r="E56" t="n">
-        <v>89070.342517446</v>
+        <v>23.8307876561788</v>
       </c>
       <c r="F56" t="n">
-        <v>357308.00591321</v>
+        <v>96.7684735146558</v>
       </c>
       <c r="G56" t="n">
-        <v>89070.342517446</v>
+        <v>23.8307876561788</v>
       </c>
       <c r="H56" t="s">
         <v>174</v>
@@ -3845,28 +3911,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>357308.00591321</v>
+        <v>96.7684735146559</v>
       </c>
       <c r="C57" t="n">
-        <v>357308.00591321</v>
+        <v>96.7684735146559</v>
       </c>
       <c r="D57" t="n">
-        <v>87248.2710899509</v>
+        <v>24.3513502702792</v>
       </c>
       <c r="E57" t="n">
-        <v>87248.2710899509</v>
+        <v>24.3513502702792</v>
       </c>
       <c r="F57" t="n">
-        <v>357308.00591321</v>
+        <v>96.7684735146558</v>
       </c>
       <c r="G57" t="n">
-        <v>87248.2710899509</v>
+        <v>24.3513502702792</v>
       </c>
       <c r="H57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58">
@@ -3874,103 +3940,103 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>333222.768000336</v>
+        <v>108.606976580669</v>
       </c>
       <c r="C58" t="n">
-        <v>333222.768000336</v>
+        <v>108.606976580669</v>
       </c>
       <c r="D58" t="n">
-        <v>84771.822909565</v>
+        <v>25.493524913915</v>
       </c>
       <c r="E58" t="n">
-        <v>84771.822909565</v>
+        <v>25.493524913915</v>
       </c>
       <c r="F58" t="n">
-        <v>333222.768000337</v>
+        <v>108.606976580669</v>
       </c>
       <c r="G58" t="n">
-        <v>84771.822909565</v>
+        <v>25.493524913915</v>
       </c>
       <c r="H58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>333222.768000336</v>
+        <v>108.606976580669</v>
       </c>
       <c r="C59" t="n">
-        <v>333222.768000336</v>
+        <v>108.606976580669</v>
       </c>
       <c r="D59" t="n">
-        <v>83194.7912736182</v>
+        <v>26.6136824638702</v>
       </c>
       <c r="E59" t="n">
-        <v>83194.7912736182</v>
+        <v>26.6136824638702</v>
       </c>
       <c r="F59" t="n">
-        <v>333222.768000337</v>
+        <v>108.606976580669</v>
       </c>
       <c r="G59" t="n">
-        <v>83194.7912736182</v>
+        <v>26.6136824638702</v>
       </c>
       <c r="H59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>333222.768000336</v>
+        <v>108.606976580669</v>
       </c>
       <c r="C60" t="n">
-        <v>333222.768000336</v>
+        <v>108.606976580669</v>
       </c>
       <c r="D60" t="n">
-        <v>82517.1761821108</v>
+        <v>27.7118229201449</v>
       </c>
       <c r="E60" t="n">
-        <v>82517.1761821108</v>
+        <v>27.7118229201449</v>
       </c>
       <c r="F60" t="n">
-        <v>333222.768000337</v>
+        <v>108.606976580669</v>
       </c>
       <c r="G60" t="n">
-        <v>82517.1761821108</v>
+        <v>27.7118229201449</v>
       </c>
       <c r="H60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>333222.768000336</v>
+        <v>108.606976580669</v>
       </c>
       <c r="C61" t="n">
-        <v>333222.768000336</v>
+        <v>108.606976580669</v>
       </c>
       <c r="D61" t="n">
-        <v>82738.9776350426</v>
+        <v>28.787946282739</v>
       </c>
       <c r="E61" t="n">
-        <v>82738.9776350426</v>
+        <v>28.787946282739</v>
       </c>
       <c r="F61" t="n">
-        <v>333222.768000337</v>
+        <v>108.606976580669</v>
       </c>
       <c r="G61" t="n">
-        <v>82738.9776350426</v>
+        <v>28.787946282739</v>
       </c>
       <c r="H61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62">
@@ -3978,103 +4044,103 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>339767.479753935</v>
+        <v>125.29956818746</v>
       </c>
       <c r="C62" t="n">
-        <v>339767.479753935</v>
+        <v>125.29956818746</v>
       </c>
       <c r="D62" t="n">
-        <v>83860.1956324137</v>
+        <v>29.8420525516525</v>
       </c>
       <c r="E62" t="n">
-        <v>83860.1956324137</v>
+        <v>29.8420525516525</v>
       </c>
       <c r="F62" t="n">
-        <v>339767.479753936</v>
+        <v>125.29956818746</v>
       </c>
       <c r="G62" t="n">
-        <v>83860.1956324137</v>
+        <v>29.8420525516525</v>
       </c>
       <c r="H62" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>339767.479753935</v>
+        <v>125.29956818746</v>
       </c>
       <c r="C63" t="n">
-        <v>339767.479753935</v>
+        <v>125.29956818746</v>
       </c>
       <c r="D63" t="n">
-        <v>84741.3525537902</v>
+        <v>30.856830857303</v>
       </c>
       <c r="E63" t="n">
-        <v>84741.3525537902</v>
+        <v>30.856830857303</v>
       </c>
       <c r="F63" t="n">
-        <v>339767.479753936</v>
+        <v>125.29956818746</v>
       </c>
       <c r="G63" t="n">
-        <v>84741.3525537902</v>
+        <v>30.856830857303</v>
       </c>
       <c r="H63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>339767.479753935</v>
+        <v>125.29956818746</v>
       </c>
       <c r="C64" t="n">
-        <v>339767.479753935</v>
+        <v>125.29956818746</v>
       </c>
       <c r="D64" t="n">
-        <v>85382.4483991721</v>
+        <v>31.8322811996903</v>
       </c>
       <c r="E64" t="n">
-        <v>85382.4483991721</v>
+        <v>31.8322811996903</v>
       </c>
       <c r="F64" t="n">
-        <v>339767.479753936</v>
+        <v>125.29956818746</v>
       </c>
       <c r="G64" t="n">
-        <v>85382.4483991721</v>
+        <v>31.8322811996903</v>
       </c>
       <c r="H64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>339767.479753935</v>
+        <v>125.29956818746</v>
       </c>
       <c r="C65" t="n">
-        <v>339767.479753935</v>
+        <v>125.29956818746</v>
       </c>
       <c r="D65" t="n">
-        <v>85783.4831685595</v>
+        <v>32.7684035788145</v>
       </c>
       <c r="E65" t="n">
-        <v>85783.4831685595</v>
+        <v>32.7684035788145</v>
       </c>
       <c r="F65" t="n">
-        <v>339767.479753936</v>
+        <v>125.29956818746</v>
       </c>
       <c r="G65" t="n">
-        <v>85783.4831685595</v>
+        <v>32.7684035788145</v>
       </c>
       <c r="H65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66">
@@ -4082,103 +4148,103 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>354051.016900769</v>
+        <v>136.607492394612</v>
       </c>
       <c r="C66" t="n">
-        <v>354051.016900769</v>
+        <v>136.607492394612</v>
       </c>
       <c r="D66" t="n">
-        <v>85944.4568619522</v>
+        <v>33.6651979946756</v>
       </c>
       <c r="E66" t="n">
-        <v>85944.4568619522</v>
+        <v>33.6651979946756</v>
       </c>
       <c r="F66" t="n">
-        <v>354051.016900769</v>
+        <v>136.607492394612</v>
       </c>
       <c r="G66" t="n">
-        <v>85944.4568619522</v>
+        <v>33.6651979946756</v>
       </c>
       <c r="H66" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>354051.016900769</v>
+        <v>136.607492394612</v>
       </c>
       <c r="C67" t="n">
-        <v>354051.016900769</v>
+        <v>136.607492394612</v>
       </c>
       <c r="D67" t="n">
-        <v>87036.1652846053</v>
+        <v>34.2185858026111</v>
       </c>
       <c r="E67" t="n">
-        <v>87036.1652846053</v>
+        <v>34.2185858026111</v>
       </c>
       <c r="F67" t="n">
-        <v>354051.016900769</v>
+        <v>136.607492394612</v>
       </c>
       <c r="G67" t="n">
-        <v>87036.1652846053</v>
+        <v>34.2185858026111</v>
       </c>
       <c r="H67" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>354051.016900769</v>
+        <v>136.607492394612</v>
       </c>
       <c r="C68" t="n">
-        <v>354051.016900769</v>
+        <v>136.607492394612</v>
       </c>
       <c r="D68" t="n">
-        <v>89058.6084365188</v>
+        <v>34.4285670026208</v>
       </c>
       <c r="E68" t="n">
-        <v>89058.6084365188</v>
+        <v>34.4285670026208</v>
       </c>
       <c r="F68" t="n">
-        <v>354051.016900769</v>
+        <v>136.607492394612</v>
       </c>
       <c r="G68" t="n">
-        <v>89058.6084365188</v>
+        <v>34.4285670026208</v>
       </c>
       <c r="H68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>354051.016900769</v>
+        <v>136.607492394612</v>
       </c>
       <c r="C69" t="n">
-        <v>354051.016900769</v>
+        <v>136.607492394612</v>
       </c>
       <c r="D69" t="n">
-        <v>92011.7863176926</v>
+        <v>34.2951415947049</v>
       </c>
       <c r="E69" t="n">
-        <v>92011.7863176926</v>
+        <v>34.2951415947049</v>
       </c>
       <c r="F69" t="n">
-        <v>354051.016900769</v>
+        <v>136.607492394612</v>
       </c>
       <c r="G69" t="n">
-        <v>92011.7863176926</v>
+        <v>34.2951415947049</v>
       </c>
       <c r="H69" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70">
@@ -4186,103 +4252,103 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>372369.300155484</v>
+        <v>135.438473248167</v>
       </c>
       <c r="C70" t="n">
-        <v>372369.300155484</v>
+        <v>135.438473248167</v>
       </c>
       <c r="D70" t="n">
-        <v>95895.6989281267</v>
+        <v>33.8183095788634</v>
       </c>
       <c r="E70" t="n">
-        <v>95895.6989281267</v>
+        <v>33.8183095788634</v>
       </c>
       <c r="F70" t="n">
-        <v>372369.300155485</v>
+        <v>135.438473248167</v>
       </c>
       <c r="G70" t="n">
-        <v>95895.6989281267</v>
+        <v>33.8183095788634</v>
       </c>
       <c r="H70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>372369.300155484</v>
+        <v>135.438473248167</v>
       </c>
       <c r="C71" t="n">
-        <v>372369.300155484</v>
+        <v>135.438473248167</v>
       </c>
       <c r="D71" t="n">
-        <v>96327.9144165981</v>
+        <v>33.6441002657981</v>
       </c>
       <c r="E71" t="n">
-        <v>96327.9144165981</v>
+        <v>33.6441002657981</v>
       </c>
       <c r="F71" t="n">
-        <v>372369.300155485</v>
+        <v>135.438473248167</v>
       </c>
       <c r="G71" t="n">
-        <v>96327.9144165981</v>
+        <v>33.6441002657981</v>
       </c>
       <c r="H71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>372369.300155484</v>
+        <v>135.438473248167</v>
       </c>
       <c r="C72" t="n">
-        <v>372369.300155484</v>
+        <v>135.438473248167</v>
       </c>
       <c r="D72" t="n">
-        <v>93308.4327831069</v>
+        <v>33.772513655509</v>
       </c>
       <c r="E72" t="n">
-        <v>93308.4327831069</v>
+        <v>33.772513655509</v>
       </c>
       <c r="F72" t="n">
-        <v>372369.300155485</v>
+        <v>135.438473248167</v>
       </c>
       <c r="G72" t="n">
-        <v>93308.4327831069</v>
+        <v>33.772513655509</v>
       </c>
       <c r="H72" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>372369.300155484</v>
+        <v>135.438473248167</v>
       </c>
       <c r="C73" t="n">
-        <v>372369.300155484</v>
+        <v>135.438473248167</v>
       </c>
       <c r="D73" t="n">
-        <v>86837.2540276528</v>
+        <v>34.2035497479963</v>
       </c>
       <c r="E73" t="n">
-        <v>86837.2540276528</v>
+        <v>34.2035497479963</v>
       </c>
       <c r="F73" t="n">
-        <v>372369.300155485</v>
+        <v>135.438473248167</v>
       </c>
       <c r="G73" t="n">
-        <v>86837.2540276528</v>
+        <v>34.2035497479963</v>
       </c>
       <c r="H73" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74">
@@ -4290,74 +4356,74 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>278188</v>
+        <v>142.691</v>
       </c>
       <c r="C74" t="n">
-        <v>278188</v>
+        <v>142.691</v>
       </c>
       <c r="D74" t="n">
-        <v>76914.3781502361</v>
+        <v>34.9372085432598</v>
       </c>
       <c r="E74" t="n">
-        <v>76914.3781502361</v>
+        <v>34.9372085432598</v>
       </c>
       <c r="F74" t="n">
-        <v>278188</v>
+        <v>142.691</v>
       </c>
       <c r="G74" t="n">
-        <v>76914.3781502361</v>
+        <v>34.9372085432598</v>
       </c>
       <c r="H74" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>278188</v>
+        <v>142.691</v>
       </c>
       <c r="C75" t="n">
-        <v>278188</v>
+        <v>142.691</v>
       </c>
       <c r="D75" t="n">
-        <v>69998.276539175</v>
+        <v>35.5248886440612</v>
       </c>
       <c r="E75" t="n">
-        <v>69998.276539175</v>
+        <v>35.5248886440612</v>
       </c>
       <c r="F75" t="n">
-        <v>278188</v>
+        <v>142.691</v>
       </c>
       <c r="G75" t="n">
-        <v>69998.276539175</v>
+        <v>35.5248886440612</v>
       </c>
       <c r="H75" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>278188</v>
+        <v>142.691</v>
       </c>
       <c r="C76" t="n">
-        <v>278188</v>
+        <v>142.691</v>
       </c>
       <c r="D76" t="n">
-        <v>66088.9491944695</v>
+        <v>35.9665900504007</v>
       </c>
       <c r="E76" t="n">
-        <v>66088.9491944695</v>
+        <v>35.9665900504007</v>
       </c>
       <c r="F76" t="n">
-        <v>278188</v>
+        <v>142.691</v>
       </c>
       <c r="G76" t="n">
-        <v>66088.9491944695</v>
+        <v>35.9665900504007</v>
       </c>
       <c r="H76" t="s">
         <v>173</v>
@@ -4365,28 +4431,28 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>278188</v>
+        <v>142.691</v>
       </c>
       <c r="C77" t="n">
-        <v>278188</v>
+        <v>142.691</v>
       </c>
       <c r="D77" t="n">
-        <v>65186.3961161196</v>
+        <v>36.2623127622783</v>
       </c>
       <c r="E77" t="n">
-        <v>65186.3961161196</v>
+        <v>36.2623127622783</v>
       </c>
       <c r="F77" t="n">
-        <v>278188</v>
+        <v>142.691</v>
       </c>
       <c r="G77" t="n">
-        <v>65186.3961161196</v>
+        <v>36.2623127622783</v>
       </c>
       <c r="H77" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78">
@@ -4394,22 +4460,22 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>287321</v>
+        <v>141.07</v>
       </c>
       <c r="C78" t="n">
-        <v>287321</v>
+        <v>141.07</v>
       </c>
       <c r="D78" t="n">
-        <v>67290.6173041254</v>
+        <v>36.4120567796938</v>
       </c>
       <c r="E78" t="n">
-        <v>67290.6173041254</v>
+        <v>36.4120567796938</v>
       </c>
       <c r="F78" t="n">
-        <v>287321</v>
+        <v>141.07</v>
       </c>
       <c r="G78" t="n">
-        <v>67290.6173041254</v>
+        <v>36.4120567796938</v>
       </c>
       <c r="H78" t="s">
         <v>173</v>
@@ -4417,25 +4483,25 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>287321</v>
+        <v>141.07</v>
       </c>
       <c r="C79" t="n">
-        <v>287321</v>
+        <v>141.07</v>
       </c>
       <c r="D79" t="n">
-        <v>69948.1588576775</v>
+        <v>36.0141316747825</v>
       </c>
       <c r="E79" t="n">
-        <v>69948.1588576775</v>
+        <v>36.0141316747825</v>
       </c>
       <c r="F79" t="n">
-        <v>287321</v>
+        <v>141.07</v>
       </c>
       <c r="G79" t="n">
-        <v>69948.1588576775</v>
+        <v>36.0141316747825</v>
       </c>
       <c r="H79" t="s">
         <v>173</v>
@@ -4443,54 +4509,54 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>287321</v>
+        <v>141.07</v>
       </c>
       <c r="C80" t="n">
-        <v>287321</v>
+        <v>141.07</v>
       </c>
       <c r="D80" t="n">
-        <v>73159.0207767761</v>
+        <v>35.0685374475443</v>
       </c>
       <c r="E80" t="n">
-        <v>73159.0207767761</v>
+        <v>35.0685374475443</v>
       </c>
       <c r="F80" t="n">
-        <v>287321</v>
+        <v>141.07</v>
       </c>
       <c r="G80" t="n">
-        <v>73159.0207767761</v>
+        <v>35.0685374475443</v>
       </c>
       <c r="H80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>287321</v>
+        <v>141.07</v>
       </c>
       <c r="C81" t="n">
-        <v>287321</v>
+        <v>141.07</v>
       </c>
       <c r="D81" t="n">
-        <v>76923.2030614211</v>
+        <v>33.5752740979794</v>
       </c>
       <c r="E81" t="n">
-        <v>76923.2030614211</v>
+        <v>33.5752740979794</v>
       </c>
       <c r="F81" t="n">
-        <v>287321</v>
+        <v>141.07</v>
       </c>
       <c r="G81" t="n">
-        <v>76923.2030614211</v>
+        <v>33.5752740979794</v>
       </c>
       <c r="H81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82">
@@ -4498,103 +4564,103 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>329981.304237463</v>
+        <v>122.06083585415</v>
       </c>
       <c r="C82" t="n">
-        <v>329981.304237463</v>
+        <v>122.06083585415</v>
       </c>
       <c r="D82" t="n">
-        <v>81240.7057116126</v>
+        <v>31.5343416260877</v>
       </c>
       <c r="E82" t="n">
-        <v>81240.7057116126</v>
+        <v>31.5343416260877</v>
       </c>
       <c r="F82" t="n">
-        <v>329981.304237464</v>
+        <v>122.06083585415</v>
       </c>
       <c r="G82" t="n">
-        <v>81240.7057116126</v>
+        <v>31.5343416260877</v>
       </c>
       <c r="H82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>329981.304237463</v>
+        <v>122.06083585415</v>
       </c>
       <c r="C83" t="n">
-        <v>329981.304237463</v>
+        <v>122.06083585415</v>
       </c>
       <c r="D83" t="n">
-        <v>83469.5549107905</v>
+        <v>30.3103155723109</v>
       </c>
       <c r="E83" t="n">
-        <v>83469.5549107905</v>
+        <v>30.3103155723109</v>
       </c>
       <c r="F83" t="n">
-        <v>329981.304237464</v>
+        <v>122.06083585415</v>
       </c>
       <c r="G83" t="n">
-        <v>83469.5549107905</v>
+        <v>30.3103155723109</v>
       </c>
       <c r="H83" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>329981.304237463</v>
+        <v>122.06083585415</v>
       </c>
       <c r="C84" t="n">
-        <v>329981.304237463</v>
+        <v>122.06083585415</v>
       </c>
       <c r="D84" t="n">
-        <v>83609.7506589548</v>
+        <v>29.9031959366492</v>
       </c>
       <c r="E84" t="n">
-        <v>83609.7506589548</v>
+        <v>29.9031959366492</v>
       </c>
       <c r="F84" t="n">
-        <v>329981.304237464</v>
+        <v>122.06083585415</v>
       </c>
       <c r="G84" t="n">
-        <v>83609.7506589548</v>
+        <v>29.9031959366492</v>
       </c>
       <c r="H84" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>329981.304237463</v>
+        <v>122.06083585415</v>
       </c>
       <c r="C85" t="n">
-        <v>329981.304237463</v>
+        <v>122.06083585415</v>
       </c>
       <c r="D85" t="n">
-        <v>81661.2929561057</v>
+        <v>30.3129827191025</v>
       </c>
       <c r="E85" t="n">
-        <v>81661.2929561057</v>
+        <v>30.3129827191025</v>
       </c>
       <c r="F85" t="n">
-        <v>329981.304237464</v>
+        <v>122.06083585415</v>
       </c>
       <c r="G85" t="n">
-        <v>81661.2929561057</v>
+        <v>30.3129827191025</v>
       </c>
       <c r="H85" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="86">
@@ -4602,103 +4668,103 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>304042.666641919</v>
+        <v>131.496401482068</v>
       </c>
       <c r="C86" t="n">
-        <v>304042.666641919</v>
+        <v>131.496401482068</v>
       </c>
       <c r="D86" t="n">
-        <v>77624.181802243</v>
+        <v>31.5396759196709</v>
       </c>
       <c r="E86" t="n">
-        <v>77624.181802243</v>
+        <v>31.5396759196709</v>
       </c>
       <c r="F86" t="n">
-        <v>304042.666641919</v>
+        <v>131.496401482068</v>
       </c>
       <c r="G86" t="n">
-        <v>77624.181802243</v>
+        <v>31.5396759196709</v>
       </c>
       <c r="H86" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>304042.666641919</v>
+        <v>131.496401482068</v>
       </c>
       <c r="C87" t="n">
-        <v>304042.666641919</v>
+        <v>131.496401482068</v>
       </c>
       <c r="D87" t="n">
-        <v>75363.9312839926</v>
+        <v>32.5641229802367</v>
       </c>
       <c r="E87" t="n">
-        <v>75363.9312839926</v>
+        <v>32.5641229802367</v>
       </c>
       <c r="F87" t="n">
-        <v>304042.666641919</v>
+        <v>131.496401482068</v>
       </c>
       <c r="G87" t="n">
-        <v>75363.9312839926</v>
+        <v>32.5641229802367</v>
       </c>
       <c r="H87" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>304042.666641919</v>
+        <v>131.496401482068</v>
       </c>
       <c r="C88" t="n">
-        <v>304042.666641919</v>
+        <v>131.496401482068</v>
       </c>
       <c r="D88" t="n">
-        <v>74880.5414013546</v>
+        <v>33.3863239007999</v>
       </c>
       <c r="E88" t="n">
-        <v>74880.5414013546</v>
+        <v>33.3863239007999</v>
       </c>
       <c r="F88" t="n">
-        <v>304042.666641919</v>
+        <v>131.496401482068</v>
       </c>
       <c r="G88" t="n">
-        <v>74880.5414013546</v>
+        <v>33.3863239007999</v>
       </c>
       <c r="H88" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>304042.666641919</v>
+        <v>131.496401482068</v>
       </c>
       <c r="C89" t="n">
-        <v>304042.666641919</v>
+        <v>131.496401482068</v>
       </c>
       <c r="D89" t="n">
-        <v>76174.012154329</v>
+        <v>34.0062786813606</v>
       </c>
       <c r="E89" t="n">
-        <v>76174.012154329</v>
+        <v>34.0062786813606</v>
       </c>
       <c r="F89" t="n">
-        <v>304042.666641919</v>
+        <v>131.496401482068</v>
       </c>
       <c r="G89" t="n">
-        <v>76174.012154329</v>
+        <v>34.0062786813606</v>
       </c>
       <c r="H89" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="90">
@@ -4706,103 +4772,103 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>325830.922596112</v>
+        <v>134.929284115746</v>
       </c>
       <c r="C90" t="n">
-        <v>325830.922596112</v>
+        <v>134.929284115746</v>
       </c>
       <c r="D90" t="n">
-        <v>79244.3435429157</v>
+        <v>34.4239873219188</v>
       </c>
       <c r="E90" t="n">
-        <v>79244.3435429157</v>
+        <v>34.4239873219188</v>
       </c>
       <c r="F90" t="n">
-        <v>325830.922596112</v>
+        <v>134.929284115746</v>
       </c>
       <c r="G90" t="n">
-        <v>79244.3435429157</v>
+        <v>34.4239873219188</v>
       </c>
       <c r="H90" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>325830.922596112</v>
+        <v>134.929284115746</v>
       </c>
       <c r="C91" t="n">
-        <v>325830.922596112</v>
+        <v>134.929284115746</v>
       </c>
       <c r="D91" t="n">
-        <v>81357.8309407953</v>
+        <v>34.3144042609491</v>
       </c>
       <c r="E91" t="n">
-        <v>81357.8309407953</v>
+        <v>34.3144042609491</v>
       </c>
       <c r="F91" t="n">
-        <v>325830.922596112</v>
+        <v>134.929284115746</v>
       </c>
       <c r="G91" t="n">
-        <v>81357.8309407953</v>
+        <v>34.3144042609491</v>
       </c>
       <c r="H91" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>325830.922596112</v>
+        <v>134.929284115746</v>
       </c>
       <c r="C92" t="n">
-        <v>325830.922596112</v>
+        <v>134.929284115746</v>
       </c>
       <c r="D92" t="n">
-        <v>82514.4743479678</v>
+        <v>33.6775294984516</v>
       </c>
       <c r="E92" t="n">
-        <v>82514.4743479678</v>
+        <v>33.6775294984516</v>
       </c>
       <c r="F92" t="n">
-        <v>325830.922596112</v>
+        <v>134.929284115746</v>
       </c>
       <c r="G92" t="n">
-        <v>82514.4743479678</v>
+        <v>33.6775294984516</v>
       </c>
       <c r="H92" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>325830.922596112</v>
+        <v>134.929284115746</v>
       </c>
       <c r="C93" t="n">
-        <v>325830.922596112</v>
+        <v>134.929284115746</v>
       </c>
       <c r="D93" t="n">
-        <v>82714.2737644332</v>
+        <v>32.5133630344262</v>
       </c>
       <c r="E93" t="n">
-        <v>82714.2737644332</v>
+        <v>32.5133630344262</v>
       </c>
       <c r="F93" t="n">
-        <v>325830.922596112</v>
+        <v>134.929284115746</v>
       </c>
       <c r="G93" t="n">
-        <v>82714.2737644332</v>
+        <v>32.5133630344262</v>
       </c>
       <c r="H93" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94">
@@ -4810,103 +4876,311 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>325179.26075092</v>
+        <v>118.547276811531</v>
       </c>
       <c r="C94" t="n">
-        <v>325179.26075092</v>
+        <v>118.547276811531</v>
       </c>
       <c r="D94" t="n">
-        <v>81957.2291901916</v>
+        <v>30.821904868873</v>
       </c>
       <c r="E94" t="n">
-        <v>81957.2291901916</v>
+        <v>30.821904868873</v>
       </c>
       <c r="F94" t="n">
-        <v>325179.26075092</v>
+        <v>118.547276811531</v>
       </c>
       <c r="G94" t="n">
-        <v>81957.2291901916</v>
+        <v>30.821904868873</v>
       </c>
       <c r="H94" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>325179.26075092</v>
+        <v>118.547276811531</v>
       </c>
       <c r="C95" t="n">
-        <v>325179.26075092</v>
+        <v>118.547276811531</v>
       </c>
       <c r="D95" t="n">
-        <v>81389.4457595103</v>
+        <v>29.6712873362556</v>
       </c>
       <c r="E95" t="n">
-        <v>81389.4457595103</v>
+        <v>29.6712873362556</v>
       </c>
       <c r="F95" t="n">
-        <v>325179.26075092</v>
+        <v>118.547276811531</v>
       </c>
       <c r="G95" t="n">
-        <v>81389.4457595103</v>
+        <v>29.6712873362556</v>
       </c>
       <c r="H95" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>325179.26075092</v>
+        <v>118.547276811531</v>
       </c>
       <c r="C96" t="n">
-        <v>325179.26075092</v>
+        <v>118.547276811531</v>
       </c>
       <c r="D96" t="n">
-        <v>81010.9234723895</v>
+        <v>29.0615104365742</v>
       </c>
       <c r="E96" t="n">
-        <v>81010.9234723895</v>
+        <v>29.0615104365742</v>
       </c>
       <c r="F96" t="n">
-        <v>325179.26075092</v>
+        <v>118.547276811531</v>
       </c>
       <c r="G96" t="n">
-        <v>81010.9234723895</v>
+        <v>29.0615104365742</v>
       </c>
       <c r="H96" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>325179.26075092</v>
+        <v>118.547276811531</v>
       </c>
       <c r="C97" t="n">
-        <v>325179.26075092</v>
+        <v>118.547276811531</v>
       </c>
       <c r="D97" t="n">
-        <v>80821.662328829</v>
+        <v>28.9925741698286</v>
       </c>
       <c r="E97" t="n">
-        <v>80821.662328829</v>
+        <v>28.9925741698286</v>
       </c>
       <c r="F97" t="n">
-        <v>325179.26075092</v>
+        <v>118.547276811531</v>
       </c>
       <c r="G97" t="n">
-        <v>80821.662328829</v>
+        <v>28.9925741698286</v>
       </c>
       <c r="H97" t="s">
-        <v>172</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>26</v>
+      </c>
+      <c r="B98" t="n">
+        <v>119.377107749212</v>
+      </c>
+      <c r="C98" t="n">
+        <v>119.377107749212</v>
+      </c>
+      <c r="D98" t="n">
+        <v>29.4644785360189</v>
+      </c>
+      <c r="E98" t="n">
+        <v>29.4644785360189</v>
+      </c>
+      <c r="F98" t="n">
+        <v>119.377107749212</v>
+      </c>
+      <c r="G98" t="n">
+        <v>29.4644785360189</v>
+      </c>
+      <c r="H98" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="n">
+        <v>119.377107749212</v>
+      </c>
+      <c r="C99" t="n">
+        <v>119.377107749212</v>
+      </c>
+      <c r="D99" t="n">
+        <v>29.8051596430087</v>
+      </c>
+      <c r="E99" t="n">
+        <v>29.8051596430087</v>
+      </c>
+      <c r="F99" t="n">
+        <v>119.377107749212</v>
+      </c>
+      <c r="G99" t="n">
+        <v>29.8051596430087</v>
+      </c>
+      <c r="H99" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" t="n">
+        <v>119.377107749212</v>
+      </c>
+      <c r="C100" t="n">
+        <v>119.377107749212</v>
+      </c>
+      <c r="D100" t="n">
+        <v>30.0146174907979</v>
+      </c>
+      <c r="E100" t="n">
+        <v>30.0146174907979</v>
+      </c>
+      <c r="F100" t="n">
+        <v>119.377107749212</v>
+      </c>
+      <c r="G100" t="n">
+        <v>30.0146174907979</v>
+      </c>
+      <c r="H100" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" t="n">
+        <v>119.377107749212</v>
+      </c>
+      <c r="C101" t="n">
+        <v>119.377107749212</v>
+      </c>
+      <c r="D101" t="n">
+        <v>30.0928520793866</v>
+      </c>
+      <c r="E101" t="n">
+        <v>30.0928520793866</v>
+      </c>
+      <c r="F101" t="n">
+        <v>119.377107749212</v>
+      </c>
+      <c r="G101" t="n">
+        <v>30.0928520793866</v>
+      </c>
+      <c r="H101" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" t="n">
+        <v>119.973993287958</v>
+      </c>
+      <c r="C102" t="n">
+        <v>119.973993287958</v>
+      </c>
+      <c r="D102" t="n">
+        <v>30.0398634087749</v>
+      </c>
+      <c r="E102" t="n">
+        <v>30.0398634087749</v>
+      </c>
+      <c r="F102" t="n">
+        <v>119.973993287958</v>
+      </c>
+      <c r="G102" t="n">
+        <v>30.0398634087749</v>
+      </c>
+      <c r="H102" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" t="n">
+        <v>119.973993287958</v>
+      </c>
+      <c r="C103" t="n">
+        <v>119.973993287958</v>
+      </c>
+      <c r="D103" t="n">
+        <v>30.000121905816</v>
+      </c>
+      <c r="E103" t="n">
+        <v>30.000121905816</v>
+      </c>
+      <c r="F103" t="n">
+        <v>119.973993287958</v>
+      </c>
+      <c r="G103" t="n">
+        <v>30.000121905816</v>
+      </c>
+      <c r="H103" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" t="n">
+        <v>119.973993287958</v>
+      </c>
+      <c r="C104" t="n">
+        <v>119.973993287958</v>
+      </c>
+      <c r="D104" t="n">
+        <v>29.9736275705101</v>
+      </c>
+      <c r="E104" t="n">
+        <v>29.9736275705101</v>
+      </c>
+      <c r="F104" t="n">
+        <v>119.973993287958</v>
+      </c>
+      <c r="G104" t="n">
+        <v>29.9736275705101</v>
+      </c>
+      <c r="H104" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" t="n">
+        <v>119.973993287958</v>
+      </c>
+      <c r="C105" t="n">
+        <v>119.973993287958</v>
+      </c>
+      <c r="D105" t="n">
+        <v>29.9603804028572</v>
+      </c>
+      <c r="E105" t="n">
+        <v>29.9603804028572</v>
+      </c>
+      <c r="F105" t="n">
+        <v>119.973993287958</v>
+      </c>
+      <c r="G105" t="n">
+        <v>29.9603804028572</v>
+      </c>
+      <c r="H105" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -4925,10 +5199,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
@@ -4936,31 +5210,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>98145.6928822036</v>
+        <v>29.9446137412916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>98400.5117931836</v>
+        <v>30.1572520985359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>98910.1496151438</v>
+        <v>30.5825288130246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>99674.606348084</v>
+        <v>31.2204438847575</v>
       </c>
     </row>
     <row r="6">
@@ -4968,31 +5242,31 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>100693.881992004</v>
+        <v>32.0709973137349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>102470.334617543</v>
+        <v>32.7013234208734</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>105003.964224699</v>
+        <v>33.111422206173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>108294.770813473</v>
+        <v>33.3012936696338</v>
       </c>
     </row>
     <row r="10">
@@ -5000,31 +5274,31 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>112342.754383865</v>
+        <v>33.2709378112557</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>115275.305086806</v>
+        <v>33.2969656094127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>117092.422922295</v>
+        <v>33.3793770641047</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>117794.107890333</v>
+        <v>33.5181721753318</v>
       </c>
     </row>
     <row r="14">
@@ -5032,31 +5306,31 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>117380.359990919</v>
+        <v>33.713350943094</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>117384.915832139</v>
+        <v>33.4552214256731</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>117807.775413993</v>
+        <v>32.7437836230691</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>118648.938736482</v>
+        <v>31.5790375352821</v>
       </c>
     </row>
     <row r="18">
@@ -5064,31 +5338,31 @@
         <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>119908.405799604</v>
+        <v>29.960983162312</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>122153.900851008</v>
+        <v>29.748906565932</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>125385.423890695</v>
+        <v>30.9428077461419</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>129602.974918664</v>
+        <v>33.5426867029419</v>
       </c>
     </row>
     <row r="22">
@@ -5096,31 +5370,31 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>134806.553934915</v>
+        <v>37.548543436332</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>135942.489433511</v>
+        <v>39.8856236266671</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>133010.781414452</v>
+        <v>40.5539272739474</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>126011.429877738</v>
+        <v>39.5534543781728</v>
       </c>
     </row>
     <row r="26">
@@ -5128,31 +5402,31 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>114944.43482337</v>
+        <v>36.8842049393432</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>106793.749969574</v>
+        <v>35.1141417494676</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>101559.375316351</v>
+        <v>34.243264808546</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>99241.3108636997</v>
+        <v>34.2715741165782</v>
       </c>
     </row>
     <row r="30">
@@ -5160,31 +5434,31 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>99839.556611621</v>
+        <v>35.1990696735643</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>99997.1527601916</v>
+        <v>35.8309720807835</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>99714.0993094116</v>
+        <v>36.1672813382358</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>98990.396259281</v>
+        <v>36.2079974459212</v>
       </c>
     </row>
     <row r="34">
@@ -5192,31 +5466,31 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>97826.0436097996</v>
+        <v>35.9531204038396</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>97149.9699293736</v>
+        <v>35.8354310642397</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>96962.1752180029</v>
+        <v>35.8549294271214</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>97262.6594756875</v>
+        <v>36.0116154924848</v>
       </c>
     </row>
     <row r="38">
@@ -5224,31 +5498,31 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>98051.4227024274</v>
+        <v>36.3054892603298</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>98200.4060429715</v>
+        <v>36.5037782827951</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>97709.6094973197</v>
+        <v>36.6064825598807</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>96579.0330654722</v>
+        <v>36.6136020915865</v>
       </c>
     </row>
     <row r="42">
@@ -5256,31 +5530,31 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>94808.6767474289</v>
+        <v>36.5251368779126</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>93294.4985679922</v>
+        <v>36.0867610542058</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>92036.4985271622</v>
+        <v>35.298474620466</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>91034.6766249387</v>
+        <v>34.1602775766933</v>
       </c>
     </row>
     <row r="46">
@@ -5288,31 +5562,31 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>90289.0328613219</v>
+        <v>32.6721699228876</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>89806.5588398544</v>
+        <v>31.4045375425752</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>89587.2545605363</v>
+        <v>30.357380435756</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>89631.1200233675</v>
+        <v>29.5306986024301</v>
       </c>
     </row>
     <row r="50">
@@ -5320,31 +5594,31 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>89938.1552283481</v>
+        <v>28.9244920425974</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>90203.696339878</v>
+        <v>28.1337687540965</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>90427.7433579571</v>
+        <v>27.1585287369273</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>90610.2962825856</v>
+        <v>25.9987719910898</v>
       </c>
     </row>
     <row r="54">
@@ -5352,31 +5626,31 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>90751.3551137633</v>
+        <v>24.6544985165841</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>90238.0371920501</v>
+        <v>23.9318370716137</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>89070.342517446</v>
+        <v>23.8307876561788</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>87248.2710899509</v>
+        <v>24.3513502702792</v>
       </c>
     </row>
     <row r="58">
@@ -5384,31 +5658,31 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>84771.822909565</v>
+        <v>25.493524913915</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>83194.7912736182</v>
+        <v>26.6136824638702</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>82517.1761821108</v>
+        <v>27.7118229201449</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>82738.9776350426</v>
+        <v>28.787946282739</v>
       </c>
     </row>
     <row r="62">
@@ -5416,31 +5690,31 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>83860.1956324137</v>
+        <v>29.8420525516525</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>84741.3525537902</v>
+        <v>30.856830857303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>85382.4483991721</v>
+        <v>31.8322811996903</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>85783.4831685595</v>
+        <v>32.7684035788145</v>
       </c>
     </row>
     <row r="66">
@@ -5448,31 +5722,31 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>85944.4568619522</v>
+        <v>33.6651979946756</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>87036.1652846053</v>
+        <v>34.2185858026111</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>89058.6084365188</v>
+        <v>34.4285670026208</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>92011.7863176926</v>
+        <v>34.2951415947049</v>
       </c>
     </row>
     <row r="70">
@@ -5480,31 +5754,31 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>95895.6989281267</v>
+        <v>33.8183095788634</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>96327.9144165981</v>
+        <v>33.6441002657981</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>93308.4327831069</v>
+        <v>33.772513655509</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>86837.2540276528</v>
+        <v>34.2035497479963</v>
       </c>
     </row>
     <row r="74">
@@ -5512,31 +5786,31 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>76914.3781502361</v>
+        <v>34.9372085432598</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>69998.276539175</v>
+        <v>35.5248886440612</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>66088.9491944695</v>
+        <v>35.9665900504007</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>65186.3961161196</v>
+        <v>36.2623127622783</v>
       </c>
     </row>
     <row r="78">
@@ -5544,31 +5818,31 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>67290.6173041254</v>
+        <v>36.4120567796938</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>69948.1588576775</v>
+        <v>36.0141316747825</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>73159.0207767761</v>
+        <v>35.0685374475443</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>76923.2030614211</v>
+        <v>33.5752740979794</v>
       </c>
     </row>
     <row r="82">
@@ -5576,31 +5850,31 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>81240.7057116126</v>
+        <v>31.5343416260877</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>83469.5549107905</v>
+        <v>30.3103155723109</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>83609.7506589548</v>
+        <v>29.9031959366492</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>81661.2929561057</v>
+        <v>30.3129827191025</v>
       </c>
     </row>
     <row r="86">
@@ -5608,31 +5882,31 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>77624.181802243</v>
+        <v>31.5396759196709</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>75363.9312839926</v>
+        <v>32.5641229802367</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>74880.5414013546</v>
+        <v>33.3863239007999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>76174.012154329</v>
+        <v>34.0062786813606</v>
       </c>
     </row>
     <row r="90">
@@ -5640,31 +5914,31 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>79244.3435429157</v>
+        <v>34.4239873219188</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>81357.8309407953</v>
+        <v>34.3144042609491</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>82514.4743479678</v>
+        <v>33.6775294984516</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>82714.2737644332</v>
+        <v>32.5133630344262</v>
       </c>
     </row>
     <row r="94">
@@ -5672,71 +5946,71 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>81957.2291901916</v>
+        <v>30.821904868873</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>81389.4457595103</v>
+        <v>29.6712873362556</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>81010.9234723895</v>
+        <v>29.0615104365742</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>80821.662328829</v>
+        <v>28.9925741698286</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="B98" t="n">
-        <v>80713.8125477876</v>
+        <v>29.4644785360189</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99" t="n">
-        <v>80973.3485493497</v>
+        <v>29.8051596430087</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100" t="n">
-        <v>81532.5684648005</v>
+        <v>30.0146174907979</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101" t="n">
-        <v>82344.993531538</v>
+        <v>30.0928520793866</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="B102" t="n">
-        <v>83504.667117714</v>
+        <v>30.0398634087749</v>
       </c>
     </row>
     <row r="103">
@@ -5744,7 +6018,7 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>83985.8556416673</v>
+        <v>30.000121905816</v>
       </c>
     </row>
     <row r="104">
@@ -5752,7 +6026,7 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>83868.3677022675</v>
+        <v>29.9736275705101</v>
       </c>
     </row>
     <row r="105">
@@ -5760,7 +6034,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>83218.4057538818</v>
+        <v>29.9603804028572</v>
       </c>
     </row>
     <row r="106">
@@ -5768,7 +6042,7 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>82016.8747844662</v>
+        <v>30.0438860695498</v>
       </c>
     </row>
     <row r="107">
@@ -5776,7 +6050,7 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>81263.8998912108</v>
+        <v>30.1222687082499</v>
       </c>
     </row>
     <row r="108">
@@ -5784,7 +6058,7 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>80936.3999808225</v>
+        <v>30.1955678516503</v>
       </c>
     </row>
     <row r="109">
@@ -5792,7 +6066,7 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>81012.4346150471</v>
+        <v>30.2638220339781</v>
       </c>
     </row>
     <row r="110">
@@ -5800,7 +6074,7 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>81477.619403895</v>
+        <v>30.2987530948911</v>
       </c>
     </row>
     <row r="111">
@@ -5808,7 +6082,7 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>81851.4423254337</v>
+        <v>30.3328019122331</v>
       </c>
     </row>
     <row r="112">
@@ -5816,7 +6090,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>82124.8026399312</v>
+        <v>30.3659907685713</v>
       </c>
     </row>
     <row r="113">
@@ -5824,7 +6098,7 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>82291.4134655213</v>
+        <v>30.3983413836889</v>
       </c>
     </row>
     <row r="114">
@@ -5832,7 +6106,7 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>82384.4098698798</v>
+        <v>30.4298749287989</v>
       </c>
     </row>
     <row r="115">
@@ -5840,7 +6114,7 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>82337.3071747549</v>
+        <v>30.460612040399</v>
       </c>
     </row>
     <row r="116">
@@ -5848,7 +6122,7 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>82173.6523184357</v>
+        <v>30.490572833777</v>
       </c>
     </row>
     <row r="117">
@@ -5856,7 +6130,7 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>81911.1196712192</v>
+        <v>30.5197769161748</v>
       </c>
     </row>
     <row r="118">
@@ -5864,7 +6138,7 @@
         <v>122</v>
       </c>
       <c r="B118" t="n">
-        <v>81517.281801097</v>
+        <v>30.5482433996199</v>
       </c>
     </row>
     <row r="119">
@@ -5872,7 +6146,7 @@
         <v>123</v>
       </c>
       <c r="B119" t="n">
-        <v>81353.4866835187</v>
+        <v>30.575990913433</v>
       </c>
     </row>
     <row r="120">
@@ -5880,7 +6154,7 @@
         <v>124</v>
       </c>
       <c r="B120" t="n">
-        <v>81393.9240649951</v>
+        <v>30.6030376164194</v>
       </c>
     </row>
     <row r="121">
@@ -5888,7 +6162,7 @@
         <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>81617.8783563876</v>
+        <v>30.6294012087529</v>
       </c>
     </row>
     <row r="122">
@@ -5896,7 +6170,7 @@
         <v>126</v>
       </c>
       <c r="B122" t="n">
-        <v>82037.3716579567</v>
+        <v>30.655098943559</v>
       </c>
     </row>
     <row r="123">
@@ -5904,7 +6178,7 @@
         <v>127</v>
       </c>
       <c r="B123" t="n">
-        <v>82284.3865044905</v>
+        <v>30.6801476382063</v>
       </c>
     </row>
     <row r="124">
@@ -5912,7 +6186,7 @@
         <v>128</v>
       </c>
       <c r="B124" t="n">
-        <v>82370.872616703</v>
+        <v>30.7045636853118</v>
       </c>
     </row>
     <row r="125">
@@ -5920,7 +6194,7 @@
         <v>129</v>
       </c>
       <c r="B125" t="n">
-        <v>82307.4525253359</v>
+        <v>30.7283630634692</v>
       </c>
     </row>
     <row r="126">
@@ -5928,7 +6202,7 @@
         <v>130</v>
       </c>
       <c r="B126" t="n">
-        <v>82099.2359810209</v>
+        <v>30.7515613477053</v>
       </c>
     </row>
     <row r="127">
@@ -5936,7 +6210,7 @@
         <v>131</v>
       </c>
       <c r="B127" t="n">
-        <v>81938.8478790191</v>
+        <v>30.7741737196734</v>
       </c>
     </row>
     <row r="128">
@@ -5944,7 +6218,7 @@
         <v>132</v>
       </c>
       <c r="B128" t="n">
-        <v>81828.6680392941</v>
+        <v>30.7962149775878</v>
       </c>
     </row>
     <row r="129">
@@ -5952,7 +6226,7 @@
         <v>133</v>
       </c>
       <c r="B129" t="n">
-        <v>81769.8755064036</v>
+        <v>30.8176995459089</v>
       </c>
     </row>
     <row r="130">
@@ -5960,7 +6234,7 @@
         <v>134</v>
       </c>
       <c r="B130" t="n">
-        <v>81750.2286225911</v>
+        <v>30.8386414847827</v>
       </c>
     </row>
     <row r="131">
@@ -5968,7 +6242,7 @@
         <v>135</v>
       </c>
       <c r="B131" t="n">
-        <v>81778.1638236195</v>
+        <v>30.859054499242</v>
       </c>
     </row>
     <row r="132">
@@ -5976,7 +6250,7 @@
         <v>136</v>
       </c>
       <c r="B132" t="n">
-        <v>81844.7325534971</v>
+        <v>30.878951948176</v>
       </c>
     </row>
     <row r="133">
@@ -5984,7 +6258,7 @@
         <v>137</v>
       </c>
       <c r="B133" t="n">
-        <v>81943.0970772947</v>
+        <v>30.8983468530719</v>
       </c>
     </row>
   </sheetData>
@@ -6003,10 +6277,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
@@ -6014,31 +6288,31 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>98145.6928822036</v>
+        <v>29.9446137412916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>98400.5117931836</v>
+        <v>30.1572520985359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>98910.1496151438</v>
+        <v>30.5825288130246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>99674.606348084</v>
+        <v>31.2204438847575</v>
       </c>
     </row>
     <row r="6">
@@ -6046,31 +6320,31 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>100693.881992004</v>
+        <v>32.0709973137349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>102470.334617543</v>
+        <v>32.7013234208734</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>105003.964224699</v>
+        <v>33.111422206173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>108294.770813473</v>
+        <v>33.3012936696338</v>
       </c>
     </row>
     <row r="10">
@@ -6078,31 +6352,31 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>112342.754383865</v>
+        <v>33.2709378112557</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>115275.305086806</v>
+        <v>33.2969656094127</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>117092.422922295</v>
+        <v>33.3793770641047</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>117794.107890333</v>
+        <v>33.5181721753318</v>
       </c>
     </row>
     <row r="14">
@@ -6110,31 +6384,31 @@
         <v>5</v>
       </c>
       <c r="B14" t="n">
-        <v>117380.359990919</v>
+        <v>33.713350943094</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>117384.915832139</v>
+        <v>33.4552214256731</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>117807.775413993</v>
+        <v>32.7437836230691</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>118648.938736482</v>
+        <v>31.5790375352821</v>
       </c>
     </row>
     <row r="18">
@@ -6142,31 +6416,31 @@
         <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>119908.405799604</v>
+        <v>29.960983162312</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>122153.900851008</v>
+        <v>29.748906565932</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>125385.423890695</v>
+        <v>30.9428077461419</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>129602.974918664</v>
+        <v>33.5426867029419</v>
       </c>
     </row>
     <row r="22">
@@ -6174,31 +6448,31 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>134806.553934915</v>
+        <v>37.548543436332</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>135942.489433511</v>
+        <v>39.8856236266671</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>133010.781414452</v>
+        <v>40.5539272739474</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>126011.429877738</v>
+        <v>39.5534543781728</v>
       </c>
     </row>
     <row r="26">
@@ -6206,31 +6480,31 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>114944.43482337</v>
+        <v>36.8842049393432</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>106793.749969574</v>
+        <v>35.1141417494676</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>101559.375316351</v>
+        <v>34.243264808546</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>99241.3108636997</v>
+        <v>34.2715741165782</v>
       </c>
     </row>
     <row r="30">
@@ -6238,31 +6512,31 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>99839.556611621</v>
+        <v>35.1990696735643</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>99997.1527601916</v>
+        <v>35.8309720807835</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>99714.0993094116</v>
+        <v>36.1672813382358</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>98990.396259281</v>
+        <v>36.2079974459212</v>
       </c>
     </row>
     <row r="34">
@@ -6270,31 +6544,31 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>97826.0436097996</v>
+        <v>35.9531204038396</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>97149.9699293736</v>
+        <v>35.8354310642397</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>96962.1752180029</v>
+        <v>35.8549294271214</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>97262.6594756875</v>
+        <v>36.0116154924848</v>
       </c>
     </row>
     <row r="38">
@@ -6302,31 +6576,31 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>98051.4227024274</v>
+        <v>36.3054892603298</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>98200.4060429715</v>
+        <v>36.5037782827951</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>97709.6094973197</v>
+        <v>36.6064825598807</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>96579.0330654722</v>
+        <v>36.6136020915865</v>
       </c>
     </row>
     <row r="42">
@@ -6334,31 +6608,31 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>94808.6767474289</v>
+        <v>36.5251368779126</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>93294.4985679922</v>
+        <v>36.0867610542058</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>92036.4985271622</v>
+        <v>35.298474620466</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>91034.6766249387</v>
+        <v>34.1602775766933</v>
       </c>
     </row>
     <row r="46">
@@ -6366,31 +6640,31 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>90289.0328613219</v>
+        <v>32.6721699228876</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>89806.5588398544</v>
+        <v>31.4045375425752</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>89587.2545605363</v>
+        <v>30.357380435756</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>89631.1200233675</v>
+        <v>29.5306986024301</v>
       </c>
     </row>
     <row r="50">
@@ -6398,31 +6672,31 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>89938.1552283481</v>
+        <v>28.9244920425974</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>90203.696339878</v>
+        <v>28.1337687540965</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>90427.7433579571</v>
+        <v>27.1585287369273</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>90610.2962825856</v>
+        <v>25.9987719910898</v>
       </c>
     </row>
     <row r="54">
@@ -6430,31 +6704,31 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>90751.3551137633</v>
+        <v>24.6544985165841</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>90238.0371920501</v>
+        <v>23.9318370716137</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>89070.342517446</v>
+        <v>23.8307876561788</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>87248.2710899509</v>
+        <v>24.3513502702792</v>
       </c>
     </row>
     <row r="58">
@@ -6462,31 +6736,31 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>84771.822909565</v>
+        <v>25.493524913915</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>83194.7912736182</v>
+        <v>26.6136824638702</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>82517.1761821108</v>
+        <v>27.7118229201449</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>82738.9776350426</v>
+        <v>28.787946282739</v>
       </c>
     </row>
     <row r="62">
@@ -6494,31 +6768,31 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>83860.1956324137</v>
+        <v>29.8420525516525</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>84741.3525537902</v>
+        <v>30.856830857303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>85382.4483991721</v>
+        <v>31.8322811996903</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>85783.4831685595</v>
+        <v>32.7684035788145</v>
       </c>
     </row>
     <row r="66">
@@ -6526,31 +6800,31 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>85944.4568619522</v>
+        <v>33.6651979946756</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>87036.1652846053</v>
+        <v>34.2185858026111</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>89058.6084365188</v>
+        <v>34.4285670026208</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>92011.7863176926</v>
+        <v>34.2951415947049</v>
       </c>
     </row>
     <row r="70">
@@ -6558,31 +6832,31 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>95895.6989281267</v>
+        <v>33.8183095788634</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>96327.9144165981</v>
+        <v>33.6441002657981</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>93308.4327831069</v>
+        <v>33.772513655509</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>86837.2540276528</v>
+        <v>34.2035497479963</v>
       </c>
     </row>
     <row r="74">
@@ -6590,31 +6864,31 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>76914.3781502361</v>
+        <v>34.9372085432598</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>69998.276539175</v>
+        <v>35.5248886440612</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>66088.9491944695</v>
+        <v>35.9665900504007</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>65186.3961161196</v>
+        <v>36.2623127622783</v>
       </c>
     </row>
     <row r="78">
@@ -6622,31 +6896,31 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>67290.6173041254</v>
+        <v>36.4120567796938</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>69948.1588576775</v>
+        <v>36.0141316747825</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>73159.0207767761</v>
+        <v>35.0685374475443</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>76923.2030614211</v>
+        <v>33.5752740979794</v>
       </c>
     </row>
     <row r="82">
@@ -6654,31 +6928,31 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>81240.7057116126</v>
+        <v>31.5343416260877</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>83469.5549107905</v>
+        <v>30.3103155723109</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>83609.7506589548</v>
+        <v>29.9031959366492</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>81661.2929561057</v>
+        <v>30.3129827191025</v>
       </c>
     </row>
     <row r="86">
@@ -6686,31 +6960,31 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>77624.181802243</v>
+        <v>31.5396759196709</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>75363.9312839926</v>
+        <v>32.5641229802367</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>74880.5414013546</v>
+        <v>33.3863239007999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>76174.012154329</v>
+        <v>34.0062786813606</v>
       </c>
     </row>
     <row r="90">
@@ -6718,31 +6992,31 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>79244.3435429157</v>
+        <v>34.4239873219188</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>81357.8309407953</v>
+        <v>34.3144042609491</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>82514.4743479678</v>
+        <v>33.6775294984516</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>82714.2737644332</v>
+        <v>32.5133630344262</v>
       </c>
     </row>
     <row r="94">
@@ -6750,71 +7024,71 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>81957.2291901916</v>
+        <v>30.821904868873</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>81389.4457595103</v>
+        <v>29.6712873362556</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>81010.9234723895</v>
+        <v>29.0615104365742</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>80821.662328829</v>
+        <v>28.9925741698286</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>26</v>
       </c>
       <c r="B98" t="n">
-        <v>80713.8125477876</v>
+        <v>29.4644785360189</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99" t="n">
-        <v>80973.3485493497</v>
+        <v>29.8051596430087</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100" t="n">
-        <v>81532.5684648005</v>
+        <v>30.0146174907979</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101" t="n">
-        <v>82344.993531538</v>
+        <v>30.0928520793866</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="B102" t="n">
-        <v>83504.667117714</v>
+        <v>30.0398634087749</v>
       </c>
     </row>
     <row r="103">
@@ -6822,7 +7096,7 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>83985.8556416673</v>
+        <v>30.000121905816</v>
       </c>
     </row>
     <row r="104">
@@ -6830,7 +7104,7 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>83868.3677022675</v>
+        <v>29.9736275705101</v>
       </c>
     </row>
     <row r="105">
@@ -6838,7 +7112,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>83218.4057538818</v>
+        <v>29.9603804028572</v>
       </c>
     </row>
     <row r="106">
@@ -6846,7 +7120,7 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>82016.8747844662</v>
+        <v>30.0438860695498</v>
       </c>
     </row>
     <row r="107">
@@ -6854,7 +7128,7 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>81263.8998912108</v>
+        <v>30.1222687082499</v>
       </c>
     </row>
     <row r="108">
@@ -6862,7 +7136,7 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>80936.3999808225</v>
+        <v>30.1955678516503</v>
       </c>
     </row>
     <row r="109">
@@ -6870,7 +7144,7 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>81012.4346150471</v>
+        <v>30.2638220339781</v>
       </c>
     </row>
     <row r="110">
@@ -6878,7 +7152,7 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>81477.619403895</v>
+        <v>30.2987530948911</v>
       </c>
     </row>
     <row r="111">
@@ -6886,7 +7160,7 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>81851.4423254337</v>
+        <v>30.3328019122331</v>
       </c>
     </row>
     <row r="112">
@@ -6894,7 +7168,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>82124.8026399312</v>
+        <v>30.3659907685713</v>
       </c>
     </row>
     <row r="113">
@@ -6902,7 +7176,7 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>82291.4134655213</v>
+        <v>30.3983413836889</v>
       </c>
     </row>
     <row r="114">
@@ -6910,7 +7184,7 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>82384.4098698798</v>
+        <v>30.4298749287989</v>
       </c>
     </row>
     <row r="115">
@@ -6918,7 +7192,7 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>82337.3071747549</v>
+        <v>30.460612040399</v>
       </c>
     </row>
     <row r="116">
@@ -6926,7 +7200,7 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>82173.6523184357</v>
+        <v>30.490572833777</v>
       </c>
     </row>
     <row r="117">
@@ -6934,7 +7208,7 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>81911.1196712192</v>
+        <v>30.5197769161748</v>
       </c>
     </row>
     <row r="118">
@@ -6942,7 +7216,7 @@
         <v>122</v>
       </c>
       <c r="B118" t="n">
-        <v>81517.281801097</v>
+        <v>30.5482433996199</v>
       </c>
     </row>
     <row r="119">
@@ -6950,7 +7224,7 @@
         <v>123</v>
       </c>
       <c r="B119" t="n">
-        <v>81353.4866835187</v>
+        <v>30.575990913433</v>
       </c>
     </row>
     <row r="120">
@@ -6958,7 +7232,7 @@
         <v>124</v>
       </c>
       <c r="B120" t="n">
-        <v>81393.9240649951</v>
+        <v>30.6030376164194</v>
       </c>
     </row>
     <row r="121">
@@ -6966,7 +7240,7 @@
         <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>81617.8783563876</v>
+        <v>30.6294012087529</v>
       </c>
     </row>
     <row r="122">
@@ -6974,7 +7248,7 @@
         <v>126</v>
       </c>
       <c r="B122" t="n">
-        <v>82037.3716579567</v>
+        <v>30.655098943559</v>
       </c>
     </row>
     <row r="123">
@@ -6982,7 +7256,7 @@
         <v>127</v>
       </c>
       <c r="B123" t="n">
-        <v>82284.3865044905</v>
+        <v>30.6801476382063</v>
       </c>
     </row>
     <row r="124">
@@ -6990,7 +7264,7 @@
         <v>128</v>
       </c>
       <c r="B124" t="n">
-        <v>82370.872616703</v>
+        <v>30.7045636853118</v>
       </c>
     </row>
     <row r="125">
@@ -6998,7 +7272,7 @@
         <v>129</v>
       </c>
       <c r="B125" t="n">
-        <v>82307.4525253359</v>
+        <v>30.7283630634692</v>
       </c>
     </row>
     <row r="126">
@@ -7006,7 +7280,7 @@
         <v>130</v>
       </c>
       <c r="B126" t="n">
-        <v>82099.2359810209</v>
+        <v>30.7515613477053</v>
       </c>
     </row>
     <row r="127">
@@ -7014,7 +7288,7 @@
         <v>131</v>
       </c>
       <c r="B127" t="n">
-        <v>81938.8478790191</v>
+        <v>30.7741737196734</v>
       </c>
     </row>
     <row r="128">
@@ -7022,7 +7296,7 @@
         <v>132</v>
       </c>
       <c r="B128" t="n">
-        <v>81828.6680392941</v>
+        <v>30.7962149775878</v>
       </c>
     </row>
     <row r="129">
@@ -7030,7 +7304,7 @@
         <v>133</v>
       </c>
       <c r="B129" t="n">
-        <v>81769.8755064036</v>
+        <v>30.8176995459089</v>
       </c>
     </row>
     <row r="130">
@@ -7038,7 +7312,7 @@
         <v>134</v>
       </c>
       <c r="B130" t="n">
-        <v>81750.2286225911</v>
+        <v>30.8386414847827</v>
       </c>
     </row>
     <row r="131">
@@ -7046,7 +7320,7 @@
         <v>135</v>
       </c>
       <c r="B131" t="n">
-        <v>81778.1638236195</v>
+        <v>30.859054499242</v>
       </c>
     </row>
     <row r="132">
@@ -7054,7 +7328,7 @@
         <v>136</v>
       </c>
       <c r="B132" t="n">
-        <v>81844.7325534971</v>
+        <v>30.878951948176</v>
       </c>
     </row>
     <row r="133">
@@ -7062,7 +7336,7 @@
         <v>137</v>
       </c>
       <c r="B133" t="n">
-        <v>81943.0970772947</v>
+        <v>30.8983468530719</v>
       </c>
     </row>
   </sheetData>

--- a/VA_result_ELE.xlsx
+++ b/VA_result_ELE.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t xml:space="preserve">ANNEE</t>
   </si>
@@ -98,249 +98,249 @@
     <t xml:space="preserve">2020-01-01</t>
   </si>
   <si>
+    <t xml:space="preserve">DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1996-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1997-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1998-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1999-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2000-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2001-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2003-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2004-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2005-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2006-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021-01-01</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">2022-01-01</t>
   </si>
   <si>
-    <t xml:space="preserve">DATE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1996-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1997-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1998-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2000-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2001-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2002-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2004-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2006-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2009-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-10-01</t>
-  </si>
-  <si>
     <t xml:space="preserve">2022-04-01</t>
   </si>
   <si>
@@ -509,12 +509,6 @@
     <t xml:space="preserve">2020</t>
   </si>
   <si>
-    <t xml:space="preserve">2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
     <t xml:space="preserve">time</t>
   </si>
   <si>
@@ -542,28 +536,37 @@
     <t xml:space="preserve">2.8421709430404e-14</t>
   </si>
   <si>
-    <t xml:space="preserve">5.6843418860808e-14</t>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-5.6843418860808e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-8.5265128291212e-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.4210854715202e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.70530256582424e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.98951966012828e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.1316282072803e-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1.13686837721616e-13</t>
   </si>
   <si>
     <t xml:space="preserve">-2.8421709430404e-14</t>
   </si>
   <si>
-    <t xml:space="preserve">-5.6843418860808e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-8.5265128291212e-14</t>
-  </si>
-  <si>
     <t xml:space="preserve">-4.2632564145606e-14</t>
   </si>
   <si>
     <t xml:space="preserve">-1.4210854715202e-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.2632564145606e-14</t>
   </si>
 </sst>
 </file>
@@ -1037,16 +1040,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1063,7 +1056,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2">
@@ -1073,17 +1066,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
@@ -1093,17 +1086,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1113,17 +1106,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14">
@@ -1133,17 +1126,17 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -1153,17 +1146,17 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
@@ -1173,17 +1166,17 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26">
@@ -1193,17 +1186,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30">
@@ -1213,17 +1206,17 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34">
@@ -1233,17 +1226,17 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38">
@@ -1253,17 +1246,17 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42">
@@ -1273,17 +1266,17 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46">
@@ -1293,17 +1286,17 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50">
@@ -1313,17 +1306,17 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54">
@@ -1333,17 +1326,17 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58">
@@ -1353,17 +1346,17 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62">
@@ -1373,17 +1366,17 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="66">
@@ -1393,17 +1386,17 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70">
@@ -1413,17 +1406,17 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
@@ -1433,17 +1426,17 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="78">
@@ -1453,17 +1446,17 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
@@ -1473,17 +1466,17 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="86">
@@ -1493,17 +1486,17 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90">
@@ -1513,17 +1506,17 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="94">
@@ -1533,17 +1526,17 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98">
@@ -1553,42 +1546,42 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107">
@@ -1890,16 +1883,6 @@
         <v>162</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>164</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1916,7 +1899,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
@@ -1926,17 +1909,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1946,17 +1929,17 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -1966,17 +1949,17 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -1986,17 +1969,17 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18">
@@ -2006,17 +1989,17 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -2026,17 +2009,17 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26">
@@ -2046,17 +2029,17 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -2066,17 +2049,17 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34">
@@ -2086,17 +2069,17 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38">
@@ -2106,17 +2089,17 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42">
@@ -2126,17 +2109,17 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46">
@@ -2146,17 +2129,17 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50">
@@ -2166,17 +2149,17 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="54">
@@ -2186,17 +2169,17 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58">
@@ -2206,17 +2189,17 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62">
@@ -2226,17 +2209,17 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66">
@@ -2246,17 +2229,17 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
@@ -2266,17 +2249,17 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74">
@@ -2286,17 +2269,17 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="78">
@@ -2306,17 +2289,17 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="82">
@@ -2326,17 +2309,17 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86">
@@ -2346,17 +2329,17 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90">
@@ -2366,17 +2349,17 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94">
@@ -2386,57 +2369,17 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2455,28 +2398,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2">
@@ -2502,12 +2445,12 @@
         <v>29.9446137412916</v>
       </c>
       <c r="H2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
         <v>121.90483853761</v>
@@ -2528,12 +2471,12 @@
         <v>30.1572520985359</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
         <v>121.90483853761</v>
@@ -2542,24 +2485,24 @@
         <v>121.90483853761</v>
       </c>
       <c r="D4" t="n">
-        <v>30.5825288130246</v>
+        <v>30.5825288130245</v>
       </c>
       <c r="E4" t="n">
-        <v>30.5825288130246</v>
+        <v>30.5825288130245</v>
       </c>
       <c r="F4" t="n">
         <v>121.90483853761</v>
       </c>
       <c r="G4" t="n">
-        <v>30.5825288130246</v>
+        <v>30.5825288130245</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
         <v>121.90483853761</v>
@@ -2580,7 +2523,7 @@
         <v>31.2204438847575</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
@@ -2611,7 +2554,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n">
         <v>131.185036610415</v>
@@ -2620,24 +2563,24 @@
         <v>131.185036610415</v>
       </c>
       <c r="D7" t="n">
-        <v>32.7013234208734</v>
+        <v>32.7013234208733</v>
       </c>
       <c r="E7" t="n">
-        <v>32.7013234208734</v>
+        <v>32.7013234208733</v>
       </c>
       <c r="F7" t="n">
         <v>131.185036610415</v>
       </c>
       <c r="G7" t="n">
-        <v>32.7013234208734</v>
+        <v>32.7013234208733</v>
       </c>
       <c r="H7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>131.185036610415</v>
@@ -2658,12 +2601,12 @@
         <v>33.111422206173</v>
       </c>
       <c r="H8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
         <v>131.185036610415</v>
@@ -2672,16 +2615,16 @@
         <v>131.185036610415</v>
       </c>
       <c r="D9" t="n">
-        <v>33.3012936696338</v>
+        <v>33.3012936696337</v>
       </c>
       <c r="E9" t="n">
-        <v>33.3012936696338</v>
+        <v>33.3012936696337</v>
       </c>
       <c r="F9" t="n">
         <v>131.185036610415</v>
       </c>
       <c r="G9" t="n">
-        <v>33.3012936696338</v>
+        <v>33.3012936696337</v>
       </c>
       <c r="H9" t="s">
         <v>176</v>
@@ -2698,16 +2641,16 @@
         <v>133.465452660105</v>
       </c>
       <c r="D10" t="n">
-        <v>33.2709378112557</v>
+        <v>33.2709378112556</v>
       </c>
       <c r="E10" t="n">
-        <v>33.2709378112557</v>
+        <v>33.2709378112556</v>
       </c>
       <c r="F10" t="n">
         <v>133.465452660105</v>
       </c>
       <c r="G10" t="n">
-        <v>33.2709378112557</v>
+        <v>33.2709378112556</v>
       </c>
       <c r="H10" t="s">
         <v>177</v>
@@ -2715,7 +2658,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
         <v>133.465452660105</v>
@@ -2724,24 +2667,24 @@
         <v>133.465452660105</v>
       </c>
       <c r="D11" t="n">
-        <v>33.2969656094127</v>
+        <v>33.2969656094126</v>
       </c>
       <c r="E11" t="n">
-        <v>33.2969656094127</v>
+        <v>33.2969656094126</v>
       </c>
       <c r="F11" t="n">
         <v>133.465452660105</v>
       </c>
       <c r="G11" t="n">
-        <v>33.2969656094127</v>
+        <v>33.2969656094126</v>
       </c>
       <c r="H11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="n">
         <v>133.465452660105</v>
@@ -2762,12 +2705,12 @@
         <v>33.3793770641047</v>
       </c>
       <c r="H12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n">
         <v>133.465452660105</v>
@@ -2814,12 +2757,12 @@
         <v>33.713350943094</v>
       </c>
       <c r="H14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="n">
         <v>131.491393527118</v>
@@ -2840,12 +2783,12 @@
         <v>33.4552214256731</v>
       </c>
       <c r="H15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="n">
         <v>131.491393527118</v>
@@ -2871,7 +2814,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="n">
         <v>131.491393527118</v>
@@ -2880,16 +2823,16 @@
         <v>131.491393527118</v>
       </c>
       <c r="D17" t="n">
-        <v>31.5790375352821</v>
+        <v>31.5790375352819</v>
       </c>
       <c r="E17" t="n">
-        <v>31.5790375352821</v>
+        <v>31.5790375352819</v>
       </c>
       <c r="F17" t="n">
         <v>131.491393527118</v>
       </c>
       <c r="G17" t="n">
-        <v>31.5790375352821</v>
+        <v>31.5790375352819</v>
       </c>
       <c r="H17" t="s">
         <v>179</v>
@@ -2906,24 +2849,24 @@
         <v>124.195384177328</v>
       </c>
       <c r="D18" t="n">
-        <v>29.960983162312</v>
+        <v>29.9609831623117</v>
       </c>
       <c r="E18" t="n">
-        <v>29.960983162312</v>
+        <v>29.9609831623117</v>
       </c>
       <c r="F18" t="n">
         <v>124.195384177328</v>
       </c>
       <c r="G18" t="n">
-        <v>29.960983162312</v>
+        <v>29.9609831623117</v>
       </c>
       <c r="H18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
         <v>124.195384177328</v>
@@ -2932,24 +2875,24 @@
         <v>124.195384177328</v>
       </c>
       <c r="D19" t="n">
-        <v>29.748906565932</v>
+        <v>29.7489065659317</v>
       </c>
       <c r="E19" t="n">
-        <v>29.748906565932</v>
+        <v>29.7489065659317</v>
       </c>
       <c r="F19" t="n">
         <v>124.195384177328</v>
       </c>
       <c r="G19" t="n">
-        <v>29.748906565932</v>
+        <v>29.7489065659317</v>
       </c>
       <c r="H19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
         <v>124.195384177328</v>
@@ -2970,12 +2913,12 @@
         <v>30.9428077461419</v>
       </c>
       <c r="H20" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
         <v>124.195384177328</v>
@@ -2984,16 +2927,16 @@
         <v>124.195384177328</v>
       </c>
       <c r="D21" t="n">
-        <v>33.5426867029419</v>
+        <v>33.5426867029425</v>
       </c>
       <c r="E21" t="n">
-        <v>33.5426867029419</v>
+        <v>33.5426867029425</v>
       </c>
       <c r="F21" t="n">
         <v>124.195384177328</v>
       </c>
       <c r="G21" t="n">
-        <v>33.5426867029419</v>
+        <v>33.5426867029425</v>
       </c>
       <c r="H21" t="s">
         <v>180</v>
@@ -3010,24 +2953,24 @@
         <v>157.541548715119</v>
       </c>
       <c r="D22" t="n">
-        <v>37.548543436332</v>
+        <v>37.5485434363333</v>
       </c>
       <c r="E22" t="n">
-        <v>37.548543436332</v>
+        <v>37.5485434363333</v>
       </c>
       <c r="F22" t="n">
         <v>157.541548715119</v>
       </c>
       <c r="G22" t="n">
-        <v>37.548543436332</v>
+        <v>37.5485434363333</v>
       </c>
       <c r="H22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="n">
         <v>157.541548715119</v>
@@ -3036,24 +2979,24 @@
         <v>157.541548715119</v>
       </c>
       <c r="D23" t="n">
-        <v>39.8856236266671</v>
+        <v>39.8856236266682</v>
       </c>
       <c r="E23" t="n">
-        <v>39.8856236266671</v>
+        <v>39.8856236266682</v>
       </c>
       <c r="F23" t="n">
         <v>157.541548715119</v>
       </c>
       <c r="G23" t="n">
-        <v>39.8856236266671</v>
+        <v>39.8856236266682</v>
       </c>
       <c r="H23" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="n">
         <v>157.541548715119</v>
@@ -3062,24 +3005,24 @@
         <v>157.541548715119</v>
       </c>
       <c r="D24" t="n">
-        <v>40.5539272739474</v>
+        <v>40.5539272739472</v>
       </c>
       <c r="E24" t="n">
-        <v>40.5539272739474</v>
+        <v>40.5539272739472</v>
       </c>
       <c r="F24" t="n">
         <v>157.541548715119</v>
       </c>
       <c r="G24" t="n">
-        <v>40.5539272739474</v>
+        <v>40.5539272739472</v>
       </c>
       <c r="H24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" t="n">
         <v>157.541548715119</v>
@@ -3088,19 +3031,19 @@
         <v>157.541548715119</v>
       </c>
       <c r="D25" t="n">
-        <v>39.5534543781728</v>
+        <v>39.5534543781703</v>
       </c>
       <c r="E25" t="n">
-        <v>39.5534543781728</v>
+        <v>39.5534543781703</v>
       </c>
       <c r="F25" t="n">
         <v>157.541548715119</v>
       </c>
       <c r="G25" t="n">
-        <v>39.5534543781728</v>
+        <v>39.5534543781703</v>
       </c>
       <c r="H25" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26">
@@ -3114,24 +3057,24 @@
         <v>140.513185613935</v>
       </c>
       <c r="D26" t="n">
-        <v>36.8842049393432</v>
+        <v>36.8842049393374</v>
       </c>
       <c r="E26" t="n">
-        <v>36.8842049393432</v>
+        <v>36.8842049393374</v>
       </c>
       <c r="F26" t="n">
         <v>140.513185613935</v>
       </c>
       <c r="G26" t="n">
-        <v>36.8842049393432</v>
+        <v>36.8842049393374</v>
       </c>
       <c r="H26" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="n">
         <v>140.513185613935</v>
@@ -3140,24 +3083,24 @@
         <v>140.513185613935</v>
       </c>
       <c r="D27" t="n">
-        <v>35.1141417494676</v>
+        <v>35.1141417494627</v>
       </c>
       <c r="E27" t="n">
-        <v>35.1141417494676</v>
+        <v>35.1141417494627</v>
       </c>
       <c r="F27" t="n">
         <v>140.513185613935</v>
       </c>
       <c r="G27" t="n">
-        <v>35.1141417494676</v>
+        <v>35.1141417494627</v>
       </c>
       <c r="H27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="n">
         <v>140.513185613935</v>
@@ -3166,16 +3109,16 @@
         <v>140.513185613935</v>
       </c>
       <c r="D28" t="n">
-        <v>34.243264808546</v>
+        <v>34.2432648085464</v>
       </c>
       <c r="E28" t="n">
-        <v>34.243264808546</v>
+        <v>34.2432648085464</v>
       </c>
       <c r="F28" t="n">
         <v>140.513185613935</v>
       </c>
       <c r="G28" t="n">
-        <v>34.243264808546</v>
+        <v>34.2432648085464</v>
       </c>
       <c r="H28" t="s">
         <v>173</v>
@@ -3183,7 +3126,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="n">
         <v>140.513185613935</v>
@@ -3192,19 +3135,19 @@
         <v>140.513185613935</v>
       </c>
       <c r="D29" t="n">
-        <v>34.2715741165782</v>
+        <v>34.2715741165884</v>
       </c>
       <c r="E29" t="n">
-        <v>34.2715741165782</v>
+        <v>34.2715741165884</v>
       </c>
       <c r="F29" t="n">
         <v>140.513185613935</v>
       </c>
       <c r="G29" t="n">
-        <v>34.2715741165782</v>
+        <v>34.2715741165884</v>
       </c>
       <c r="H29" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30">
@@ -3218,16 +3161,16 @@
         <v>143.405320538505</v>
       </c>
       <c r="D30" t="n">
-        <v>35.1990696735643</v>
+        <v>35.1990696735886</v>
       </c>
       <c r="E30" t="n">
-        <v>35.1990696735643</v>
+        <v>35.1990696735886</v>
       </c>
       <c r="F30" t="n">
         <v>143.405320538505</v>
       </c>
       <c r="G30" t="n">
-        <v>35.1990696735643</v>
+        <v>35.1990696735886</v>
       </c>
       <c r="H30" t="s">
         <v>174</v>
@@ -3235,7 +3178,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" t="n">
         <v>143.405320538505</v>
@@ -3244,24 +3187,24 @@
         <v>143.405320538505</v>
       </c>
       <c r="D31" t="n">
-        <v>35.8309720807835</v>
+        <v>35.8309720808038</v>
       </c>
       <c r="E31" t="n">
-        <v>35.8309720807835</v>
+        <v>35.8309720808038</v>
       </c>
       <c r="F31" t="n">
         <v>143.405320538505</v>
       </c>
       <c r="G31" t="n">
-        <v>35.8309720807835</v>
+        <v>35.8309720808038</v>
       </c>
       <c r="H31" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="n">
         <v>143.405320538505</v>
@@ -3270,24 +3213,24 @@
         <v>143.405320538505</v>
       </c>
       <c r="D32" t="n">
-        <v>36.1672813382358</v>
+        <v>36.1672813382337</v>
       </c>
       <c r="E32" t="n">
-        <v>36.1672813382358</v>
+        <v>36.1672813382337</v>
       </c>
       <c r="F32" t="n">
         <v>143.405320538505</v>
       </c>
       <c r="G32" t="n">
-        <v>36.1672813382358</v>
+        <v>36.1672813382337</v>
       </c>
       <c r="H32" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="n">
         <v>143.405320538505</v>
@@ -3296,19 +3239,19 @@
         <v>143.405320538505</v>
       </c>
       <c r="D33" t="n">
-        <v>36.2079974459212</v>
+        <v>36.2079974458786</v>
       </c>
       <c r="E33" t="n">
-        <v>36.2079974459212</v>
+        <v>36.2079974458786</v>
       </c>
       <c r="F33" t="n">
         <v>143.405320538505</v>
       </c>
       <c r="G33" t="n">
-        <v>36.2079974459212</v>
+        <v>36.2079974458786</v>
       </c>
       <c r="H33" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34">
@@ -3322,24 +3265,24 @@
         <v>143.655096387686</v>
       </c>
       <c r="D34" t="n">
-        <v>35.9531204038396</v>
+        <v>35.9531204037383</v>
       </c>
       <c r="E34" t="n">
-        <v>35.9531204038396</v>
+        <v>35.9531204037383</v>
       </c>
       <c r="F34" t="n">
-        <v>143.655096387686</v>
+        <v>143.655096387685</v>
       </c>
       <c r="G34" t="n">
-        <v>35.9531204038396</v>
+        <v>35.9531204037383</v>
       </c>
       <c r="H34" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" t="n">
         <v>143.655096387686</v>
@@ -3348,24 +3291,24 @@
         <v>143.655096387686</v>
       </c>
       <c r="D35" t="n">
-        <v>35.8354310642397</v>
+        <v>35.8354310641554</v>
       </c>
       <c r="E35" t="n">
-        <v>35.8354310642397</v>
+        <v>35.8354310641554</v>
       </c>
       <c r="F35" t="n">
-        <v>143.655096387686</v>
+        <v>143.655096387685</v>
       </c>
       <c r="G35" t="n">
-        <v>35.8354310642397</v>
+        <v>35.8354310641554</v>
       </c>
       <c r="H35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" t="n">
         <v>143.655096387686</v>
@@ -3374,16 +3317,16 @@
         <v>143.655096387686</v>
       </c>
       <c r="D36" t="n">
-        <v>35.8549294271214</v>
+        <v>35.8549294271299</v>
       </c>
       <c r="E36" t="n">
-        <v>35.8549294271214</v>
+        <v>35.8549294271299</v>
       </c>
       <c r="F36" t="n">
-        <v>143.655096387686</v>
+        <v>143.655096387685</v>
       </c>
       <c r="G36" t="n">
-        <v>35.8549294271214</v>
+        <v>35.8549294271299</v>
       </c>
       <c r="H36" t="s">
         <v>177</v>
@@ -3391,7 +3334,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" t="n">
         <v>143.655096387686</v>
@@ -3400,19 +3343,19 @@
         <v>143.655096387686</v>
       </c>
       <c r="D37" t="n">
-        <v>36.0116154924848</v>
+        <v>36.0116154926619</v>
       </c>
       <c r="E37" t="n">
-        <v>36.0116154924848</v>
+        <v>36.0116154926619</v>
       </c>
       <c r="F37" t="n">
-        <v>143.655096387686</v>
+        <v>143.655096387685</v>
       </c>
       <c r="G37" t="n">
-        <v>36.0116154924848</v>
+        <v>36.0116154926619</v>
       </c>
       <c r="H37" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38">
@@ -3426,24 +3369,24 @@
         <v>146.029352194592</v>
       </c>
       <c r="D38" t="n">
-        <v>36.3054892603298</v>
+        <v>36.3054892607513</v>
       </c>
       <c r="E38" t="n">
-        <v>36.3054892603298</v>
+        <v>36.3054892607513</v>
       </c>
       <c r="F38" t="n">
         <v>146.029352194592</v>
       </c>
       <c r="G38" t="n">
-        <v>36.3054892603298</v>
+        <v>36.3054892607513</v>
       </c>
       <c r="H38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" t="n">
         <v>146.029352194592</v>
@@ -3452,24 +3395,24 @@
         <v>146.029352194592</v>
       </c>
       <c r="D39" t="n">
-        <v>36.5037782827951</v>
+        <v>36.5037782831457</v>
       </c>
       <c r="E39" t="n">
-        <v>36.5037782827951</v>
+        <v>36.5037782831457</v>
       </c>
       <c r="F39" t="n">
         <v>146.029352194592</v>
       </c>
       <c r="G39" t="n">
-        <v>36.5037782827951</v>
+        <v>36.5037782831457</v>
       </c>
       <c r="H39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" t="n">
         <v>146.029352194592</v>
@@ -3478,24 +3421,24 @@
         <v>146.029352194592</v>
       </c>
       <c r="D40" t="n">
-        <v>36.6064825598807</v>
+        <v>36.6064825598452</v>
       </c>
       <c r="E40" t="n">
-        <v>36.6064825598807</v>
+        <v>36.6064825598452</v>
       </c>
       <c r="F40" t="n">
         <v>146.029352194592</v>
       </c>
       <c r="G40" t="n">
-        <v>36.6064825598807</v>
+        <v>36.6064825598452</v>
       </c>
       <c r="H40" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" t="n">
         <v>146.029352194592</v>
@@ -3504,19 +3447,19 @@
         <v>146.029352194592</v>
       </c>
       <c r="D41" t="n">
-        <v>36.6136020915865</v>
+        <v>36.6136020908497</v>
       </c>
       <c r="E41" t="n">
-        <v>36.6136020915865</v>
+        <v>36.6136020908497</v>
       </c>
       <c r="F41" t="n">
         <v>146.029352194592</v>
       </c>
       <c r="G41" t="n">
-        <v>36.6136020915865</v>
+        <v>36.6136020908497</v>
       </c>
       <c r="H41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="42">
@@ -3530,24 +3473,24 @@
         <v>142.070650129278</v>
       </c>
       <c r="D42" t="n">
-        <v>36.5251368779126</v>
+        <v>36.5251368761593</v>
       </c>
       <c r="E42" t="n">
-        <v>36.5251368779126</v>
+        <v>36.5251368761593</v>
       </c>
       <c r="F42" t="n">
         <v>142.070650129278</v>
       </c>
       <c r="G42" t="n">
-        <v>36.5251368779126</v>
+        <v>36.5251368761593</v>
       </c>
       <c r="H42" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" t="n">
         <v>142.070650129278</v>
@@ -3556,24 +3499,24 @@
         <v>142.070650129278</v>
       </c>
       <c r="D43" t="n">
-        <v>36.0867610542058</v>
+        <v>36.0867610527471</v>
       </c>
       <c r="E43" t="n">
-        <v>36.0867610542058</v>
+        <v>36.0867610527471</v>
       </c>
       <c r="F43" t="n">
         <v>142.070650129278</v>
       </c>
       <c r="G43" t="n">
-        <v>36.0867610542058</v>
+        <v>36.0867610527471</v>
       </c>
       <c r="H43" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="n">
         <v>142.070650129278</v>
@@ -3582,24 +3525,24 @@
         <v>142.070650129278</v>
       </c>
       <c r="D44" t="n">
-        <v>35.298474620466</v>
+        <v>35.2984746206133</v>
       </c>
       <c r="E44" t="n">
-        <v>35.298474620466</v>
+        <v>35.2984746206133</v>
       </c>
       <c r="F44" t="n">
         <v>142.070650129278</v>
       </c>
       <c r="G44" t="n">
-        <v>35.298474620466</v>
+        <v>35.2984746206133</v>
       </c>
       <c r="H44" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" t="n">
         <v>142.070650129278</v>
@@ -3608,19 +3551,19 @@
         <v>142.070650129278</v>
       </c>
       <c r="D45" t="n">
-        <v>34.1602775766933</v>
+        <v>34.1602775797579</v>
       </c>
       <c r="E45" t="n">
-        <v>34.1602775766933</v>
+        <v>34.1602775797579</v>
       </c>
       <c r="F45" t="n">
         <v>142.070650129278</v>
       </c>
       <c r="G45" t="n">
-        <v>34.1602775766933</v>
+        <v>34.1602775797579</v>
       </c>
       <c r="H45" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46">
@@ -3634,24 +3577,24 @@
         <v>123.964786503649</v>
       </c>
       <c r="D46" t="n">
-        <v>32.6721699228876</v>
+        <v>32.6721699301808</v>
       </c>
       <c r="E46" t="n">
-        <v>32.6721699228876</v>
+        <v>32.6721699301808</v>
       </c>
       <c r="F46" t="n">
         <v>123.964786503649</v>
       </c>
       <c r="G46" t="n">
-        <v>32.6721699228876</v>
+        <v>32.6721699301808</v>
       </c>
       <c r="H46" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" t="n">
         <v>123.964786503649</v>
@@ -3660,16 +3603,16 @@
         <v>123.964786503649</v>
       </c>
       <c r="D47" t="n">
-        <v>31.4045375425752</v>
+        <v>31.4045375486425</v>
       </c>
       <c r="E47" t="n">
-        <v>31.4045375425752</v>
+        <v>31.4045375486425</v>
       </c>
       <c r="F47" t="n">
         <v>123.964786503649</v>
       </c>
       <c r="G47" t="n">
-        <v>31.4045375425752</v>
+        <v>31.4045375486425</v>
       </c>
       <c r="H47" t="s">
         <v>180</v>
@@ -3677,7 +3620,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="n">
         <v>123.964786503649</v>
@@ -3686,24 +3629,24 @@
         <v>123.964786503649</v>
       </c>
       <c r="D48" t="n">
-        <v>30.357380435756</v>
+        <v>30.357380435143</v>
       </c>
       <c r="E48" t="n">
-        <v>30.357380435756</v>
+        <v>30.357380435143</v>
       </c>
       <c r="F48" t="n">
         <v>123.964786503649</v>
       </c>
       <c r="G48" t="n">
-        <v>30.357380435756</v>
+        <v>30.357380435143</v>
       </c>
       <c r="H48" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" t="n">
         <v>123.964786503649</v>
@@ -3712,19 +3655,19 @@
         <v>123.964786503649</v>
       </c>
       <c r="D49" t="n">
-        <v>29.5306986024301</v>
+        <v>29.5306985896824</v>
       </c>
       <c r="E49" t="n">
-        <v>29.5306986024301</v>
+        <v>29.5306985896824</v>
       </c>
       <c r="F49" t="n">
         <v>123.964786503649</v>
       </c>
       <c r="G49" t="n">
-        <v>29.5306986024301</v>
+        <v>29.5306985896824</v>
       </c>
       <c r="H49" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50">
@@ -3738,24 +3681,24 @@
         <v>110.215561524711</v>
       </c>
       <c r="D50" t="n">
-        <v>28.9244920425974</v>
+        <v>28.9244920122605</v>
       </c>
       <c r="E50" t="n">
-        <v>28.9244920425974</v>
+        <v>28.9244920122605</v>
       </c>
       <c r="F50" t="n">
         <v>110.215561524711</v>
       </c>
       <c r="G50" t="n">
-        <v>28.9244920425974</v>
+        <v>28.9244920122605</v>
       </c>
       <c r="H50" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" t="n">
         <v>110.215561524711</v>
@@ -3764,24 +3707,24 @@
         <v>110.215561524711</v>
       </c>
       <c r="D51" t="n">
-        <v>28.1337687540965</v>
+        <v>28.1337687288587</v>
       </c>
       <c r="E51" t="n">
-        <v>28.1337687540965</v>
+        <v>28.1337687288587</v>
       </c>
       <c r="F51" t="n">
         <v>110.215561524711</v>
       </c>
       <c r="G51" t="n">
-        <v>28.1337687540965</v>
+        <v>28.1337687288587</v>
       </c>
       <c r="H51" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" t="n">
         <v>110.215561524711</v>
@@ -3790,16 +3733,16 @@
         <v>110.215561524711</v>
       </c>
       <c r="D52" t="n">
-        <v>27.1585287369273</v>
+        <v>27.1585287394768</v>
       </c>
       <c r="E52" t="n">
-        <v>27.1585287369273</v>
+        <v>27.1585287394768</v>
       </c>
       <c r="F52" t="n">
         <v>110.215561524711</v>
       </c>
       <c r="G52" t="n">
-        <v>27.1585287369273</v>
+        <v>27.1585287394768</v>
       </c>
       <c r="H52" t="s">
         <v>173</v>
@@ -3807,7 +3750,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
         <v>110.215561524711</v>
@@ -3816,16 +3759,16 @@
         <v>110.215561524711</v>
       </c>
       <c r="D53" t="n">
-        <v>25.9987719910898</v>
+        <v>25.9987720441149</v>
       </c>
       <c r="E53" t="n">
-        <v>25.9987719910898</v>
+        <v>25.9987720441149</v>
       </c>
       <c r="F53" t="n">
         <v>110.215561524711</v>
       </c>
       <c r="G53" t="n">
-        <v>25.9987719910898</v>
+        <v>25.9987720441149</v>
       </c>
       <c r="H53" t="s">
         <v>173</v>
@@ -3842,24 +3785,24 @@
         <v>96.7684735146559</v>
       </c>
       <c r="D54" t="n">
-        <v>24.6544985165841</v>
+        <v>24.6544986427729</v>
       </c>
       <c r="E54" t="n">
-        <v>24.6544985165841</v>
+        <v>24.6544986427729</v>
       </c>
       <c r="F54" t="n">
-        <v>96.7684735146558</v>
+        <v>96.7684735146557</v>
       </c>
       <c r="G54" t="n">
-        <v>24.6544985165841</v>
+        <v>24.6544986427729</v>
       </c>
       <c r="H54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" t="n">
         <v>96.7684735146559</v>
@@ -3868,24 +3811,24 @@
         <v>96.7684735146559</v>
       </c>
       <c r="D55" t="n">
-        <v>23.9318370716137</v>
+        <v>23.9318371765925</v>
       </c>
       <c r="E55" t="n">
-        <v>23.9318370716137</v>
+        <v>23.9318371765925</v>
       </c>
       <c r="F55" t="n">
-        <v>96.7684735146558</v>
+        <v>96.7684735146557</v>
       </c>
       <c r="G55" t="n">
-        <v>23.9318370716137</v>
+        <v>23.9318371765925</v>
       </c>
       <c r="H55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" t="n">
         <v>96.7684735146559</v>
@@ -3894,24 +3837,24 @@
         <v>96.7684735146559</v>
       </c>
       <c r="D56" t="n">
-        <v>23.8307876561788</v>
+        <v>23.8307876455737</v>
       </c>
       <c r="E56" t="n">
-        <v>23.8307876561788</v>
+        <v>23.8307876455737</v>
       </c>
       <c r="F56" t="n">
-        <v>96.7684735146558</v>
+        <v>96.7684735146557</v>
       </c>
       <c r="G56" t="n">
-        <v>23.8307876561788</v>
+        <v>23.8307876455737</v>
       </c>
       <c r="H56" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="n">
         <v>96.7684735146559</v>
@@ -3920,19 +3863,19 @@
         <v>96.7684735146559</v>
       </c>
       <c r="D57" t="n">
-        <v>24.3513502702792</v>
+        <v>24.3513500497165</v>
       </c>
       <c r="E57" t="n">
-        <v>24.3513502702792</v>
+        <v>24.3513500497165</v>
       </c>
       <c r="F57" t="n">
-        <v>96.7684735146558</v>
+        <v>96.7684735146557</v>
       </c>
       <c r="G57" t="n">
-        <v>24.3513502702792</v>
+        <v>24.3513500497165</v>
       </c>
       <c r="H57" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58">
@@ -3946,24 +3889,24 @@
         <v>108.606976580669</v>
       </c>
       <c r="D58" t="n">
-        <v>25.493524913915</v>
+        <v>25.4935243890208</v>
       </c>
       <c r="E58" t="n">
-        <v>25.493524913915</v>
+        <v>25.4935243890208</v>
       </c>
       <c r="F58" t="n">
         <v>108.606976580669</v>
       </c>
       <c r="G58" t="n">
-        <v>25.493524913915</v>
+        <v>25.4935243890208</v>
       </c>
       <c r="H58" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" t="n">
         <v>108.606976580669</v>
@@ -3972,24 +3915,24 @@
         <v>108.606976580669</v>
       </c>
       <c r="D59" t="n">
-        <v>26.6136824638702</v>
+        <v>26.6136820272011</v>
       </c>
       <c r="E59" t="n">
-        <v>26.6136824638702</v>
+        <v>26.6136820272011</v>
       </c>
       <c r="F59" t="n">
         <v>108.606976580669</v>
       </c>
       <c r="G59" t="n">
-        <v>26.6136824638702</v>
+        <v>26.6136820272011</v>
       </c>
       <c r="H59" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" t="n">
         <v>108.606976580669</v>
@@ -3998,24 +3941,24 @@
         <v>108.606976580669</v>
       </c>
       <c r="D60" t="n">
-        <v>27.7118229201449</v>
+        <v>27.7118229642574</v>
       </c>
       <c r="E60" t="n">
-        <v>27.7118229201449</v>
+        <v>27.7118229642574</v>
       </c>
       <c r="F60" t="n">
         <v>108.606976580669</v>
       </c>
       <c r="G60" t="n">
-        <v>27.7118229201449</v>
+        <v>27.7118229642574</v>
       </c>
       <c r="H60" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" t="n">
         <v>108.606976580669</v>
@@ -4024,19 +3967,19 @@
         <v>108.606976580669</v>
       </c>
       <c r="D61" t="n">
-        <v>28.787946282739</v>
+        <v>28.7879472001897</v>
       </c>
       <c r="E61" t="n">
-        <v>28.787946282739</v>
+        <v>28.7879472001897</v>
       </c>
       <c r="F61" t="n">
         <v>108.606976580669</v>
       </c>
       <c r="G61" t="n">
-        <v>28.787946282739</v>
+        <v>28.7879472001897</v>
       </c>
       <c r="H61" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62">
@@ -4050,16 +3993,16 @@
         <v>125.29956818746</v>
       </c>
       <c r="D62" t="n">
-        <v>29.8420525516525</v>
+        <v>29.8420547349979</v>
       </c>
       <c r="E62" t="n">
-        <v>29.8420525516525</v>
+        <v>29.8420547349979</v>
       </c>
       <c r="F62" t="n">
         <v>125.29956818746</v>
       </c>
       <c r="G62" t="n">
-        <v>29.8420525516525</v>
+        <v>29.8420547349979</v>
       </c>
       <c r="H62" t="s">
         <v>177</v>
@@ -4067,7 +4010,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" t="n">
         <v>125.29956818746</v>
@@ -4076,16 +4019,16 @@
         <v>125.29956818746</v>
       </c>
       <c r="D63" t="n">
-        <v>30.856830857303</v>
+        <v>30.856832673668</v>
       </c>
       <c r="E63" t="n">
-        <v>30.856830857303</v>
+        <v>30.856832673668</v>
       </c>
       <c r="F63" t="n">
         <v>125.29956818746</v>
       </c>
       <c r="G63" t="n">
-        <v>30.856830857303</v>
+        <v>30.856832673668</v>
       </c>
       <c r="H63" t="s">
         <v>176</v>
@@ -4093,7 +4036,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" t="n">
         <v>125.29956818746</v>
@@ -4102,24 +4045,24 @@
         <v>125.29956818746</v>
       </c>
       <c r="D64" t="n">
-        <v>31.8322811996903</v>
+        <v>31.8322810162001</v>
       </c>
       <c r="E64" t="n">
-        <v>31.8322811996903</v>
+        <v>31.8322810162001</v>
       </c>
       <c r="F64" t="n">
         <v>125.29956818746</v>
       </c>
       <c r="G64" t="n">
-        <v>31.8322811996903</v>
+        <v>31.8322810162001</v>
       </c>
       <c r="H64" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B65" t="n">
         <v>125.29956818746</v>
@@ -4128,19 +4071,19 @@
         <v>125.29956818746</v>
       </c>
       <c r="D65" t="n">
-        <v>32.7684035788145</v>
+        <v>32.7683997625941</v>
       </c>
       <c r="E65" t="n">
-        <v>32.7684035788145</v>
+        <v>32.7683997625941</v>
       </c>
       <c r="F65" t="n">
         <v>125.29956818746</v>
       </c>
       <c r="G65" t="n">
-        <v>32.7684035788145</v>
+        <v>32.7683997625941</v>
       </c>
       <c r="H65" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66">
@@ -4154,24 +4097,24 @@
         <v>136.607492394612</v>
       </c>
       <c r="D66" t="n">
-        <v>33.6651979946756</v>
+        <v>33.66518891285</v>
       </c>
       <c r="E66" t="n">
-        <v>33.6651979946756</v>
+        <v>33.66518891285</v>
       </c>
       <c r="F66" t="n">
         <v>136.607492394612</v>
       </c>
       <c r="G66" t="n">
-        <v>33.6651979946756</v>
+        <v>33.66518891285</v>
       </c>
       <c r="H66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B67" t="n">
         <v>136.607492394612</v>
@@ -4180,24 +4123,24 @@
         <v>136.607492394612</v>
       </c>
       <c r="D67" t="n">
-        <v>34.2185858026111</v>
+        <v>34.2185782472736</v>
       </c>
       <c r="E67" t="n">
-        <v>34.2185858026111</v>
+        <v>34.2185782472736</v>
       </c>
       <c r="F67" t="n">
         <v>136.607492394612</v>
       </c>
       <c r="G67" t="n">
-        <v>34.2185858026111</v>
+        <v>34.2185782472736</v>
       </c>
       <c r="H67" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B68" t="n">
         <v>136.607492394612</v>
@@ -4206,24 +4149,24 @@
         <v>136.607492394612</v>
       </c>
       <c r="D68" t="n">
-        <v>34.4285670026208</v>
+        <v>34.4285677658649</v>
       </c>
       <c r="E68" t="n">
-        <v>34.4285670026208</v>
+        <v>34.4285677658649</v>
       </c>
       <c r="F68" t="n">
         <v>136.607492394612</v>
       </c>
       <c r="G68" t="n">
-        <v>34.4285670026208</v>
+        <v>34.4285677658649</v>
       </c>
       <c r="H68" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B69" t="n">
         <v>136.607492394612</v>
@@ -4232,19 +4175,19 @@
         <v>136.607492394612</v>
       </c>
       <c r="D69" t="n">
-        <v>34.2951415947049</v>
+        <v>34.2951574686238</v>
       </c>
       <c r="E69" t="n">
-        <v>34.2951415947049</v>
+        <v>34.2951574686238</v>
       </c>
       <c r="F69" t="n">
         <v>136.607492394612</v>
       </c>
       <c r="G69" t="n">
-        <v>34.2951415947049</v>
+        <v>34.2951574686238</v>
       </c>
       <c r="H69" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70">
@@ -4258,24 +4201,24 @@
         <v>135.438473248167</v>
       </c>
       <c r="D70" t="n">
-        <v>33.8183095788634</v>
+        <v>33.8183473555504</v>
       </c>
       <c r="E70" t="n">
-        <v>33.8183095788634</v>
+        <v>33.8183473555504</v>
       </c>
       <c r="F70" t="n">
         <v>135.438473248167</v>
       </c>
       <c r="G70" t="n">
-        <v>33.8183095788634</v>
+        <v>33.8183473555504</v>
       </c>
       <c r="H70" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B71" t="n">
         <v>135.438473248167</v>
@@ -4284,24 +4227,24 @@
         <v>135.438473248167</v>
       </c>
       <c r="D71" t="n">
-        <v>33.6441002657981</v>
+        <v>33.6441316929175</v>
       </c>
       <c r="E71" t="n">
-        <v>33.6441002657981</v>
+        <v>33.6441316929175</v>
       </c>
       <c r="F71" t="n">
         <v>135.438473248167</v>
       </c>
       <c r="G71" t="n">
-        <v>33.6441002657981</v>
+        <v>33.6441316929175</v>
       </c>
       <c r="H71" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B72" t="n">
         <v>135.438473248167</v>
@@ -4310,24 +4253,24 @@
         <v>135.438473248167</v>
       </c>
       <c r="D72" t="n">
-        <v>33.772513655509</v>
+        <v>33.7725104807252</v>
       </c>
       <c r="E72" t="n">
-        <v>33.772513655509</v>
+        <v>33.7725104807252</v>
       </c>
       <c r="F72" t="n">
         <v>135.438473248167</v>
       </c>
       <c r="G72" t="n">
-        <v>33.772513655509</v>
+        <v>33.7725104807252</v>
       </c>
       <c r="H72" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B73" t="n">
         <v>135.438473248167</v>
@@ -4336,19 +4279,19 @@
         <v>135.438473248167</v>
       </c>
       <c r="D73" t="n">
-        <v>34.2035497479963</v>
+        <v>34.2034837189735</v>
       </c>
       <c r="E73" t="n">
-        <v>34.2035497479963</v>
+        <v>34.2034837189735</v>
       </c>
       <c r="F73" t="n">
         <v>135.438473248167</v>
       </c>
       <c r="G73" t="n">
-        <v>34.2035497479963</v>
+        <v>34.2034837189735</v>
       </c>
       <c r="H73" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="74">
@@ -4362,24 +4305,24 @@
         <v>142.691</v>
       </c>
       <c r="D74" t="n">
-        <v>34.9372085432598</v>
+        <v>34.9370514076623</v>
       </c>
       <c r="E74" t="n">
-        <v>34.9372085432598</v>
+        <v>34.9370514076623</v>
       </c>
       <c r="F74" t="n">
         <v>142.691</v>
       </c>
       <c r="G74" t="n">
-        <v>34.9372085432598</v>
+        <v>34.9370514076623</v>
       </c>
       <c r="H74" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" t="n">
         <v>142.691</v>
@@ -4388,24 +4331,24 @@
         <v>142.691</v>
       </c>
       <c r="D75" t="n">
-        <v>35.5248886440612</v>
+        <v>35.5247579200729</v>
       </c>
       <c r="E75" t="n">
-        <v>35.5248886440612</v>
+        <v>35.5247579200729</v>
       </c>
       <c r="F75" t="n">
         <v>142.691</v>
       </c>
       <c r="G75" t="n">
-        <v>35.5248886440612</v>
+        <v>35.5247579200729</v>
       </c>
       <c r="H75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" t="n">
         <v>142.691</v>
@@ -4414,16 +4357,16 @@
         <v>142.691</v>
       </c>
       <c r="D76" t="n">
-        <v>35.9665900504007</v>
+        <v>35.9666032562053</v>
       </c>
       <c r="E76" t="n">
-        <v>35.9665900504007</v>
+        <v>35.9666032562053</v>
       </c>
       <c r="F76" t="n">
         <v>142.691</v>
       </c>
       <c r="G76" t="n">
-        <v>35.9665900504007</v>
+        <v>35.9666032562053</v>
       </c>
       <c r="H76" t="s">
         <v>173</v>
@@ -4431,7 +4374,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" t="n">
         <v>142.691</v>
@@ -4440,19 +4383,19 @@
         <v>142.691</v>
       </c>
       <c r="D77" t="n">
-        <v>36.2623127622783</v>
+        <v>36.2625874160595</v>
       </c>
       <c r="E77" t="n">
-        <v>36.2623127622783</v>
+        <v>36.2625874160595</v>
       </c>
       <c r="F77" t="n">
         <v>142.691</v>
       </c>
       <c r="G77" t="n">
-        <v>36.2623127622783</v>
+        <v>36.2625874160595</v>
       </c>
       <c r="H77" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78">
@@ -4466,24 +4409,24 @@
         <v>141.07</v>
       </c>
       <c r="D78" t="n">
-        <v>36.4120567796938</v>
+        <v>36.4127103996354</v>
       </c>
       <c r="E78" t="n">
-        <v>36.4120567796938</v>
+        <v>36.4127103996354</v>
       </c>
       <c r="F78" t="n">
         <v>141.07</v>
       </c>
       <c r="G78" t="n">
-        <v>36.4120567796938</v>
+        <v>36.4127103996354</v>
       </c>
       <c r="H78" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79" t="n">
         <v>141.07</v>
@@ -4492,24 +4435,24 @@
         <v>141.07</v>
       </c>
       <c r="D79" t="n">
-        <v>36.0141316747825</v>
+        <v>36.0146754332116</v>
       </c>
       <c r="E79" t="n">
-        <v>36.0141316747825</v>
+        <v>36.0146754332116</v>
       </c>
       <c r="F79" t="n">
         <v>141.07</v>
       </c>
       <c r="G79" t="n">
-        <v>36.0141316747825</v>
+        <v>36.0146754332116</v>
       </c>
       <c r="H79" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" t="n">
         <v>141.07</v>
@@ -4518,24 +4461,24 @@
         <v>141.07</v>
       </c>
       <c r="D80" t="n">
-        <v>35.0685374475443</v>
+        <v>35.0684825167881</v>
       </c>
       <c r="E80" t="n">
-        <v>35.0685374475443</v>
+        <v>35.0684825167881</v>
       </c>
       <c r="F80" t="n">
         <v>141.07</v>
       </c>
       <c r="G80" t="n">
-        <v>35.0685374475443</v>
+        <v>35.0684825167881</v>
       </c>
       <c r="H80" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" t="n">
         <v>141.07</v>
@@ -4544,19 +4487,19 @@
         <v>141.07</v>
       </c>
       <c r="D81" t="n">
-        <v>33.5752740979794</v>
+        <v>33.5741316503648</v>
       </c>
       <c r="E81" t="n">
-        <v>33.5752740979794</v>
+        <v>33.5741316503648</v>
       </c>
       <c r="F81" t="n">
         <v>141.07</v>
       </c>
       <c r="G81" t="n">
-        <v>33.5752740979794</v>
+        <v>33.5741316503648</v>
       </c>
       <c r="H81" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="82">
@@ -4570,24 +4513,24 @@
         <v>122.06083585415</v>
       </c>
       <c r="D82" t="n">
-        <v>31.5343416260877</v>
+        <v>31.5316228339418</v>
       </c>
       <c r="E82" t="n">
-        <v>31.5343416260877</v>
+        <v>31.5316228339418</v>
       </c>
       <c r="F82" t="n">
         <v>122.06083585415</v>
       </c>
       <c r="G82" t="n">
-        <v>31.5343416260877</v>
+        <v>31.5316228339418</v>
       </c>
       <c r="H82" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B83" t="n">
         <v>122.06083585415</v>
@@ -4596,24 +4539,24 @@
         <v>122.06083585415</v>
       </c>
       <c r="D83" t="n">
-        <v>30.3103155723109</v>
+        <v>30.3080537592109</v>
       </c>
       <c r="E83" t="n">
-        <v>30.3103155723109</v>
+        <v>30.3080537592109</v>
       </c>
       <c r="F83" t="n">
         <v>122.06083585415</v>
       </c>
       <c r="G83" t="n">
-        <v>30.3103155723109</v>
+        <v>30.3080537592109</v>
       </c>
       <c r="H83" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" t="n">
         <v>122.06083585415</v>
@@ -4622,24 +4565,24 @@
         <v>122.06083585415</v>
       </c>
       <c r="D84" t="n">
-        <v>29.9031959366492</v>
+        <v>29.9034244261721</v>
       </c>
       <c r="E84" t="n">
-        <v>29.9031959366492</v>
+        <v>29.9034244261721</v>
       </c>
       <c r="F84" t="n">
         <v>122.06083585415</v>
       </c>
       <c r="G84" t="n">
-        <v>29.9031959366492</v>
+        <v>29.9034244261721</v>
       </c>
       <c r="H84" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B85" t="n">
         <v>122.06083585415</v>
@@ -4648,19 +4591,19 @@
         <v>122.06083585415</v>
       </c>
       <c r="D85" t="n">
-        <v>30.3129827191025</v>
+        <v>30.3177348348256</v>
       </c>
       <c r="E85" t="n">
-        <v>30.3129827191025</v>
+        <v>30.3177348348256</v>
       </c>
       <c r="F85" t="n">
         <v>122.06083585415</v>
       </c>
       <c r="G85" t="n">
-        <v>30.3129827191025</v>
+        <v>30.3177348348256</v>
       </c>
       <c r="H85" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86">
@@ -4674,24 +4617,24 @@
         <v>131.496401482068</v>
       </c>
       <c r="D86" t="n">
-        <v>31.5396759196709</v>
+        <v>31.5509849851712</v>
       </c>
       <c r="E86" t="n">
-        <v>31.5396759196709</v>
+        <v>31.5509849851712</v>
       </c>
       <c r="F86" t="n">
         <v>131.496401482068</v>
       </c>
       <c r="G86" t="n">
-        <v>31.5396759196709</v>
+        <v>31.5509849851712</v>
       </c>
       <c r="H86" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B87" t="n">
         <v>131.496401482068</v>
@@ -4700,16 +4643,16 @@
         <v>131.496401482068</v>
       </c>
       <c r="D87" t="n">
-        <v>32.5641229802367</v>
+        <v>32.5735311994477</v>
       </c>
       <c r="E87" t="n">
-        <v>32.5641229802367</v>
+        <v>32.5735311994477</v>
       </c>
       <c r="F87" t="n">
         <v>131.496401482068</v>
       </c>
       <c r="G87" t="n">
-        <v>32.5641229802367</v>
+        <v>32.5735311994477</v>
       </c>
       <c r="H87" t="s">
         <v>176</v>
@@ -4717,7 +4660,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" t="n">
         <v>131.496401482068</v>
@@ -4726,24 +4669,24 @@
         <v>131.496401482068</v>
       </c>
       <c r="D88" t="n">
-        <v>33.3863239007999</v>
+        <v>33.3853734776553</v>
       </c>
       <c r="E88" t="n">
-        <v>33.3863239007999</v>
+        <v>33.3853734776553</v>
       </c>
       <c r="F88" t="n">
         <v>131.496401482068</v>
       </c>
       <c r="G88" t="n">
-        <v>33.3863239007999</v>
+        <v>33.3853734776553</v>
       </c>
       <c r="H88" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B89" t="n">
         <v>131.496401482068</v>
@@ -4752,19 +4695,19 @@
         <v>131.496401482068</v>
       </c>
       <c r="D89" t="n">
-        <v>34.0062786813606</v>
+        <v>33.9865118197939</v>
       </c>
       <c r="E89" t="n">
-        <v>34.0062786813606</v>
+        <v>33.9865118197939</v>
       </c>
       <c r="F89" t="n">
         <v>131.496401482068</v>
       </c>
       <c r="G89" t="n">
-        <v>34.0062786813606</v>
+        <v>33.9865118197939</v>
       </c>
       <c r="H89" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="90">
@@ -4778,24 +4721,24 @@
         <v>134.929284115746</v>
       </c>
       <c r="D90" t="n">
-        <v>34.4239873219188</v>
+        <v>34.3769462258635</v>
       </c>
       <c r="E90" t="n">
-        <v>34.4239873219188</v>
+        <v>34.3769462258635</v>
       </c>
       <c r="F90" t="n">
         <v>134.929284115746</v>
       </c>
       <c r="G90" t="n">
-        <v>34.4239873219188</v>
+        <v>34.3769462258635</v>
       </c>
       <c r="H90" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91" t="n">
         <v>134.929284115746</v>
@@ -4804,24 +4747,24 @@
         <v>134.929284115746</v>
       </c>
       <c r="D91" t="n">
-        <v>34.3144042609491</v>
+        <v>34.2752699095205</v>
       </c>
       <c r="E91" t="n">
-        <v>34.3144042609491</v>
+        <v>34.2752699095205</v>
       </c>
       <c r="F91" t="n">
         <v>134.929284115746</v>
       </c>
       <c r="G91" t="n">
-        <v>34.3144042609491</v>
+        <v>34.2752699095205</v>
       </c>
       <c r="H91" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B92" t="n">
         <v>134.929284115746</v>
@@ -4830,24 +4773,24 @@
         <v>134.929284115746</v>
       </c>
       <c r="D92" t="n">
-        <v>33.6775294984516</v>
+        <v>33.6814828707649</v>
       </c>
       <c r="E92" t="n">
-        <v>33.6775294984516</v>
+        <v>33.6814828707649</v>
       </c>
       <c r="F92" t="n">
         <v>134.929284115746</v>
       </c>
       <c r="G92" t="n">
-        <v>33.6775294984516</v>
+        <v>33.6814828707649</v>
       </c>
       <c r="H92" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B93" t="n">
         <v>134.929284115746</v>
@@ -4856,19 +4799,19 @@
         <v>134.929284115746</v>
       </c>
       <c r="D93" t="n">
-        <v>32.5133630344262</v>
+        <v>32.5955851095967</v>
       </c>
       <c r="E93" t="n">
-        <v>32.5133630344262</v>
+        <v>32.5955851095967</v>
       </c>
       <c r="F93" t="n">
         <v>134.929284115746</v>
       </c>
       <c r="G93" t="n">
-        <v>32.5133630344262</v>
+        <v>32.5955851095967</v>
       </c>
       <c r="H93" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94">
@@ -4882,24 +4825,24 @@
         <v>118.547276811531</v>
       </c>
       <c r="D94" t="n">
-        <v>30.821904868873</v>
+        <v>31.017576626016</v>
       </c>
       <c r="E94" t="n">
-        <v>30.821904868873</v>
+        <v>31.017576626016</v>
       </c>
       <c r="F94" t="n">
         <v>118.547276811531</v>
       </c>
       <c r="G94" t="n">
-        <v>30.821904868873</v>
+        <v>31.017576626016</v>
       </c>
       <c r="H94" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B95" t="n">
         <v>118.547276811531</v>
@@ -4908,24 +4851,24 @@
         <v>118.547276811531</v>
       </c>
       <c r="D95" t="n">
-        <v>29.6712873362556</v>
+        <v>29.8340702633304</v>
       </c>
       <c r="E95" t="n">
-        <v>29.6712873362556</v>
+        <v>29.8340702633304</v>
       </c>
       <c r="F95" t="n">
         <v>118.547276811531</v>
       </c>
       <c r="G95" t="n">
-        <v>29.6712873362556</v>
+        <v>29.8340702633304</v>
       </c>
       <c r="H95" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96" t="n">
         <v>118.547276811531</v>
@@ -4934,24 +4877,24 @@
         <v>118.547276811531</v>
       </c>
       <c r="D96" t="n">
-        <v>29.0615104365742</v>
+        <v>29.0450660215401</v>
       </c>
       <c r="E96" t="n">
-        <v>29.0615104365742</v>
+        <v>29.0450660215401</v>
       </c>
       <c r="F96" t="n">
         <v>118.547276811531</v>
       </c>
       <c r="G96" t="n">
-        <v>29.0615104365742</v>
+        <v>29.0450660215401</v>
       </c>
       <c r="H96" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B97" t="n">
         <v>118.547276811531</v>
@@ -4960,227 +4903,19 @@
         <v>118.547276811531</v>
       </c>
       <c r="D97" t="n">
-        <v>28.9925741698286</v>
+        <v>28.6505639006449</v>
       </c>
       <c r="E97" t="n">
-        <v>28.9925741698286</v>
+        <v>28.6505639006449</v>
       </c>
       <c r="F97" t="n">
         <v>118.547276811531</v>
       </c>
       <c r="G97" t="n">
-        <v>28.9925741698286</v>
+        <v>28.6505639006449</v>
       </c>
       <c r="H97" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>26</v>
-      </c>
-      <c r="B98" t="n">
-        <v>119.377107749212</v>
-      </c>
-      <c r="C98" t="n">
-        <v>119.377107749212</v>
-      </c>
-      <c r="D98" t="n">
-        <v>29.4644785360189</v>
-      </c>
-      <c r="E98" t="n">
-        <v>29.4644785360189</v>
-      </c>
-      <c r="F98" t="n">
-        <v>119.377107749212</v>
-      </c>
-      <c r="G98" t="n">
-        <v>29.4644785360189</v>
-      </c>
-      <c r="H98" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" t="n">
-        <v>119.377107749212</v>
-      </c>
-      <c r="C99" t="n">
-        <v>119.377107749212</v>
-      </c>
-      <c r="D99" t="n">
-        <v>29.8051596430087</v>
-      </c>
-      <c r="E99" t="n">
-        <v>29.8051596430087</v>
-      </c>
-      <c r="F99" t="n">
-        <v>119.377107749212</v>
-      </c>
-      <c r="G99" t="n">
-        <v>29.8051596430087</v>
-      </c>
-      <c r="H99" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" t="n">
-        <v>119.377107749212</v>
-      </c>
-      <c r="C100" t="n">
-        <v>119.377107749212</v>
-      </c>
-      <c r="D100" t="n">
-        <v>30.0146174907979</v>
-      </c>
-      <c r="E100" t="n">
-        <v>30.0146174907979</v>
-      </c>
-      <c r="F100" t="n">
-        <v>119.377107749212</v>
-      </c>
-      <c r="G100" t="n">
-        <v>30.0146174907979</v>
-      </c>
-      <c r="H100" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" t="n">
-        <v>119.377107749212</v>
-      </c>
-      <c r="C101" t="n">
-        <v>119.377107749212</v>
-      </c>
-      <c r="D101" t="n">
-        <v>30.0928520793866</v>
-      </c>
-      <c r="E101" t="n">
-        <v>30.0928520793866</v>
-      </c>
-      <c r="F101" t="n">
-        <v>119.377107749212</v>
-      </c>
-      <c r="G101" t="n">
-        <v>30.0928520793866</v>
-      </c>
-      <c r="H101" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>27</v>
-      </c>
-      <c r="B102" t="n">
-        <v>119.973993287958</v>
-      </c>
-      <c r="C102" t="n">
-        <v>119.973993287958</v>
-      </c>
-      <c r="D102" t="n">
-        <v>30.0398634087749</v>
-      </c>
-      <c r="E102" t="n">
-        <v>30.0398634087749</v>
-      </c>
-      <c r="F102" t="n">
-        <v>119.973993287958</v>
-      </c>
-      <c r="G102" t="n">
-        <v>30.0398634087749</v>
-      </c>
-      <c r="H102" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>107</v>
-      </c>
-      <c r="B103" t="n">
-        <v>119.973993287958</v>
-      </c>
-      <c r="C103" t="n">
-        <v>119.973993287958</v>
-      </c>
-      <c r="D103" t="n">
-        <v>30.000121905816</v>
-      </c>
-      <c r="E103" t="n">
-        <v>30.000121905816</v>
-      </c>
-      <c r="F103" t="n">
-        <v>119.973993287958</v>
-      </c>
-      <c r="G103" t="n">
-        <v>30.000121905816</v>
-      </c>
-      <c r="H103" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>108</v>
-      </c>
-      <c r="B104" t="n">
-        <v>119.973993287958</v>
-      </c>
-      <c r="C104" t="n">
-        <v>119.973993287958</v>
-      </c>
-      <c r="D104" t="n">
-        <v>29.9736275705101</v>
-      </c>
-      <c r="E104" t="n">
-        <v>29.9736275705101</v>
-      </c>
-      <c r="F104" t="n">
-        <v>119.973993287958</v>
-      </c>
-      <c r="G104" t="n">
-        <v>29.9736275705101</v>
-      </c>
-      <c r="H104" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>109</v>
-      </c>
-      <c r="B105" t="n">
-        <v>119.973993287958</v>
-      </c>
-      <c r="C105" t="n">
-        <v>119.973993287958</v>
-      </c>
-      <c r="D105" t="n">
-        <v>29.9603804028572</v>
-      </c>
-      <c r="E105" t="n">
-        <v>29.9603804028572</v>
-      </c>
-      <c r="F105" t="n">
-        <v>119.973993287958</v>
-      </c>
-      <c r="G105" t="n">
-        <v>29.9603804028572</v>
-      </c>
-      <c r="H105" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -5199,10 +4934,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -5215,7 +4950,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
         <v>30.1572520985359</v>
@@ -5223,15 +4958,15 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>30.5825288130246</v>
+        <v>30.5825288130245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
         <v>31.2204438847575</v>
@@ -5247,15 +4982,15 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n">
-        <v>32.7013234208734</v>
+        <v>32.7013234208733</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>33.111422206173</v>
@@ -5263,10 +4998,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>33.3012936696338</v>
+        <v>33.3012936696337</v>
       </c>
     </row>
     <row r="10">
@@ -5274,20 +5009,20 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>33.2709378112557</v>
+        <v>33.2709378112556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
-        <v>33.2969656094127</v>
+        <v>33.2969656094126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="n">
         <v>33.3793770641047</v>
@@ -5295,7 +5030,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n">
         <v>33.5181721753318</v>
@@ -5311,7 +5046,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="n">
         <v>33.4552214256731</v>
@@ -5319,7 +5054,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="n">
         <v>32.7437836230691</v>
@@ -5327,10 +5062,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="n">
-        <v>31.5790375352821</v>
+        <v>31.5790375352819</v>
       </c>
     </row>
     <row r="18">
@@ -5338,20 +5073,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>29.960983162312</v>
+        <v>29.9609831623117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>29.748906565932</v>
+        <v>29.7489065659317</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
         <v>30.9428077461419</v>
@@ -5359,10 +5094,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>33.5426867029419</v>
+        <v>33.5426867029425</v>
       </c>
     </row>
     <row r="22">
@@ -5370,31 +5105,31 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>37.548543436332</v>
+        <v>37.5485434363333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>39.8856236266671</v>
+        <v>39.8856236266682</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>40.5539272739474</v>
+        <v>40.5539272739472</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>39.5534543781728</v>
+        <v>39.5534543781703</v>
       </c>
     </row>
     <row r="26">
@@ -5402,31 +5137,31 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>36.8842049393432</v>
+        <v>36.8842049393374</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>35.1141417494676</v>
+        <v>35.1141417494627</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>34.243264808546</v>
+        <v>34.2432648085464</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>34.2715741165782</v>
+        <v>34.2715741165884</v>
       </c>
     </row>
     <row r="30">
@@ -5434,31 +5169,31 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>35.1990696735643</v>
+        <v>35.1990696735886</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>35.8309720807835</v>
+        <v>35.8309720808038</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="n">
-        <v>36.1672813382358</v>
+        <v>36.1672813382337</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>36.2079974459212</v>
+        <v>36.2079974458786</v>
       </c>
     </row>
     <row r="34">
@@ -5466,31 +5201,31 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>35.9531204038396</v>
+        <v>35.9531204037383</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" t="n">
-        <v>35.8354310642397</v>
+        <v>35.8354310641554</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" t="n">
-        <v>35.8549294271214</v>
+        <v>35.8549294271299</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" t="n">
-        <v>36.0116154924848</v>
+        <v>36.0116154926619</v>
       </c>
     </row>
     <row r="38">
@@ -5498,31 +5233,31 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>36.3054892603298</v>
+        <v>36.3054892607513</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" t="n">
-        <v>36.5037782827951</v>
+        <v>36.5037782831457</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>36.6064825598807</v>
+        <v>36.6064825598452</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>36.6136020915865</v>
+        <v>36.6136020908497</v>
       </c>
     </row>
     <row r="42">
@@ -5530,31 +5265,31 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>36.5251368779126</v>
+        <v>36.5251368761593</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" t="n">
-        <v>36.0867610542058</v>
+        <v>36.0867610527471</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="n">
-        <v>35.298474620466</v>
+        <v>35.2984746206133</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" t="n">
-        <v>34.1602775766933</v>
+        <v>34.1602775797579</v>
       </c>
     </row>
     <row r="46">
@@ -5562,31 +5297,31 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>32.6721699228876</v>
+        <v>32.6721699301808</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" t="n">
-        <v>31.4045375425752</v>
+        <v>31.4045375486425</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="n">
-        <v>30.357380435756</v>
+        <v>30.357380435143</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>29.5306986024301</v>
+        <v>29.5306985896824</v>
       </c>
     </row>
     <row r="50">
@@ -5594,31 +5329,31 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>28.9244920425974</v>
+        <v>28.9244920122605</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" t="n">
-        <v>28.1337687540965</v>
+        <v>28.1337687288587</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" t="n">
-        <v>27.1585287369273</v>
+        <v>27.1585287394768</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>25.9987719910898</v>
+        <v>25.9987720441149</v>
       </c>
     </row>
     <row r="54">
@@ -5626,31 +5361,31 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>24.6544985165841</v>
+        <v>24.6544986427729</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" t="n">
-        <v>23.9318370716137</v>
+        <v>23.9318371765925</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" t="n">
-        <v>23.8307876561788</v>
+        <v>23.8307876455737</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="n">
-        <v>24.3513502702792</v>
+        <v>24.3513500497165</v>
       </c>
     </row>
     <row r="58">
@@ -5658,31 +5393,31 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>25.493524913915</v>
+        <v>25.4935243890208</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" t="n">
-        <v>26.6136824638702</v>
+        <v>26.6136820272011</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" t="n">
-        <v>27.7118229201449</v>
+        <v>27.7118229642574</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" t="n">
-        <v>28.787946282739</v>
+        <v>28.7879472001897</v>
       </c>
     </row>
     <row r="62">
@@ -5690,31 +5425,31 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>29.8420525516525</v>
+        <v>29.8420547349979</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" t="n">
-        <v>30.856830857303</v>
+        <v>30.856832673668</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" t="n">
-        <v>31.8322811996903</v>
+        <v>31.8322810162001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B65" t="n">
-        <v>32.7684035788145</v>
+        <v>32.7683997625941</v>
       </c>
     </row>
     <row r="66">
@@ -5722,31 +5457,31 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>33.6651979946756</v>
+        <v>33.66518891285</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B67" t="n">
-        <v>34.2185858026111</v>
+        <v>34.2185782472736</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B68" t="n">
-        <v>34.4285670026208</v>
+        <v>34.4285677658649</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B69" t="n">
-        <v>34.2951415947049</v>
+        <v>34.2951574686238</v>
       </c>
     </row>
     <row r="70">
@@ -5754,31 +5489,31 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>33.8183095788634</v>
+        <v>33.8183473555504</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B71" t="n">
-        <v>33.6441002657981</v>
+        <v>33.6441316929175</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B72" t="n">
-        <v>33.772513655509</v>
+        <v>33.7725104807252</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B73" t="n">
-        <v>34.2035497479963</v>
+        <v>34.2034837189735</v>
       </c>
     </row>
     <row r="74">
@@ -5786,31 +5521,31 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>34.9372085432598</v>
+        <v>34.9370514076623</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" t="n">
-        <v>35.5248886440612</v>
+        <v>35.5247579200729</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" t="n">
-        <v>35.9665900504007</v>
+        <v>35.9666032562053</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" t="n">
-        <v>36.2623127622783</v>
+        <v>36.2625874160595</v>
       </c>
     </row>
     <row r="78">
@@ -5818,31 +5553,31 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>36.4120567796938</v>
+        <v>36.4127103996354</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79" t="n">
-        <v>36.0141316747825</v>
+        <v>36.0146754332116</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" t="n">
-        <v>35.0685374475443</v>
+        <v>35.0684825167881</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" t="n">
-        <v>33.5752740979794</v>
+        <v>33.5741316503648</v>
       </c>
     </row>
     <row r="82">
@@ -5850,31 +5585,31 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>31.5343416260877</v>
+        <v>31.5316228339418</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B83" t="n">
-        <v>30.3103155723109</v>
+        <v>30.3080537592109</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" t="n">
-        <v>29.9031959366492</v>
+        <v>29.9034244261721</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B85" t="n">
-        <v>30.3129827191025</v>
+        <v>30.3177348348256</v>
       </c>
     </row>
     <row r="86">
@@ -5882,31 +5617,31 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>31.5396759196709</v>
+        <v>31.5509849851712</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>32.5641229802367</v>
+        <v>32.5735311994477</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>33.3863239007999</v>
+        <v>33.3853734776553</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>34.0062786813606</v>
+        <v>33.9865118197939</v>
       </c>
     </row>
     <row r="90">
@@ -5914,31 +5649,31 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>34.4239873219188</v>
+        <v>34.3769462258635</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>34.3144042609491</v>
+        <v>34.2752699095205</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>33.6775294984516</v>
+        <v>33.6814828707649</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>32.5133630344262</v>
+        <v>32.5955851095967</v>
       </c>
     </row>
     <row r="94">
@@ -5946,71 +5681,71 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>30.821904868873</v>
+        <v>31.017576626016</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>29.6712873362556</v>
+        <v>29.8340702633304</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>29.0615104365742</v>
+        <v>29.0450660215401</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>28.9925741698286</v>
+        <v>28.6505639006449</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>29.4644785360189</v>
+        <v>29.1876441005728</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>29.8051596430087</v>
+        <v>29.6455827804704</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>30.0146174907979</v>
+        <v>30.0244268138697</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>30.0928520793866</v>
+        <v>30.3242218393007</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>30.0398634087749</v>
+        <v>30.3618809683408</v>
       </c>
     </row>
     <row r="103">
@@ -6018,7 +5753,7 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>30.000121905816</v>
+        <v>30.3985478734643</v>
       </c>
     </row>
     <row r="104">
@@ -6026,7 +5761,7 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>29.9736275705101</v>
+        <v>30.4342486972914</v>
       </c>
     </row>
     <row r="105">
@@ -6034,7 +5769,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>29.9603804028572</v>
+        <v>30.4690088936494</v>
       </c>
     </row>
     <row r="106">
@@ -6042,7 +5777,7 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>30.0438860695498</v>
+        <v>30.5028532457207</v>
       </c>
     </row>
     <row r="107">
@@ -6050,7 +5785,7 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>30.1222687082499</v>
+        <v>30.5358058837132</v>
       </c>
     </row>
     <row r="108">
@@ -6058,7 +5793,7 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>30.1955678516503</v>
+        <v>30.5678903020638</v>
       </c>
     </row>
     <row r="109">
@@ -6066,7 +5801,7 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>30.2638220339781</v>
+        <v>30.5991293761899</v>
       </c>
     </row>
     <row r="110">
@@ -6074,7 +5809,7 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>30.2987530948911</v>
+        <v>30.6295453787988</v>
       </c>
     </row>
     <row r="111">
@@ -6082,7 +5817,7 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>30.3328019122331</v>
+        <v>30.6591599957676</v>
       </c>
     </row>
     <row r="112">
@@ -6090,7 +5825,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>30.3659907685713</v>
+        <v>30.6879943416046</v>
       </c>
     </row>
     <row r="113">
@@ -6098,7 +5833,7 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>30.3983413836889</v>
+        <v>30.7160689745039</v>
       </c>
     </row>
     <row r="114">
@@ -6106,7 +5841,7 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>30.4298749287989</v>
+        <v>30.7434039110024</v>
       </c>
     </row>
     <row r="115">
@@ -6114,7 +5849,7 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>30.460612040399</v>
+        <v>30.7700186402512</v>
       </c>
     </row>
     <row r="116">
@@ -6122,7 +5857,7 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>30.490572833777</v>
+        <v>30.7959321379112</v>
       </c>
     </row>
     <row r="117">
@@ -6130,7 +5865,7 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>30.5197769161748</v>
+        <v>30.8211628796819</v>
       </c>
     </row>
     <row r="118">
@@ -6138,7 +5873,7 @@
         <v>122</v>
       </c>
       <c r="B118" t="n">
-        <v>30.5482433996199</v>
+        <v>30.8457288544743</v>
       </c>
     </row>
     <row r="119">
@@ -6146,7 +5881,7 @@
         <v>123</v>
       </c>
       <c r="B119" t="n">
-        <v>30.575990913433</v>
+        <v>30.8696475772367</v>
       </c>
     </row>
     <row r="120">
@@ -6154,7 +5889,7 @@
         <v>124</v>
       </c>
       <c r="B120" t="n">
-        <v>30.6030376164194</v>
+        <v>30.8929361014421</v>
       </c>
     </row>
     <row r="121">
@@ -6162,7 +5897,7 @@
         <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>30.6294012087529</v>
+        <v>30.9156110312473</v>
       </c>
     </row>
     <row r="122">
@@ -6170,7 +5905,7 @@
         <v>126</v>
       </c>
       <c r="B122" t="n">
-        <v>30.655098943559</v>
+        <v>30.937688533331</v>
       </c>
     </row>
     <row r="123">
@@ -6178,7 +5913,7 @@
         <v>127</v>
       </c>
       <c r="B123" t="n">
-        <v>30.6801476382063</v>
+        <v>30.9591843484202</v>
       </c>
     </row>
     <row r="124">
@@ -6186,7 +5921,7 @@
         <v>128</v>
       </c>
       <c r="B124" t="n">
-        <v>30.7045636853118</v>
+        <v>30.9801138025133</v>
       </c>
     </row>
     <row r="125">
@@ -6194,7 +5929,7 @@
         <v>129</v>
       </c>
       <c r="B125" t="n">
-        <v>30.7283630634692</v>
+        <v>31.0004918178069</v>
       </c>
     </row>
     <row r="126">
@@ -6202,7 +5937,7 @@
         <v>130</v>
       </c>
       <c r="B126" t="n">
-        <v>30.7515613477053</v>
+        <v>31.0203329233348</v>
       </c>
     </row>
     <row r="127">
@@ -6210,7 +5945,7 @@
         <v>131</v>
       </c>
       <c r="B127" t="n">
-        <v>30.7741737196734</v>
+        <v>31.0396512653275</v>
       </c>
     </row>
     <row r="128">
@@ -6218,7 +5953,7 @@
         <v>132</v>
       </c>
       <c r="B128" t="n">
-        <v>30.7962149775878</v>
+        <v>31.0584606172972</v>
       </c>
     </row>
     <row r="129">
@@ -6226,7 +5961,7 @@
         <v>133</v>
       </c>
       <c r="B129" t="n">
-        <v>30.8176995459089</v>
+        <v>31.0767743898589</v>
       </c>
     </row>
     <row r="130">
@@ -6234,7 +5969,7 @@
         <v>134</v>
       </c>
       <c r="B130" t="n">
-        <v>30.8386414847827</v>
+        <v>31.0946056402912</v>
       </c>
     </row>
     <row r="131">
@@ -6242,7 +5977,7 @@
         <v>135</v>
       </c>
       <c r="B131" t="n">
-        <v>30.859054499242</v>
+        <v>31.111967081846</v>
       </c>
     </row>
     <row r="132">
@@ -6250,7 +5985,7 @@
         <v>136</v>
       </c>
       <c r="B132" t="n">
-        <v>30.878951948176</v>
+        <v>31.1288710928129</v>
       </c>
     </row>
     <row r="133">
@@ -6258,7 +5993,7 @@
         <v>137</v>
       </c>
       <c r="B133" t="n">
-        <v>30.8983468530719</v>
+        <v>31.1453297253446</v>
       </c>
     </row>
   </sheetData>
@@ -6277,10 +6012,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
@@ -6293,7 +6028,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
         <v>30.1572520985359</v>
@@ -6301,15 +6036,15 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="n">
-        <v>30.5825288130246</v>
+        <v>30.5825288130245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" t="n">
         <v>31.2204438847575</v>
@@ -6325,15 +6060,15 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="n">
-        <v>32.7013234208734</v>
+        <v>32.7013234208733</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="n">
         <v>33.111422206173</v>
@@ -6341,10 +6076,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>33.3012936696338</v>
+        <v>33.3012936696337</v>
       </c>
     </row>
     <row r="10">
@@ -6352,20 +6087,20 @@
         <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>33.2709378112557</v>
+        <v>33.2709378112556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
-        <v>33.2969656094127</v>
+        <v>33.2969656094126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B12" t="n">
         <v>33.3793770641047</v>
@@ -6373,7 +6108,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" t="n">
         <v>33.5181721753318</v>
@@ -6389,7 +6124,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B15" t="n">
         <v>33.4552214256731</v>
@@ -6397,7 +6132,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B16" t="n">
         <v>32.7437836230691</v>
@@ -6405,10 +6140,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="n">
-        <v>31.5790375352821</v>
+        <v>31.5790375352819</v>
       </c>
     </row>
     <row r="18">
@@ -6416,20 +6151,20 @@
         <v>6</v>
       </c>
       <c r="B18" t="n">
-        <v>29.960983162312</v>
+        <v>29.9609831623117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="n">
-        <v>29.748906565932</v>
+        <v>29.7489065659317</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="n">
         <v>30.9428077461419</v>
@@ -6437,10 +6172,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="n">
-        <v>33.5426867029419</v>
+        <v>33.5426867029425</v>
       </c>
     </row>
     <row r="22">
@@ -6448,31 +6183,31 @@
         <v>7</v>
       </c>
       <c r="B22" t="n">
-        <v>37.548543436332</v>
+        <v>37.5485434363333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" t="n">
-        <v>39.8856236266671</v>
+        <v>39.8856236266682</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>40.5539272739474</v>
+        <v>40.5539272739472</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B25" t="n">
-        <v>39.5534543781728</v>
+        <v>39.5534543781703</v>
       </c>
     </row>
     <row r="26">
@@ -6480,31 +6215,31 @@
         <v>8</v>
       </c>
       <c r="B26" t="n">
-        <v>36.8842049393432</v>
+        <v>36.8842049393374</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="n">
-        <v>35.1141417494676</v>
+        <v>35.1141417494627</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="n">
-        <v>34.243264808546</v>
+        <v>34.2432648085464</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="n">
-        <v>34.2715741165782</v>
+        <v>34.2715741165884</v>
       </c>
     </row>
     <row r="30">
@@ -6512,31 +6247,31 @@
         <v>9</v>
       </c>
       <c r="B30" t="n">
-        <v>35.1990696735643</v>
+        <v>35.1990696735886</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>35.8309720807835</v>
+        <v>35.8309720808038</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="n">
-        <v>36.1672813382358</v>
+        <v>36.1672813382337</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>36.2079974459212</v>
+        <v>36.2079974458786</v>
       </c>
     </row>
     <row r="34">
@@ -6544,31 +6279,31 @@
         <v>10</v>
       </c>
       <c r="B34" t="n">
-        <v>35.9531204038396</v>
+        <v>35.9531204037383</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B35" t="n">
-        <v>35.8354310642397</v>
+        <v>35.8354310641554</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B36" t="n">
-        <v>35.8549294271214</v>
+        <v>35.8549294271299</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B37" t="n">
-        <v>36.0116154924848</v>
+        <v>36.0116154926619</v>
       </c>
     </row>
     <row r="38">
@@ -6576,31 +6311,31 @@
         <v>11</v>
       </c>
       <c r="B38" t="n">
-        <v>36.3054892603298</v>
+        <v>36.3054892607513</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" t="n">
-        <v>36.5037782827951</v>
+        <v>36.5037782831457</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" t="n">
-        <v>36.6064825598807</v>
+        <v>36.6064825598452</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B41" t="n">
-        <v>36.6136020915865</v>
+        <v>36.6136020908497</v>
       </c>
     </row>
     <row r="42">
@@ -6608,31 +6343,31 @@
         <v>12</v>
       </c>
       <c r="B42" t="n">
-        <v>36.5251368779126</v>
+        <v>36.5251368761593</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" t="n">
-        <v>36.0867610542058</v>
+        <v>36.0867610527471</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="n">
-        <v>35.298474620466</v>
+        <v>35.2984746206133</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B45" t="n">
-        <v>34.1602775766933</v>
+        <v>34.1602775797579</v>
       </c>
     </row>
     <row r="46">
@@ -6640,31 +6375,31 @@
         <v>13</v>
       </c>
       <c r="B46" t="n">
-        <v>32.6721699228876</v>
+        <v>32.6721699301808</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B47" t="n">
-        <v>31.4045375425752</v>
+        <v>31.4045375486425</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B48" t="n">
-        <v>30.357380435756</v>
+        <v>30.357380435143</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B49" t="n">
-        <v>29.5306986024301</v>
+        <v>29.5306985896824</v>
       </c>
     </row>
     <row r="50">
@@ -6672,31 +6407,31 @@
         <v>14</v>
       </c>
       <c r="B50" t="n">
-        <v>28.9244920425974</v>
+        <v>28.9244920122605</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B51" t="n">
-        <v>28.1337687540965</v>
+        <v>28.1337687288587</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B52" t="n">
-        <v>27.1585287369273</v>
+        <v>27.1585287394768</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B53" t="n">
-        <v>25.9987719910898</v>
+        <v>25.9987720441149</v>
       </c>
     </row>
     <row r="54">
@@ -6704,31 +6439,31 @@
         <v>15</v>
       </c>
       <c r="B54" t="n">
-        <v>24.6544985165841</v>
+        <v>24.6544986427729</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B55" t="n">
-        <v>23.9318370716137</v>
+        <v>23.9318371765925</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B56" t="n">
-        <v>23.8307876561788</v>
+        <v>23.8307876455737</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B57" t="n">
-        <v>24.3513502702792</v>
+        <v>24.3513500497165</v>
       </c>
     </row>
     <row r="58">
@@ -6736,31 +6471,31 @@
         <v>16</v>
       </c>
       <c r="B58" t="n">
-        <v>25.493524913915</v>
+        <v>25.4935243890208</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B59" t="n">
-        <v>26.6136824638702</v>
+        <v>26.6136820272011</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B60" t="n">
-        <v>27.7118229201449</v>
+        <v>27.7118229642574</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B61" t="n">
-        <v>28.787946282739</v>
+        <v>28.7879472001897</v>
       </c>
     </row>
     <row r="62">
@@ -6768,31 +6503,31 @@
         <v>17</v>
       </c>
       <c r="B62" t="n">
-        <v>29.8420525516525</v>
+        <v>29.8420547349979</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" t="n">
-        <v>30.856830857303</v>
+        <v>30.856832673668</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" t="n">
-        <v>31.8322811996903</v>
+        <v>31.8322810162001</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B65" t="n">
-        <v>32.7684035788145</v>
+        <v>32.7683997625941</v>
       </c>
     </row>
     <row r="66">
@@ -6800,31 +6535,31 @@
         <v>18</v>
       </c>
       <c r="B66" t="n">
-        <v>33.6651979946756</v>
+        <v>33.66518891285</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B67" t="n">
-        <v>34.2185858026111</v>
+        <v>34.2185782472736</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B68" t="n">
-        <v>34.4285670026208</v>
+        <v>34.4285677658649</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B69" t="n">
-        <v>34.2951415947049</v>
+        <v>34.2951574686238</v>
       </c>
     </row>
     <row r="70">
@@ -6832,31 +6567,31 @@
         <v>19</v>
       </c>
       <c r="B70" t="n">
-        <v>33.8183095788634</v>
+        <v>33.8183473555504</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B71" t="n">
-        <v>33.6441002657981</v>
+        <v>33.6441316929175</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B72" t="n">
-        <v>33.772513655509</v>
+        <v>33.7725104807252</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B73" t="n">
-        <v>34.2035497479963</v>
+        <v>34.2034837189735</v>
       </c>
     </row>
     <row r="74">
@@ -6864,31 +6599,31 @@
         <v>20</v>
       </c>
       <c r="B74" t="n">
-        <v>34.9372085432598</v>
+        <v>34.9370514076623</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" t="n">
-        <v>35.5248886440612</v>
+        <v>35.5247579200729</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" t="n">
-        <v>35.9665900504007</v>
+        <v>35.9666032562053</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" t="n">
-        <v>36.2623127622783</v>
+        <v>36.2625874160595</v>
       </c>
     </row>
     <row r="78">
@@ -6896,31 +6631,31 @@
         <v>21</v>
       </c>
       <c r="B78" t="n">
-        <v>36.4120567796938</v>
+        <v>36.4127103996354</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79" t="n">
-        <v>36.0141316747825</v>
+        <v>36.0146754332116</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" t="n">
-        <v>35.0685374475443</v>
+        <v>35.0684825167881</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" t="n">
-        <v>33.5752740979794</v>
+        <v>33.5741316503648</v>
       </c>
     </row>
     <row r="82">
@@ -6928,31 +6663,31 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>31.5343416260877</v>
+        <v>31.5316228339418</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B83" t="n">
-        <v>30.3103155723109</v>
+        <v>30.3080537592109</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B84" t="n">
-        <v>29.9031959366492</v>
+        <v>29.9034244261721</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B85" t="n">
-        <v>30.3129827191025</v>
+        <v>30.3177348348256</v>
       </c>
     </row>
     <row r="86">
@@ -6960,31 +6695,31 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>31.5396759196709</v>
+        <v>31.5509849851712</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>32.5641229802367</v>
+        <v>32.5735311994477</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>33.3863239007999</v>
+        <v>33.3853734776553</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>34.0062786813606</v>
+        <v>33.9865118197939</v>
       </c>
     </row>
     <row r="90">
@@ -6992,31 +6727,31 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>34.4239873219188</v>
+        <v>34.3769462258635</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91" t="n">
-        <v>34.3144042609491</v>
+        <v>34.2752699095205</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B92" t="n">
-        <v>33.6775294984516</v>
+        <v>33.6814828707649</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B93" t="n">
-        <v>32.5133630344262</v>
+        <v>32.5955851095967</v>
       </c>
     </row>
     <row r="94">
@@ -7024,71 +6759,71 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>30.821904868873</v>
+        <v>31.017576626016</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B95" t="n">
-        <v>29.6712873362556</v>
+        <v>29.8340702633304</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B96" t="n">
-        <v>29.0615104365742</v>
+        <v>29.0450660215401</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B97" t="n">
-        <v>28.9925741698286</v>
+        <v>28.6505639006449</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B98" t="n">
-        <v>29.4644785360189</v>
+        <v>29.1876441005728</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B99" t="n">
-        <v>29.8051596430087</v>
+        <v>29.6455827804704</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B100" t="n">
-        <v>30.0146174907979</v>
+        <v>30.0244268138697</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B101" t="n">
-        <v>30.0928520793866</v>
+        <v>30.3242218393007</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B102" t="n">
-        <v>30.0398634087749</v>
+        <v>30.3618809683408</v>
       </c>
     </row>
     <row r="103">
@@ -7096,7 +6831,7 @@
         <v>107</v>
       </c>
       <c r="B103" t="n">
-        <v>30.000121905816</v>
+        <v>30.3985478734643</v>
       </c>
     </row>
     <row r="104">
@@ -7104,7 +6839,7 @@
         <v>108</v>
       </c>
       <c r="B104" t="n">
-        <v>29.9736275705101</v>
+        <v>30.4342486972914</v>
       </c>
     </row>
     <row r="105">
@@ -7112,7 +6847,7 @@
         <v>109</v>
       </c>
       <c r="B105" t="n">
-        <v>29.9603804028572</v>
+        <v>30.4690088936494</v>
       </c>
     </row>
     <row r="106">
@@ -7120,7 +6855,7 @@
         <v>110</v>
       </c>
       <c r="B106" t="n">
-        <v>30.0438860695498</v>
+        <v>30.5028532457207</v>
       </c>
     </row>
     <row r="107">
@@ -7128,7 +6863,7 @@
         <v>111</v>
       </c>
       <c r="B107" t="n">
-        <v>30.1222687082499</v>
+        <v>30.5358058837132</v>
       </c>
     </row>
     <row r="108">
@@ -7136,7 +6871,7 @@
         <v>112</v>
       </c>
       <c r="B108" t="n">
-        <v>30.1955678516503</v>
+        <v>30.5678903020638</v>
       </c>
     </row>
     <row r="109">
@@ -7144,7 +6879,7 @@
         <v>113</v>
       </c>
       <c r="B109" t="n">
-        <v>30.2638220339781</v>
+        <v>30.5991293761899</v>
       </c>
     </row>
     <row r="110">
@@ -7152,7 +6887,7 @@
         <v>114</v>
       </c>
       <c r="B110" t="n">
-        <v>30.2987530948911</v>
+        <v>30.6295453787988</v>
       </c>
     </row>
     <row r="111">
@@ -7160,7 +6895,7 @@
         <v>115</v>
       </c>
       <c r="B111" t="n">
-        <v>30.3328019122331</v>
+        <v>30.6591599957676</v>
       </c>
     </row>
     <row r="112">
@@ -7168,7 +6903,7 @@
         <v>116</v>
       </c>
       <c r="B112" t="n">
-        <v>30.3659907685713</v>
+        <v>30.6879943416046</v>
       </c>
     </row>
     <row r="113">
@@ -7176,7 +6911,7 @@
         <v>117</v>
       </c>
       <c r="B113" t="n">
-        <v>30.3983413836889</v>
+        <v>30.7160689745039</v>
       </c>
     </row>
     <row r="114">
@@ -7184,7 +6919,7 @@
         <v>118</v>
       </c>
       <c r="B114" t="n">
-        <v>30.4298749287989</v>
+        <v>30.7434039110024</v>
       </c>
     </row>
     <row r="115">
@@ -7192,7 +6927,7 @@
         <v>119</v>
       </c>
       <c r="B115" t="n">
-        <v>30.460612040399</v>
+        <v>30.7700186402512</v>
       </c>
     </row>
     <row r="116">
@@ -7200,7 +6935,7 @@
         <v>120</v>
       </c>
       <c r="B116" t="n">
-        <v>30.490572833777</v>
+        <v>30.7959321379112</v>
       </c>
     </row>
     <row r="117">
@@ -7208,7 +6943,7 @@
         <v>121</v>
       </c>
       <c r="B117" t="n">
-        <v>30.5197769161748</v>
+        <v>30.8211628796819</v>
       </c>
     </row>
     <row r="118">
@@ -7216,7 +6951,7 @@
         <v>122</v>
       </c>
       <c r="B118" t="n">
-        <v>30.5482433996199</v>
+        <v>30.8457288544743</v>
       </c>
     </row>
     <row r="119">
@@ -7224,7 +6959,7 @@
         <v>123</v>
       </c>
       <c r="B119" t="n">
-        <v>30.575990913433</v>
+        <v>30.8696475772367</v>
       </c>
     </row>
     <row r="120">
@@ -7232,7 +6967,7 @@
         <v>124</v>
       </c>
       <c r="B120" t="n">
-        <v>30.6030376164194</v>
+        <v>30.8929361014421</v>
       </c>
     </row>
     <row r="121">
@@ -7240,7 +6975,7 @@
         <v>125</v>
       </c>
       <c r="B121" t="n">
-        <v>30.6294012087529</v>
+        <v>30.9156110312473</v>
       </c>
     </row>
     <row r="122">
@@ -7248,7 +6983,7 @@
         <v>126</v>
       </c>
       <c r="B122" t="n">
-        <v>30.655098943559</v>
+        <v>30.937688533331</v>
       </c>
     </row>
     <row r="123">
@@ -7256,7 +6991,7 @@
         <v>127</v>
       </c>
       <c r="B123" t="n">
-        <v>30.6801476382063</v>
+        <v>30.9591843484202</v>
       </c>
     </row>
     <row r="124">
@@ -7264,7 +6999,7 @@
         <v>128</v>
       </c>
       <c r="B124" t="n">
-        <v>30.7045636853118</v>
+        <v>30.9801138025133</v>
       </c>
     </row>
     <row r="125">
@@ -7272,7 +7007,7 @@
         <v>129</v>
       </c>
       <c r="B125" t="n">
-        <v>30.7283630634692</v>
+        <v>31.0004918178069</v>
       </c>
     </row>
     <row r="126">
@@ -7280,7 +7015,7 @@
         <v>130</v>
       </c>
       <c r="B126" t="n">
-        <v>30.7515613477053</v>
+        <v>31.0203329233348</v>
       </c>
     </row>
     <row r="127">
@@ -7288,7 +7023,7 @@
         <v>131</v>
       </c>
       <c r="B127" t="n">
-        <v>30.7741737196734</v>
+        <v>31.0396512653275</v>
       </c>
     </row>
     <row r="128">
@@ -7296,7 +7031,7 @@
         <v>132</v>
       </c>
       <c r="B128" t="n">
-        <v>30.7962149775878</v>
+        <v>31.0584606172972</v>
       </c>
     </row>
     <row r="129">
@@ -7304,7 +7039,7 @@
         <v>133</v>
       </c>
       <c r="B129" t="n">
-        <v>30.8176995459089</v>
+        <v>31.0767743898589</v>
       </c>
     </row>
     <row r="130">
@@ -7312,7 +7047,7 @@
         <v>134</v>
       </c>
       <c r="B130" t="n">
-        <v>30.8386414847827</v>
+        <v>31.0946056402912</v>
       </c>
     </row>
     <row r="131">
@@ -7320,7 +7055,7 @@
         <v>135</v>
       </c>
       <c r="B131" t="n">
-        <v>30.859054499242</v>
+        <v>31.111967081846</v>
       </c>
     </row>
     <row r="132">
@@ -7328,7 +7063,7 @@
         <v>136</v>
       </c>
       <c r="B132" t="n">
-        <v>30.878951948176</v>
+        <v>31.1288710928129</v>
       </c>
     </row>
     <row r="133">
@@ -7336,7 +7071,7 @@
         <v>137</v>
       </c>
       <c r="B133" t="n">
-        <v>30.8983468530719</v>
+        <v>31.1453297253446</v>
       </c>
     </row>
   </sheetData>
